--- a/BackTest/2019-10-29 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-29 BackTest PIVX.xlsx
@@ -451,17 +451,13 @@
         <v>284.35</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>293</v>
-      </c>
-      <c r="K2" t="n">
-        <v>293</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>284.95</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>288</v>
-      </c>
-      <c r="K3" t="n">
-        <v>293</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>285.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>293</v>
-      </c>
-      <c r="K4" t="n">
-        <v>293</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>286.05</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>293</v>
-      </c>
-      <c r="K5" t="n">
-        <v>293</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>286.65</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>294</v>
-      </c>
-      <c r="K6" t="n">
-        <v>293</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>287.65</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>301</v>
-      </c>
-      <c r="K7" t="n">
-        <v>293</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -711,14 +667,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>293</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -749,17 +699,11 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>293</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -790,17 +734,11 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>293</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -831,17 +769,11 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>293</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -875,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>293</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -916,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>293</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -957,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>293</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -998,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>293</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1036,19 +944,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>293</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>1.039368600682594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1077,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -2719,14 +2621,20 @@
         <v>291.2</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>287</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2754,14 +2662,20 @@
         <v>291</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>289</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2789,14 +2703,20 @@
         <v>290.85</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>290</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2824,14 +2744,20 @@
         <v>290.9</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>292</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2866,7 +2792,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2901,7 +2831,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2936,7 +2870,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2971,7 +2909,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3006,7 +2948,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3041,7 +2987,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3076,7 +3026,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3111,7 +3065,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3146,7 +3104,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3181,7 +3143,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3216,7 +3182,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3251,7 +3221,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3286,7 +3260,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3321,7 +3299,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3356,7 +3338,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3391,7 +3377,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3426,7 +3416,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3461,7 +3455,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3496,7 +3494,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3531,7 +3533,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3566,7 +3572,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3601,7 +3611,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3636,7 +3650,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3671,7 +3689,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3706,7 +3728,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3741,7 +3767,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3776,7 +3806,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3811,7 +3845,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3846,7 +3884,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3881,7 +3923,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3916,7 +3962,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3951,7 +4001,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4040,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4021,7 +4079,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4056,7 +4118,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4091,7 +4157,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4126,7 +4196,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4161,7 +4235,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4196,7 +4274,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4231,7 +4313,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4266,7 +4352,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4301,7 +4391,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4336,7 +4430,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4371,7 +4469,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4406,7 +4508,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4441,7 +4547,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4476,7 +4586,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4511,7 +4625,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4546,7 +4664,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4581,7 +4703,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4616,7 +4742,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4651,7 +4781,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4686,7 +4820,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4721,7 +4859,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4756,7 +4898,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4791,7 +4937,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4826,7 +4976,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4861,7 +5015,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4896,7 +5054,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4931,7 +5093,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4966,7 +5132,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5001,7 +5171,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5036,7 +5210,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5071,7 +5249,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5106,7 +5288,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5327,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5176,7 +5366,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5211,7 +5405,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5246,7 +5444,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5281,7 +5483,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5316,7 +5522,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5351,7 +5561,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5386,7 +5600,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5421,7 +5639,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5456,7 +5678,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5491,7 +5717,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5526,7 +5756,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5561,7 +5795,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5596,7 +5834,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5631,7 +5873,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5666,7 +5912,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5701,7 +5951,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5736,7 +5990,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5771,7 +6029,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5806,7 +6068,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5841,7 +6107,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5876,7 +6146,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5911,7 +6185,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5946,7 +6224,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5981,7 +6263,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6016,7 +6302,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6051,7 +6341,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6086,7 +6380,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6121,7 +6419,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6156,7 +6458,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6191,7 +6497,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6226,7 +6536,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6261,7 +6575,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +6614,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6331,7 +6653,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6366,7 +6692,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6401,7 +6731,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6436,7 +6770,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6471,7 +6809,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6506,7 +6848,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6541,7 +6887,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6576,7 +6926,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6611,7 +6965,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6646,7 +7004,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6681,7 +7043,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6716,7 +7082,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6751,7 +7121,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6786,7 +7160,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6821,7 +7199,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6856,7 +7238,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6891,7 +7277,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6926,7 +7316,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6961,7 +7355,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6996,7 +7394,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7031,7 +7433,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7066,7 +7472,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7101,7 +7511,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7136,7 +7550,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7171,7 +7589,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7206,7 +7628,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7241,7 +7667,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7276,7 +7706,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7311,7 +7745,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7346,7 +7784,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7381,7 +7823,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7416,7 +7862,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7901,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7486,7 +7940,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7521,7 +7979,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7556,7 +8018,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7591,7 +8057,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7626,7 +8096,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7661,7 +8135,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7696,7 +8174,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7731,7 +8213,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7766,7 +8252,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7801,7 +8291,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7836,7 +8330,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7871,7 +8369,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7906,7 +8408,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7941,7 +8447,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7976,7 +8486,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8011,7 +8525,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8046,7 +8564,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8081,7 +8603,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8116,7 +8642,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8151,7 +8681,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8186,7 +8720,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8221,7 +8759,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8256,7 +8798,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8291,7 +8837,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8326,7 +8876,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8361,7 +8915,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8396,7 +8954,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8431,7 +8993,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8466,7 +9032,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8501,7 +9071,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8536,7 +9110,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8571,7 +9149,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +9188,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8641,7 +9227,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8676,7 +9266,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8711,7 +9305,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8746,7 +9344,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8781,7 +9383,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8816,7 +9422,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8851,7 +9461,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8886,7 +9500,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8921,7 +9539,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8956,7 +9578,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -8991,7 +9617,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9026,7 +9656,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9061,7 +9695,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9096,7 +9734,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9131,7 +9773,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9166,7 +9812,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9201,7 +9851,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9236,7 +9890,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9271,7 +9929,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9306,7 +9968,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9341,7 +10007,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9376,7 +10046,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9411,7 +10085,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9446,7 +10124,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9481,7 +10163,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9516,7 +10202,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9551,7 +10241,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9586,7 +10280,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9621,7 +10319,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9656,7 +10358,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9691,7 +10397,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9726,7 +10436,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9761,7 +10475,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9796,7 +10514,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9831,7 +10553,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9866,7 +10592,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9901,7 +10631,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9936,7 +10670,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -9971,7 +10709,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10006,7 +10748,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10041,7 +10787,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10076,7 +10826,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10111,7 +10865,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10146,7 +10904,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10181,7 +10943,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10216,7 +10982,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10251,7 +11021,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10286,7 +11060,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10321,7 +11099,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10356,7 +11138,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10391,7 +11177,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-29 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-29 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M283"/>
+  <dimension ref="A1:M284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C2" t="n">
         <v>293</v>
@@ -442,19 +442,19 @@
         <v>293</v>
       </c>
       <c r="E2" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F2" t="n">
-        <v>5701.6109</v>
+        <v>19996.5703</v>
       </c>
       <c r="G2" t="n">
-        <v>284.35</v>
+        <v>281.8333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C3" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D3" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E3" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F3" t="n">
-        <v>38.4051</v>
+        <v>5701.6109</v>
       </c>
       <c r="G3" t="n">
-        <v>284.95</v>
+        <v>282.0333333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C4" t="n">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D4" t="n">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E4" t="n">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F4" t="n">
-        <v>4475.2798</v>
+        <v>38.4051</v>
       </c>
       <c r="G4" t="n">
-        <v>285.5</v>
+        <v>282.1333333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>293</v>
       </c>
       <c r="C5" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D5" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E5" t="n">
         <v>293</v>
       </c>
       <c r="F5" t="n">
-        <v>36655.8593</v>
+        <v>4475.2798</v>
       </c>
       <c r="G5" t="n">
-        <v>286.05</v>
+        <v>282.3333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>293</v>
+      </c>
+      <c r="C6" t="n">
         <v>294</v>
       </c>
-      <c r="C6" t="n">
-        <v>301</v>
-      </c>
       <c r="D6" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E6" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F6" t="n">
-        <v>48859.8899</v>
+        <v>36655.8593</v>
       </c>
       <c r="G6" t="n">
-        <v>286.65</v>
+        <v>282.55</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>294</v>
+      </c>
+      <c r="C7" t="n">
         <v>301</v>
       </c>
-      <c r="C7" t="n">
-        <v>303</v>
-      </c>
       <c r="D7" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E7" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F7" t="n">
-        <v>2459.8233</v>
+        <v>48859.8899</v>
       </c>
       <c r="G7" t="n">
-        <v>287.65</v>
+        <v>282.8833333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>301</v>
+      </c>
+      <c r="C8" t="n">
         <v>303</v>
       </c>
-      <c r="C8" t="n">
-        <v>308</v>
-      </c>
       <c r="D8" t="n">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E8" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F8" t="n">
-        <v>23725.3727</v>
+        <v>2459.8233</v>
       </c>
       <c r="G8" t="n">
-        <v>288.75</v>
+        <v>283.3333333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C9" t="n">
         <v>308</v>
@@ -687,13 +687,13 @@
         <v>308</v>
       </c>
       <c r="E9" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F9" t="n">
-        <v>18210.1843</v>
+        <v>23725.3727</v>
       </c>
       <c r="G9" t="n">
-        <v>290</v>
+        <v>283.85</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C10" t="n">
         <v>308</v>
@@ -722,13 +722,13 @@
         <v>308</v>
       </c>
       <c r="E10" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F10" t="n">
-        <v>10484.3808</v>
+        <v>18210.1843</v>
       </c>
       <c r="G10" t="n">
-        <v>291.3</v>
+        <v>284.2833333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>308</v>
       </c>
       <c r="C11" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D11" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E11" t="n">
         <v>308</v>
       </c>
       <c r="F11" t="n">
-        <v>6186.1128</v>
+        <v>10484.3808</v>
       </c>
       <c r="G11" t="n">
-        <v>292.55</v>
+        <v>284.7166666666666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>308</v>
       </c>
       <c r="C12" t="n">
+        <v>309</v>
+      </c>
+      <c r="D12" t="n">
+        <v>309</v>
+      </c>
+      <c r="E12" t="n">
         <v>308</v>
       </c>
-      <c r="D12" t="n">
-        <v>308</v>
-      </c>
-      <c r="E12" t="n">
-        <v>298</v>
-      </c>
       <c r="F12" t="n">
-        <v>41536.2201</v>
+        <v>6186.1128</v>
       </c>
       <c r="G12" t="n">
-        <v>293.85</v>
+        <v>285.1666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C13" t="n">
         <v>308</v>
@@ -827,19 +827,19 @@
         <v>308</v>
       </c>
       <c r="E13" t="n">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F13" t="n">
-        <v>41</v>
+        <v>41536.2201</v>
       </c>
       <c r="G13" t="n">
-        <v>295.1</v>
+        <v>285.6333333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -856,19 +856,19 @@
         <v>307</v>
       </c>
       <c r="C14" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D14" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E14" t="n">
         <v>307</v>
       </c>
       <c r="F14" t="n">
-        <v>4.67</v>
+        <v>41</v>
       </c>
       <c r="G14" t="n">
-        <v>296.35</v>
+        <v>286.1166666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C15" t="n">
         <v>307</v>
@@ -897,19 +897,19 @@
         <v>307</v>
       </c>
       <c r="E15" t="n">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="F15" t="n">
-        <v>11511.0108</v>
+        <v>4.67</v>
       </c>
       <c r="G15" t="n">
-        <v>297.25</v>
+        <v>286.6166666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C16" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D16" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E16" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F16" t="n">
-        <v>9052.901900000001</v>
+        <v>11511.0108</v>
       </c>
       <c r="G16" t="n">
-        <v>298.35</v>
+        <v>287.1333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>305</v>
+      </c>
+      <c r="C17" t="n">
         <v>306</v>
       </c>
-      <c r="C17" t="n">
-        <v>308</v>
-      </c>
       <c r="D17" t="n">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E17" t="n">
         <v>305</v>
       </c>
       <c r="F17" t="n">
-        <v>5881.2403</v>
+        <v>9052.901900000001</v>
       </c>
       <c r="G17" t="n">
-        <v>299.45</v>
+        <v>287.6333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>306</v>
       </c>
       <c r="C18" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D18" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E18" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F18" t="n">
-        <v>1.667</v>
+        <v>5881.2403</v>
       </c>
       <c r="G18" t="n">
-        <v>300.15</v>
+        <v>288.15</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C19" t="n">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D19" t="n">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E19" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F19" t="n">
-        <v>2551.8611</v>
+        <v>1.667</v>
       </c>
       <c r="G19" t="n">
-        <v>300.95</v>
+        <v>288.6333333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C20" t="n">
         <v>308</v>
@@ -1075,10 +1075,10 @@
         <v>307</v>
       </c>
       <c r="F20" t="n">
-        <v>14208.4511</v>
+        <v>2551.8611</v>
       </c>
       <c r="G20" t="n">
-        <v>301.7</v>
+        <v>289.15</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>307</v>
+      </c>
+      <c r="C21" t="n">
         <v>308</v>
       </c>
-      <c r="C21" t="n">
-        <v>307</v>
-      </c>
       <c r="D21" t="n">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E21" t="n">
         <v>307</v>
       </c>
       <c r="F21" t="n">
-        <v>36950.6764</v>
+        <v>14208.4511</v>
       </c>
       <c r="G21" t="n">
-        <v>302.5</v>
+        <v>289.6166666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>308</v>
+      </c>
+      <c r="C22" t="n">
         <v>307</v>
       </c>
-      <c r="C22" t="n">
-        <v>310</v>
-      </c>
       <c r="D22" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E22" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F22" t="n">
-        <v>64649.372</v>
+        <v>36950.6764</v>
       </c>
       <c r="G22" t="n">
-        <v>303.2</v>
+        <v>290.0333333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C23" t="n">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D23" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E23" t="n">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F23" t="n">
-        <v>2960.25</v>
+        <v>64649.372</v>
       </c>
       <c r="G23" t="n">
-        <v>304.5</v>
+        <v>290.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C24" t="n">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D24" t="n">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E24" t="n">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F24" t="n">
-        <v>43831.85480307</v>
+        <v>2960.25</v>
       </c>
       <c r="G24" t="n">
-        <v>305.2</v>
+        <v>291.0333333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C25" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D25" t="n">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E25" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F25" t="n">
-        <v>35562.58304936</v>
+        <v>43831.85480307</v>
       </c>
       <c r="G25" t="n">
-        <v>306</v>
+        <v>291.4666666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C26" t="n">
         <v>306</v>
       </c>
       <c r="D26" t="n">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E26" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F26" t="n">
-        <v>9855.2572</v>
+        <v>35562.58304936</v>
       </c>
       <c r="G26" t="n">
-        <v>306.6</v>
+        <v>291.8666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>306</v>
       </c>
       <c r="C27" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D27" t="n">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E27" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F27" t="n">
-        <v>21589.4383</v>
+        <v>9855.2572</v>
       </c>
       <c r="G27" t="n">
-        <v>306.85</v>
+        <v>292.2833333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C28" t="n">
         <v>302</v>
       </c>
       <c r="D28" t="n">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E28" t="n">
         <v>302</v>
       </c>
       <c r="F28" t="n">
-        <v>7726.0079</v>
+        <v>21589.4383</v>
       </c>
       <c r="G28" t="n">
-        <v>306.95</v>
+        <v>292.6333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C29" t="n">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D29" t="n">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E29" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F29" t="n">
-        <v>17213.4855</v>
+        <v>7726.0079</v>
       </c>
       <c r="G29" t="n">
-        <v>306.55</v>
+        <v>292.9833333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>299</v>
+      </c>
+      <c r="C30" t="n">
         <v>309</v>
-      </c>
-      <c r="C30" t="n">
-        <v>298</v>
       </c>
       <c r="D30" t="n">
         <v>309</v>
       </c>
       <c r="E30" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F30" t="n">
-        <v>3694.8526</v>
+        <v>17213.4855</v>
       </c>
       <c r="G30" t="n">
-        <v>306.6</v>
+        <v>293.45</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C31" t="n">
         <v>298</v>
       </c>
       <c r="D31" t="n">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E31" t="n">
         <v>298</v>
       </c>
       <c r="F31" t="n">
-        <v>1639.8899</v>
+        <v>3694.8526</v>
       </c>
       <c r="G31" t="n">
-        <v>306.2</v>
+        <v>293.7333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C32" t="n">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D32" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E32" t="n">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F32" t="n">
-        <v>50</v>
+        <v>1639.8899</v>
       </c>
       <c r="G32" t="n">
-        <v>306</v>
+        <v>294.0166666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         <v>304</v>
       </c>
       <c r="E33" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F33" t="n">
-        <v>246</v>
+        <v>50</v>
       </c>
       <c r="G33" t="n">
-        <v>305.85</v>
+        <v>294.4833333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1562,13 +1562,13 @@
         <v>304</v>
       </c>
       <c r="E34" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F34" t="n">
-        <v>58</v>
+        <v>246</v>
       </c>
       <c r="G34" t="n">
-        <v>305.7</v>
+        <v>294.85</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>304</v>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="G35" t="n">
-        <v>305.9</v>
+        <v>295.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>4</v>
       </c>
       <c r="G36" t="n">
-        <v>305.85</v>
+        <v>295.55</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>304</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>305.75</v>
+        <v>295.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C38" t="n">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D38" t="n">
         <v>304</v>
       </c>
       <c r="E38" t="n">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="F38" t="n">
-        <v>22674.005</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>305.45</v>
+        <v>296.25</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C39" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D39" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E39" t="n">
         <v>293</v>
       </c>
       <c r="F39" t="n">
-        <v>4261.7213</v>
+        <v>22674.005</v>
       </c>
       <c r="G39" t="n">
-        <v>304.7</v>
+        <v>296.4333333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C40" t="n">
         <v>293</v>
@@ -1775,10 +1775,10 @@
         <v>293</v>
       </c>
       <c r="F40" t="n">
-        <v>3160.9374</v>
+        <v>4261.7213</v>
       </c>
       <c r="G40" t="n">
-        <v>304.35</v>
+        <v>296.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C41" t="n">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D41" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E41" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F41" t="n">
-        <v>6481.0498</v>
+        <v>3160.9374</v>
       </c>
       <c r="G41" t="n">
-        <v>303.85</v>
+        <v>296.7666666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,29 +1836,35 @@
         <v>298</v>
       </c>
       <c r="C42" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D42" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E42" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F42" t="n">
-        <v>5033.5967</v>
+        <v>6481.0498</v>
       </c>
       <c r="G42" t="n">
-        <v>303.4</v>
+        <v>297.0166666666667</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>293</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,32 +1874,38 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C43" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D43" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E43" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F43" t="n">
-        <v>1696.9152</v>
+        <v>5033.5967</v>
       </c>
       <c r="G43" t="n">
-        <v>302.45</v>
+        <v>297.2333333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>298</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,32 +1915,38 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C44" t="n">
         <v>293</v>
       </c>
       <c r="D44" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E44" t="n">
         <v>293</v>
       </c>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>1696.9152</v>
       </c>
       <c r="G44" t="n">
-        <v>301.9</v>
+        <v>297.4333333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>294</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,10 +1956,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>296</v>
+      </c>
+      <c r="C45" t="n">
         <v>293</v>
-      </c>
-      <c r="C45" t="n">
-        <v>296</v>
       </c>
       <c r="D45" t="n">
         <v>296</v>
@@ -1950,10 +1968,10 @@
         <v>293</v>
       </c>
       <c r="F45" t="n">
-        <v>1684</v>
+        <v>4</v>
       </c>
       <c r="G45" t="n">
-        <v>301.1</v>
+        <v>297.6166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +1981,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,32 +1995,38 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C46" t="n">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D46" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E46" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F46" t="n">
-        <v>147</v>
+        <v>1684</v>
       </c>
       <c r="G46" t="n">
-        <v>300.5</v>
+        <v>297.85</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>293</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2036,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>294</v>
+      </c>
+      <c r="C47" t="n">
         <v>292</v>
       </c>
-      <c r="C47" t="n">
-        <v>296</v>
-      </c>
       <c r="D47" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E47" t="n">
         <v>292</v>
       </c>
       <c r="F47" t="n">
-        <v>251</v>
+        <v>147</v>
       </c>
       <c r="G47" t="n">
-        <v>299.8</v>
+        <v>298.0333333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2061,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2075,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C48" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D48" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E48" t="n">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="G48" t="n">
-        <v>299.7</v>
+        <v>298.2833333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2100,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2114,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="C49" t="n">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="D49" t="n">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="E49" t="n">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="F49" t="n">
-        <v>8005.0631</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>299.35</v>
+        <v>298.65</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2139,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2116,19 +2156,19 @@
         <v>292</v>
       </c>
       <c r="C50" t="n">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D50" t="n">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E50" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F50" t="n">
-        <v>2.4597</v>
+        <v>8005.0631</v>
       </c>
       <c r="G50" t="n">
-        <v>298.5</v>
+        <v>298.7833333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2178,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2192,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C51" t="n">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D51" t="n">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E51" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F51" t="n">
-        <v>4517.7633</v>
+        <v>2.4597</v>
       </c>
       <c r="G51" t="n">
-        <v>298.05</v>
+        <v>299.0333333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2217,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2186,19 +2234,19 @@
         <v>291</v>
       </c>
       <c r="C52" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D52" t="n">
         <v>291</v>
       </c>
       <c r="E52" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F52" t="n">
-        <v>4097.4715</v>
+        <v>4517.7633</v>
       </c>
       <c r="G52" t="n">
-        <v>297.4</v>
+        <v>299.1666666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2256,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2270,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>291</v>
+      </c>
+      <c r="C53" t="n">
         <v>288</v>
       </c>
-      <c r="C53" t="n">
-        <v>294</v>
-      </c>
       <c r="D53" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E53" t="n">
         <v>288</v>
       </c>
       <c r="F53" t="n">
-        <v>1700.7971</v>
+        <v>4097.4715</v>
       </c>
       <c r="G53" t="n">
-        <v>296.6</v>
+        <v>299.2666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2295,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2256,19 +2312,19 @@
         <v>288</v>
       </c>
       <c r="C54" t="n">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D54" t="n">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E54" t="n">
         <v>288</v>
       </c>
       <c r="F54" t="n">
-        <v>869.3967</v>
+        <v>1700.7971</v>
       </c>
       <c r="G54" t="n">
-        <v>295.8</v>
+        <v>299.4666666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2334,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2291,19 +2351,19 @@
         <v>288</v>
       </c>
       <c r="C55" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D55" t="n">
         <v>288</v>
       </c>
       <c r="E55" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F55" t="n">
-        <v>10885.2188</v>
+        <v>869.3967</v>
       </c>
       <c r="G55" t="n">
-        <v>295</v>
+        <v>299.5666666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2373,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2387,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>288</v>
+      </c>
+      <c r="C56" t="n">
         <v>287</v>
       </c>
-      <c r="C56" t="n">
-        <v>295</v>
-      </c>
       <c r="D56" t="n">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E56" t="n">
         <v>287</v>
       </c>
       <c r="F56" t="n">
-        <v>5596.018</v>
+        <v>10885.2188</v>
       </c>
       <c r="G56" t="n">
-        <v>294.15</v>
+        <v>299.65</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2412,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2426,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>287</v>
+      </c>
+      <c r="C57" t="n">
         <v>295</v>
       </c>
-      <c r="C57" t="n">
-        <v>302</v>
-      </c>
       <c r="D57" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E57" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F57" t="n">
-        <v>19496.631</v>
+        <v>5596.018</v>
       </c>
       <c r="G57" t="n">
-        <v>293.7</v>
+        <v>299.85</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2451,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2465,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C58" t="n">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="D58" t="n">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="E58" t="n">
         <v>286</v>
       </c>
       <c r="F58" t="n">
-        <v>27563.09305206</v>
+        <v>19496.631</v>
       </c>
       <c r="G58" t="n">
-        <v>293.55</v>
+        <v>300.0166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2490,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2504,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C59" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D59" t="n">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="E59" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F59" t="n">
-        <v>3702.0341</v>
+        <v>27563.09305206</v>
       </c>
       <c r="G59" t="n">
-        <v>293.4</v>
+        <v>299.9333333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2529,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2543,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C60" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D60" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E60" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F60" t="n">
-        <v>32148.104</v>
+        <v>3702.0341</v>
       </c>
       <c r="G60" t="n">
-        <v>292.85</v>
+        <v>299.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2568,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2582,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C61" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D61" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E61" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F61" t="n">
-        <v>1161.3206</v>
+        <v>32148.104</v>
       </c>
       <c r="G61" t="n">
-        <v>292.45</v>
+        <v>299.7666666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2607,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2621,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C62" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D62" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E62" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F62" t="n">
-        <v>4149.4526</v>
+        <v>1161.3206</v>
       </c>
       <c r="G62" t="n">
-        <v>291.9</v>
+        <v>299.7166666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2646,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2571,19 +2663,19 @@
         <v>287</v>
       </c>
       <c r="C63" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D63" t="n">
         <v>287</v>
       </c>
       <c r="E63" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F63" t="n">
-        <v>281.3</v>
+        <v>4149.4526</v>
       </c>
       <c r="G63" t="n">
-        <v>291.5</v>
+        <v>299.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2685,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,36 +2699,34 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C64" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D64" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E64" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F64" t="n">
-        <v>8458.298000000001</v>
+        <v>281.3</v>
       </c>
       <c r="G64" t="n">
-        <v>291.2</v>
+        <v>299.5833333333333</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>287</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M64" t="n">
@@ -2644,32 +2738,30 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>290</v>
+      </c>
+      <c r="C65" t="n">
         <v>289</v>
-      </c>
-      <c r="C65" t="n">
-        <v>290</v>
       </c>
       <c r="D65" t="n">
         <v>290</v>
       </c>
       <c r="E65" t="n">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F65" t="n">
-        <v>3969.8528</v>
+        <v>8458.298000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>291</v>
+        <v>299.5166666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>289</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
@@ -2685,32 +2777,30 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C66" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D66" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E66" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F66" t="n">
-        <v>14207.9531</v>
+        <v>3969.8528</v>
       </c>
       <c r="G66" t="n">
-        <v>290.85</v>
+        <v>299.45</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>290</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
@@ -2726,32 +2816,30 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C67" t="n">
         <v>292</v>
       </c>
       <c r="D67" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E67" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F67" t="n">
-        <v>15125.3499</v>
+        <v>14207.9531</v>
       </c>
       <c r="G67" t="n">
-        <v>290.9</v>
+        <v>299.3</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>292</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
@@ -2767,22 +2855,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C68" t="n">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D68" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E68" t="n">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>15125.3499</v>
       </c>
       <c r="G68" t="n">
-        <v>290.6</v>
+        <v>299.1166666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2806,22 +2894,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C69" t="n">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D69" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E69" t="n">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F69" t="n">
-        <v>10771.3966</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>290.8</v>
+        <v>298.9333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2845,22 +2933,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C70" t="n">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D70" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E70" t="n">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F70" t="n">
-        <v>44.7973</v>
+        <v>10771.3966</v>
       </c>
       <c r="G70" t="n">
-        <v>291.25</v>
+        <v>298.65</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2884,22 +2972,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C71" t="n">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D71" t="n">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E71" t="n">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F71" t="n">
-        <v>372.0813</v>
+        <v>44.7973</v>
       </c>
       <c r="G71" t="n">
-        <v>291.45</v>
+        <v>298.5333333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2923,22 +3011,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C72" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D72" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E72" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F72" t="n">
-        <v>2904.653</v>
+        <v>372.0813</v>
       </c>
       <c r="G72" t="n">
-        <v>291.6</v>
+        <v>298.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2962,22 +3050,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C73" t="n">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D73" t="n">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E73" t="n">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>2904.653</v>
       </c>
       <c r="G73" t="n">
-        <v>292.15</v>
+        <v>298.0666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3013,10 +3101,10 @@
         <v>299</v>
       </c>
       <c r="F74" t="n">
-        <v>7186.3094</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>292.7</v>
+        <v>297.9166666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3040,22 +3128,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C75" t="n">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="D75" t="n">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="E75" t="n">
         <v>299</v>
       </c>
       <c r="F75" t="n">
-        <v>19084.99523974</v>
+        <v>7186.3094</v>
       </c>
       <c r="G75" t="n">
-        <v>293.3</v>
+        <v>297.7833333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3079,22 +3167,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C76" t="n">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="D76" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E76" t="n">
         <v>299</v>
       </c>
       <c r="F76" t="n">
-        <v>2174.217</v>
+        <v>19084.99523974</v>
       </c>
       <c r="G76" t="n">
-        <v>294.4</v>
+        <v>297.8666666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3118,22 +3206,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>309</v>
+      </c>
+      <c r="C77" t="n">
         <v>299</v>
       </c>
-      <c r="C77" t="n">
-        <v>308</v>
-      </c>
       <c r="D77" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E77" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F77" t="n">
-        <v>103</v>
+        <v>2174.217</v>
       </c>
       <c r="G77" t="n">
-        <v>294.6</v>
+        <v>297.75</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3157,22 +3245,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C78" t="n">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="D78" t="n">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="E78" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="G78" t="n">
-        <v>294.6</v>
+        <v>297.75</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3196,22 +3284,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C79" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D79" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E79" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F79" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>294.9</v>
+        <v>297.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3235,22 +3323,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C80" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D80" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E80" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F80" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G80" t="n">
-        <v>295.4</v>
+        <v>297.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3277,19 +3365,19 @@
         <v>299</v>
       </c>
       <c r="C81" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D81" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E81" t="n">
         <v>299</v>
       </c>
       <c r="F81" t="n">
-        <v>2157.3653</v>
+        <v>100</v>
       </c>
       <c r="G81" t="n">
-        <v>295.85</v>
+        <v>297.25</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3313,7 +3401,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C82" t="n">
         <v>300</v>
@@ -3322,13 +3410,13 @@
         <v>300</v>
       </c>
       <c r="E82" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F82" t="n">
-        <v>6427.3559</v>
+        <v>2157.3653</v>
       </c>
       <c r="G82" t="n">
-        <v>296.5</v>
+        <v>297.1333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3355,19 +3443,19 @@
         <v>300</v>
       </c>
       <c r="C83" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D83" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E83" t="n">
         <v>300</v>
       </c>
       <c r="F83" t="n">
-        <v>226</v>
+        <v>6427.3559</v>
       </c>
       <c r="G83" t="n">
-        <v>297.15</v>
+        <v>296.9666666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3391,22 +3479,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>300</v>
+      </c>
+      <c r="C84" t="n">
         <v>302</v>
       </c>
-      <c r="C84" t="n">
-        <v>300</v>
-      </c>
       <c r="D84" t="n">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E84" t="n">
         <v>300</v>
       </c>
       <c r="F84" t="n">
-        <v>6211.5435</v>
+        <v>226</v>
       </c>
       <c r="G84" t="n">
-        <v>297.75</v>
+        <v>296.7666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3430,22 +3518,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C85" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D85" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E85" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F85" t="n">
-        <v>100</v>
+        <v>6211.5435</v>
       </c>
       <c r="G85" t="n">
-        <v>298.45</v>
+        <v>296.6333333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3472,19 +3560,19 @@
         <v>303</v>
       </c>
       <c r="C86" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D86" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E86" t="n">
         <v>303</v>
       </c>
       <c r="F86" t="n">
-        <v>17387.0085</v>
+        <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>299.05</v>
+        <v>296.5833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3508,22 +3596,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>303</v>
+      </c>
+      <c r="C87" t="n">
         <v>305</v>
       </c>
-      <c r="C87" t="n">
-        <v>306</v>
-      </c>
       <c r="D87" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E87" t="n">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F87" t="n">
-        <v>23972.1591</v>
+        <v>17387.0085</v>
       </c>
       <c r="G87" t="n">
-        <v>299.65</v>
+        <v>296.5666666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3547,22 +3635,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C88" t="n">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D88" t="n">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E88" t="n">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F88" t="n">
-        <v>100</v>
+        <v>23972.1591</v>
       </c>
       <c r="G88" t="n">
-        <v>299.75</v>
+        <v>296.6333333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3589,10 +3677,10 @@
         <v>299</v>
       </c>
       <c r="C89" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D89" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E89" t="n">
         <v>299</v>
@@ -3601,7 +3689,7 @@
         <v>100</v>
       </c>
       <c r="G89" t="n">
-        <v>299.9</v>
+        <v>296.5833333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3625,22 +3713,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C90" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D90" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E90" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F90" t="n">
-        <v>7286.4709</v>
+        <v>100</v>
       </c>
       <c r="G90" t="n">
-        <v>299.7</v>
+        <v>296.4333333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3664,22 +3752,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>297</v>
+      </c>
+      <c r="C91" t="n">
         <v>296</v>
       </c>
-      <c r="C91" t="n">
-        <v>299</v>
-      </c>
       <c r="D91" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E91" t="n">
         <v>296</v>
       </c>
       <c r="F91" t="n">
-        <v>78.20050000000001</v>
+        <v>7286.4709</v>
       </c>
       <c r="G91" t="n">
-        <v>299.75</v>
+        <v>296.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3703,22 +3791,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C92" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D92" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E92" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F92" t="n">
-        <v>544.9347</v>
+        <v>78.20050000000001</v>
       </c>
       <c r="G92" t="n">
-        <v>299.95</v>
+        <v>296.4166666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3742,22 +3830,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C93" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D93" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E93" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F93" t="n">
-        <v>1063.0535</v>
+        <v>544.9347</v>
       </c>
       <c r="G93" t="n">
-        <v>299.95</v>
+        <v>296.3166666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3781,22 +3869,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C94" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D94" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E94" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F94" t="n">
-        <v>939.22</v>
+        <v>1063.0535</v>
       </c>
       <c r="G94" t="n">
-        <v>299.85</v>
+        <v>296.2333333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3820,7 +3908,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C95" t="n">
         <v>297</v>
@@ -3829,13 +3917,13 @@
         <v>297</v>
       </c>
       <c r="E95" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F95" t="n">
-        <v>29.7889</v>
+        <v>939.22</v>
       </c>
       <c r="G95" t="n">
-        <v>299.65</v>
+        <v>296.1166666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3859,22 +3947,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C96" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D96" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E96" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F96" t="n">
-        <v>96.92659999999999</v>
+        <v>29.7889</v>
       </c>
       <c r="G96" t="n">
-        <v>299.2</v>
+        <v>296</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3898,22 +3986,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C97" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D97" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E97" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F97" t="n">
-        <v>710.8904</v>
+        <v>96.92659999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>299.15</v>
+        <v>295.9333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3937,22 +4025,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C98" t="n">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="D98" t="n">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E98" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F98" t="n">
-        <v>20826.09878173</v>
+        <v>710.8904</v>
       </c>
       <c r="G98" t="n">
-        <v>299.15</v>
+        <v>295.8333333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3976,22 +4064,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C99" t="n">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D99" t="n">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="E99" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F99" t="n">
-        <v>878.1</v>
+        <v>20826.09878173</v>
       </c>
       <c r="G99" t="n">
-        <v>299.4</v>
+        <v>296.1333333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4018,19 +4106,19 @@
         <v>301</v>
       </c>
       <c r="C100" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D100" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E100" t="n">
         <v>301</v>
       </c>
       <c r="F100" t="n">
-        <v>428</v>
+        <v>878.1</v>
       </c>
       <c r="G100" t="n">
-        <v>299.5</v>
+        <v>296.2833333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4066,10 +4154,10 @@
         <v>301</v>
       </c>
       <c r="F101" t="n">
-        <v>769.5172</v>
+        <v>428</v>
       </c>
       <c r="G101" t="n">
-        <v>299.6</v>
+        <v>296.4166666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4093,22 +4181,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C102" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D102" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E102" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F102" t="n">
-        <v>1543.5</v>
+        <v>769.5172</v>
       </c>
       <c r="G102" t="n">
-        <v>299.7</v>
+        <v>296.4666666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4132,22 +4220,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C103" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D103" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E103" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F103" t="n">
-        <v>4367.7253</v>
+        <v>1543.5</v>
       </c>
       <c r="G103" t="n">
-        <v>299.85</v>
+        <v>296.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4171,22 +4259,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C104" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D104" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E104" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F104" t="n">
-        <v>1874.799</v>
+        <v>4367.7253</v>
       </c>
       <c r="G104" t="n">
-        <v>299.75</v>
+        <v>296.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4210,22 +4298,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C105" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D105" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E105" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F105" t="n">
-        <v>2385.0163</v>
+        <v>1874.799</v>
       </c>
       <c r="G105" t="n">
-        <v>299.9</v>
+        <v>296.8166666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4249,22 +4337,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C106" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D106" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E106" t="n">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F106" t="n">
-        <v>47084.1657</v>
+        <v>2385.0163</v>
       </c>
       <c r="G106" t="n">
-        <v>299.75</v>
+        <v>296.9833333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4288,22 +4376,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C107" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D107" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E107" t="n">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F107" t="n">
-        <v>40.5585</v>
+        <v>47084.1657</v>
       </c>
       <c r="G107" t="n">
-        <v>299.45</v>
+        <v>297.15</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4327,7 +4415,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C108" t="n">
         <v>299</v>
@@ -4336,13 +4424,13 @@
         <v>299</v>
       </c>
       <c r="E108" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F108" t="n">
-        <v>7510.1647</v>
+        <v>40.5585</v>
       </c>
       <c r="G108" t="n">
-        <v>299.4</v>
+        <v>297.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4366,7 +4454,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C109" t="n">
         <v>299</v>
@@ -4375,13 +4463,13 @@
         <v>299</v>
       </c>
       <c r="E109" t="n">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F109" t="n">
-        <v>7965</v>
+        <v>7510.1647</v>
       </c>
       <c r="G109" t="n">
-        <v>299.4</v>
+        <v>297.1333333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4405,22 +4493,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C110" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D110" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E110" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F110" t="n">
-        <v>934.7227</v>
+        <v>7965</v>
       </c>
       <c r="G110" t="n">
-        <v>299.35</v>
+        <v>297.2833333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4444,22 +4532,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C111" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D111" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E111" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F111" t="n">
-        <v>37</v>
+        <v>934.7227</v>
       </c>
       <c r="G111" t="n">
-        <v>299.45</v>
+        <v>297.2666666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4486,19 +4574,19 @@
         <v>298</v>
       </c>
       <c r="C112" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D112" t="n">
         <v>298</v>
       </c>
       <c r="E112" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F112" t="n">
-        <v>2759.0519</v>
+        <v>37</v>
       </c>
       <c r="G112" t="n">
-        <v>299.45</v>
+        <v>297.3833333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4522,22 +4610,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>298</v>
+      </c>
+      <c r="C113" t="n">
         <v>297</v>
       </c>
-      <c r="C113" t="n">
-        <v>296</v>
-      </c>
       <c r="D113" t="n">
+        <v>298</v>
+      </c>
+      <c r="E113" t="n">
         <v>297</v>
       </c>
-      <c r="E113" t="n">
-        <v>296</v>
-      </c>
       <c r="F113" t="n">
-        <v>1529.3712</v>
+        <v>2759.0519</v>
       </c>
       <c r="G113" t="n">
-        <v>299.35</v>
+        <v>297.5333333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4564,19 +4652,19 @@
         <v>297</v>
       </c>
       <c r="C114" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D114" t="n">
         <v>297</v>
       </c>
       <c r="E114" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F114" t="n">
-        <v>242.0999</v>
+        <v>1529.3712</v>
       </c>
       <c r="G114" t="n">
-        <v>299.35</v>
+        <v>297.5666666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4603,19 +4691,19 @@
         <v>297</v>
       </c>
       <c r="C115" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D115" t="n">
         <v>297</v>
       </c>
       <c r="E115" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F115" t="n">
-        <v>22</v>
+        <v>242.0999</v>
       </c>
       <c r="G115" t="n">
-        <v>299.4</v>
+        <v>297.7166666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4639,22 +4727,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C116" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D116" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E116" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G116" t="n">
-        <v>299.4</v>
+        <v>297.8666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4681,19 +4769,19 @@
         <v>300</v>
       </c>
       <c r="C117" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D117" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E117" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F117" t="n">
-        <v>24068.0135</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>299.5</v>
+        <v>297.95</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4717,22 +4805,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C118" t="n">
         <v>297</v>
       </c>
       <c r="D118" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E118" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F118" t="n">
-        <v>53.9527</v>
+        <v>24068.0135</v>
       </c>
       <c r="G118" t="n">
-        <v>299.5</v>
+        <v>297.8666666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4768,10 +4856,10 @@
         <v>297</v>
       </c>
       <c r="F119" t="n">
-        <v>293</v>
+        <v>53.9527</v>
       </c>
       <c r="G119" t="n">
-        <v>299.3</v>
+        <v>298.0333333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4798,19 +4886,19 @@
         <v>297</v>
       </c>
       <c r="C120" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D120" t="n">
         <v>297</v>
       </c>
       <c r="E120" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F120" t="n">
-        <v>21650.9413</v>
+        <v>293</v>
       </c>
       <c r="G120" t="n">
-        <v>299.1</v>
+        <v>298.15</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4834,22 +4922,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C121" t="n">
         <v>292</v>
       </c>
       <c r="D121" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E121" t="n">
         <v>292</v>
       </c>
       <c r="F121" t="n">
-        <v>34.995</v>
+        <v>21650.9413</v>
       </c>
       <c r="G121" t="n">
-        <v>298.65</v>
+        <v>298.2833333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4873,22 +4961,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C122" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D122" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E122" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F122" t="n">
-        <v>212.3167</v>
+        <v>34.995</v>
       </c>
       <c r="G122" t="n">
-        <v>298.35</v>
+        <v>298.3166666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4912,22 +5000,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C123" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D123" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E123" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F123" t="n">
-        <v>7971.7773</v>
+        <v>212.3167</v>
       </c>
       <c r="G123" t="n">
-        <v>297.85</v>
+        <v>298.4833333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4951,22 +5039,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C124" t="n">
         <v>294</v>
       </c>
       <c r="D124" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E124" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F124" t="n">
-        <v>274</v>
+        <v>7971.7773</v>
       </c>
       <c r="G124" t="n">
-        <v>297.55</v>
+        <v>298.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4990,22 +5078,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C125" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D125" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E125" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F125" t="n">
-        <v>1220</v>
+        <v>274</v>
       </c>
       <c r="G125" t="n">
-        <v>296.9</v>
+        <v>298.6833333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5041,10 +5129,10 @@
         <v>293</v>
       </c>
       <c r="F126" t="n">
-        <v>614.1399</v>
+        <v>1220</v>
       </c>
       <c r="G126" t="n">
-        <v>296.55</v>
+        <v>298.7333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5068,22 +5156,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C127" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D127" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E127" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F127" t="n">
-        <v>643.2212</v>
+        <v>614.1399</v>
       </c>
       <c r="G127" t="n">
-        <v>296.15</v>
+        <v>298.75</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5107,22 +5195,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C128" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D128" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E128" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F128" t="n">
-        <v>1778.2583</v>
+        <v>643.2212</v>
       </c>
       <c r="G128" t="n">
-        <v>295.75</v>
+        <v>298.7333333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5155,13 +5243,13 @@
         <v>290</v>
       </c>
       <c r="E129" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F129" t="n">
-        <v>2598.3413</v>
+        <v>1778.2583</v>
       </c>
       <c r="G129" t="n">
-        <v>295.3</v>
+        <v>298.6166666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5185,22 +5273,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C130" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D130" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E130" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F130" t="n">
-        <v>317.8693</v>
+        <v>2598.3413</v>
       </c>
       <c r="G130" t="n">
-        <v>295.05</v>
+        <v>298.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5227,19 +5315,19 @@
         <v>291</v>
       </c>
       <c r="C131" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D131" t="n">
         <v>291</v>
       </c>
       <c r="E131" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F131" t="n">
-        <v>695</v>
+        <v>317.8693</v>
       </c>
       <c r="G131" t="n">
-        <v>294.7</v>
+        <v>298.4333333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5263,10 +5351,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>291</v>
+      </c>
+      <c r="C132" t="n">
         <v>290</v>
-      </c>
-      <c r="C132" t="n">
-        <v>291</v>
       </c>
       <c r="D132" t="n">
         <v>291</v>
@@ -5275,10 +5363,10 @@
         <v>290</v>
       </c>
       <c r="F132" t="n">
-        <v>149.6512</v>
+        <v>695</v>
       </c>
       <c r="G132" t="n">
-        <v>294.3</v>
+        <v>298.35</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5302,7 +5390,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C133" t="n">
         <v>291</v>
@@ -5311,13 +5399,13 @@
         <v>291</v>
       </c>
       <c r="E133" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F133" t="n">
-        <v>1804.9458</v>
+        <v>149.6512</v>
       </c>
       <c r="G133" t="n">
-        <v>294</v>
+        <v>298.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5353,10 +5441,10 @@
         <v>291</v>
       </c>
       <c r="F134" t="n">
-        <v>3395.9965</v>
+        <v>1804.9458</v>
       </c>
       <c r="G134" t="n">
-        <v>293.7</v>
+        <v>298.1666666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5392,10 +5480,10 @@
         <v>291</v>
       </c>
       <c r="F135" t="n">
-        <v>1446.7027</v>
+        <v>3395.9965</v>
       </c>
       <c r="G135" t="n">
-        <v>293.4</v>
+        <v>298.0333333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5431,10 +5519,10 @@
         <v>291</v>
       </c>
       <c r="F136" t="n">
-        <v>6302.8831</v>
+        <v>1446.7027</v>
       </c>
       <c r="G136" t="n">
-        <v>292.95</v>
+        <v>297.6833333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5458,22 +5546,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C137" t="n">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D137" t="n">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E137" t="n">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>6302.8831</v>
       </c>
       <c r="G137" t="n">
-        <v>292.75</v>
+        <v>297.55</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5497,22 +5585,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C138" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D138" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E138" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F138" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>292.65</v>
+        <v>297.35</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5539,19 +5627,19 @@
         <v>295</v>
       </c>
       <c r="C139" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D139" t="n">
         <v>295</v>
       </c>
       <c r="E139" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F139" t="n">
-        <v>8320.611800000001</v>
+        <v>100</v>
       </c>
       <c r="G139" t="n">
-        <v>292.55</v>
+        <v>297.3166666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5575,22 +5663,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C140" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D140" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E140" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F140" t="n">
-        <v>10039.3501</v>
+        <v>8320.611800000001</v>
       </c>
       <c r="G140" t="n">
-        <v>292.5</v>
+        <v>297.2833333333334</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5617,19 +5705,19 @@
         <v>296</v>
       </c>
       <c r="C141" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D141" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E141" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F141" t="n">
-        <v>101</v>
+        <v>10039.3501</v>
       </c>
       <c r="G141" t="n">
-        <v>292.7</v>
+        <v>297.2333333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5653,22 +5741,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C142" t="n">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D142" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E142" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F142" t="n">
-        <v>12809.9116</v>
+        <v>101</v>
       </c>
       <c r="G142" t="n">
-        <v>292.6</v>
+        <v>297.2166666666666</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5692,22 +5780,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C143" t="n">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D143" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E143" t="n">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>12809.9116</v>
       </c>
       <c r="G143" t="n">
-        <v>292.8</v>
+        <v>297.0666666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5734,19 +5822,19 @@
         <v>297</v>
       </c>
       <c r="C144" t="n">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D144" t="n">
         <v>297</v>
       </c>
       <c r="E144" t="n">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F144" t="n">
-        <v>12188.7094</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>292.95</v>
+        <v>296.9833333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5770,22 +5858,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C145" t="n">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D145" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E145" t="n">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>12188.7094</v>
       </c>
       <c r="G145" t="n">
-        <v>293.3</v>
+        <v>296.8333333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5809,22 +5897,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C146" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D146" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E146" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F146" t="n">
-        <v>126.6287</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>293.35</v>
+        <v>296.7833333333334</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5848,22 +5936,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C147" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D147" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E147" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F147" t="n">
-        <v>48.1904</v>
+        <v>126.6287</v>
       </c>
       <c r="G147" t="n">
-        <v>293.45</v>
+        <v>296.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5887,22 +5975,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C148" t="n">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D148" t="n">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E148" t="n">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>48.1904</v>
       </c>
       <c r="G148" t="n">
-        <v>293.85</v>
+        <v>296.3833333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5929,19 +6017,19 @@
         <v>298</v>
       </c>
       <c r="C149" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D149" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E149" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F149" t="n">
-        <v>3885.3747</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>294.25</v>
+        <v>296.3666666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5965,22 +6053,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C150" t="n">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D150" t="n">
         <v>300</v>
       </c>
       <c r="E150" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F150" t="n">
-        <v>1847.775</v>
+        <v>3885.3747</v>
       </c>
       <c r="G150" t="n">
-        <v>294.3</v>
+        <v>296.25</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6004,7 +6092,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C151" t="n">
         <v>300</v>
@@ -6013,13 +6101,13 @@
         <v>300</v>
       </c>
       <c r="E151" t="n">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F151" t="n">
-        <v>3790.7966</v>
+        <v>1847.775</v>
       </c>
       <c r="G151" t="n">
-        <v>294.75</v>
+        <v>296.3166666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6043,22 +6131,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C152" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D152" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E152" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F152" t="n">
-        <v>44</v>
+        <v>3790.7966</v>
       </c>
       <c r="G152" t="n">
-        <v>294.85</v>
+        <v>296.3333333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6082,22 +6170,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C153" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D153" t="n">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E153" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F153" t="n">
-        <v>960.8686</v>
+        <v>44</v>
       </c>
       <c r="G153" t="n">
-        <v>295.25</v>
+        <v>296.2333333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6121,10 +6209,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C154" t="n">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D154" t="n">
         <v>299</v>
@@ -6133,10 +6221,10 @@
         <v>293</v>
       </c>
       <c r="F154" t="n">
-        <v>19977.6562</v>
+        <v>960.8686</v>
       </c>
       <c r="G154" t="n">
-        <v>295.6</v>
+        <v>296.1333333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6160,22 +6248,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C155" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D155" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E155" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F155" t="n">
-        <v>455.7312</v>
+        <v>19977.6562</v>
       </c>
       <c r="G155" t="n">
-        <v>295.75</v>
+        <v>296.15</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6199,22 +6287,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C156" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D156" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E156" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F156" t="n">
-        <v>3000</v>
+        <v>455.7312</v>
       </c>
       <c r="G156" t="n">
-        <v>295.85</v>
+        <v>296.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6250,10 +6338,10 @@
         <v>293</v>
       </c>
       <c r="F157" t="n">
-        <v>618.5827</v>
+        <v>3000</v>
       </c>
       <c r="G157" t="n">
-        <v>295.7</v>
+        <v>295.9833333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6277,22 +6365,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C158" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D158" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E158" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F158" t="n">
-        <v>1</v>
+        <v>618.5827</v>
       </c>
       <c r="G158" t="n">
-        <v>295.65</v>
+        <v>295.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6322,13 +6410,13 @@
         <v>294</v>
       </c>
       <c r="D159" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E159" t="n">
         <v>294</v>
       </c>
       <c r="F159" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G159" t="n">
         <v>295.6</v>
@@ -6355,22 +6443,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C160" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D160" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E160" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F160" t="n">
-        <v>612.6045</v>
+        <v>4</v>
       </c>
       <c r="G160" t="n">
-        <v>295.3</v>
+        <v>295.4666666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6394,22 +6482,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C161" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D161" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E161" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>612.6045</v>
       </c>
       <c r="G161" t="n">
-        <v>295.25</v>
+        <v>295.2833333333334</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6433,22 +6521,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C162" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D162" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E162" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F162" t="n">
-        <v>2964.9428</v>
+        <v>1</v>
       </c>
       <c r="G162" t="n">
-        <v>295.05</v>
+        <v>295.1833333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6472,22 +6560,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C163" t="n">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D163" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E163" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F163" t="n">
-        <v>1405.2269</v>
+        <v>2964.9428</v>
       </c>
       <c r="G163" t="n">
-        <v>294.65</v>
+        <v>295.0333333333334</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6511,22 +6599,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C164" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D164" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E164" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F164" t="n">
-        <v>10</v>
+        <v>1405.2269</v>
       </c>
       <c r="G164" t="n">
-        <v>294.45</v>
+        <v>294.8333333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6550,22 +6638,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C165" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D165" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E165" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F165" t="n">
-        <v>2711.7027</v>
+        <v>10</v>
       </c>
       <c r="G165" t="n">
-        <v>294.05</v>
+        <v>294.7166666666666</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6589,22 +6677,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C166" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D166" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E166" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F166" t="n">
-        <v>10</v>
+        <v>2711.7027</v>
       </c>
       <c r="G166" t="n">
-        <v>294.15</v>
+        <v>294.4833333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6628,22 +6716,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C167" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D167" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E167" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F167" t="n">
-        <v>2229.8847</v>
+        <v>10</v>
       </c>
       <c r="G167" t="n">
-        <v>294.25</v>
+        <v>294.3833333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6667,22 +6755,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C168" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D168" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E168" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F168" t="n">
-        <v>2009.0267</v>
+        <v>2229.8847</v>
       </c>
       <c r="G168" t="n">
-        <v>294.25</v>
+        <v>294.3166666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6706,22 +6794,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C169" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D169" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E169" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F169" t="n">
-        <v>14421.5802</v>
+        <v>2009.0267</v>
       </c>
       <c r="G169" t="n">
-        <v>294.05</v>
+        <v>294.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6748,7 +6836,7 @@
         <v>294</v>
       </c>
       <c r="C170" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D170" t="n">
         <v>295</v>
@@ -6757,10 +6845,10 @@
         <v>294</v>
       </c>
       <c r="F170" t="n">
-        <v>2300.2549</v>
+        <v>14421.5802</v>
       </c>
       <c r="G170" t="n">
-        <v>294.15</v>
+        <v>294.2166666666666</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6784,7 +6872,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C171" t="n">
         <v>295</v>
@@ -6793,13 +6881,13 @@
         <v>295</v>
       </c>
       <c r="E171" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F171" t="n">
-        <v>3962.7923</v>
+        <v>2300.2549</v>
       </c>
       <c r="G171" t="n">
-        <v>293.9</v>
+        <v>294.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6823,22 +6911,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C172" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D172" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E172" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F172" t="n">
-        <v>388.4732</v>
+        <v>3962.7923</v>
       </c>
       <c r="G172" t="n">
-        <v>294.25</v>
+        <v>294.15</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6865,19 +6953,19 @@
         <v>299</v>
       </c>
       <c r="C173" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D173" t="n">
         <v>300</v>
       </c>
       <c r="E173" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F173" t="n">
-        <v>138.0232</v>
+        <v>388.4732</v>
       </c>
       <c r="G173" t="n">
-        <v>294.25</v>
+        <v>294.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6907,16 +6995,16 @@
         <v>299</v>
       </c>
       <c r="D174" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E174" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F174" t="n">
-        <v>330.7993</v>
+        <v>138.0232</v>
       </c>
       <c r="G174" t="n">
-        <v>294.3</v>
+        <v>294.25</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6952,10 +7040,10 @@
         <v>299</v>
       </c>
       <c r="F175" t="n">
-        <v>1026.2575</v>
+        <v>330.7993</v>
       </c>
       <c r="G175" t="n">
-        <v>294.55</v>
+        <v>294.2833333333334</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6979,22 +7067,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C176" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D176" t="n">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E176" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F176" t="n">
-        <v>1176</v>
+        <v>1026.2575</v>
       </c>
       <c r="G176" t="n">
-        <v>294.9</v>
+        <v>294.3333333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7018,10 +7106,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
+        <v>300</v>
+      </c>
+      <c r="C177" t="n">
         <v>298</v>
-      </c>
-      <c r="C177" t="n">
-        <v>303</v>
       </c>
       <c r="D177" t="n">
         <v>304</v>
@@ -7030,10 +7118,10 @@
         <v>298</v>
       </c>
       <c r="F177" t="n">
-        <v>1009.5952</v>
+        <v>1176</v>
       </c>
       <c r="G177" t="n">
-        <v>295.15</v>
+        <v>294.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7057,22 +7145,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C178" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D178" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E178" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F178" t="n">
-        <v>633.5993</v>
+        <v>1009.5952</v>
       </c>
       <c r="G178" t="n">
-        <v>295.55</v>
+        <v>294.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7096,22 +7184,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C179" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D179" t="n">
         <v>302</v>
       </c>
       <c r="E179" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F179" t="n">
-        <v>12562.2436</v>
+        <v>633.5993</v>
       </c>
       <c r="G179" t="n">
-        <v>295.7</v>
+        <v>294.4833333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7135,22 +7223,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>297</v>
+      </c>
+      <c r="C180" t="n">
+        <v>297</v>
+      </c>
+      <c r="D180" t="n">
+        <v>302</v>
+      </c>
+      <c r="E180" t="n">
         <v>296</v>
       </c>
-      <c r="C180" t="n">
-        <v>292</v>
-      </c>
-      <c r="D180" t="n">
-        <v>296</v>
-      </c>
-      <c r="E180" t="n">
-        <v>292</v>
-      </c>
       <c r="F180" t="n">
-        <v>5963.1487</v>
+        <v>12562.2436</v>
       </c>
       <c r="G180" t="n">
-        <v>296</v>
+        <v>294.4833333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7174,22 +7262,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C181" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D181" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E181" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F181" t="n">
-        <v>2148.1176</v>
+        <v>5963.1487</v>
       </c>
       <c r="G181" t="n">
-        <v>296.2</v>
+        <v>294.4833333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7213,22 +7301,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C182" t="n">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D182" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E182" t="n">
         <v>290</v>
       </c>
       <c r="F182" t="n">
-        <v>14432.08</v>
+        <v>2148.1176</v>
       </c>
       <c r="G182" t="n">
-        <v>296.25</v>
+        <v>294.45</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7252,22 +7340,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
+        <v>291</v>
+      </c>
+      <c r="C183" t="n">
+        <v>297</v>
+      </c>
+      <c r="D183" t="n">
+        <v>297</v>
+      </c>
+      <c r="E183" t="n">
         <v>290</v>
       </c>
-      <c r="C183" t="n">
-        <v>290</v>
-      </c>
-      <c r="D183" t="n">
-        <v>290</v>
-      </c>
-      <c r="E183" t="n">
-        <v>289</v>
-      </c>
       <c r="F183" t="n">
-        <v>21531.5198</v>
+        <v>14432.08</v>
       </c>
       <c r="G183" t="n">
-        <v>296.3</v>
+        <v>294.4666666666666</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7303,10 +7391,10 @@
         <v>289</v>
       </c>
       <c r="F184" t="n">
-        <v>6806.9345</v>
+        <v>21531.5198</v>
       </c>
       <c r="G184" t="n">
-        <v>296.15</v>
+        <v>294.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7330,22 +7418,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C185" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D185" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E185" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F185" t="n">
-        <v>267.1298</v>
+        <v>6806.9345</v>
       </c>
       <c r="G185" t="n">
-        <v>295.95</v>
+        <v>294.3333333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7381,10 +7469,10 @@
         <v>288</v>
       </c>
       <c r="F186" t="n">
-        <v>632.0153</v>
+        <v>267.1298</v>
       </c>
       <c r="G186" t="n">
-        <v>295.55</v>
+        <v>294.25</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7408,22 +7496,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C187" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D187" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E187" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F187" t="n">
-        <v>131.4695</v>
+        <v>632.0153</v>
       </c>
       <c r="G187" t="n">
-        <v>295.25</v>
+        <v>294.1666666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7447,7 +7535,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C188" t="n">
         <v>289</v>
@@ -7456,13 +7544,13 @@
         <v>289</v>
       </c>
       <c r="E188" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F188" t="n">
-        <v>7212.7291</v>
+        <v>131.4695</v>
       </c>
       <c r="G188" t="n">
-        <v>294.7</v>
+        <v>294.1333333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7486,22 +7574,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C189" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D189" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E189" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F189" t="n">
-        <v>1299.9999</v>
+        <v>7212.7291</v>
       </c>
       <c r="G189" t="n">
-        <v>294.5</v>
+        <v>294.1166666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7537,10 +7625,10 @@
         <v>290</v>
       </c>
       <c r="F190" t="n">
-        <v>156.8</v>
+        <v>1299.9999</v>
       </c>
       <c r="G190" t="n">
-        <v>294.3</v>
+        <v>294.1166666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7576,10 +7664,10 @@
         <v>290</v>
       </c>
       <c r="F191" t="n">
-        <v>115.1367</v>
+        <v>156.8</v>
       </c>
       <c r="G191" t="n">
-        <v>294.05</v>
+        <v>294.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7603,22 +7691,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C192" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D192" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E192" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F192" t="n">
-        <v>3.136</v>
+        <v>115.1367</v>
       </c>
       <c r="G192" t="n">
-        <v>293.5</v>
+        <v>294.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7642,22 +7730,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C193" t="n">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D193" t="n">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E193" t="n">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F193" t="n">
-        <v>10022</v>
+        <v>3.136</v>
       </c>
       <c r="G193" t="n">
-        <v>293.2</v>
+        <v>294.05</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7681,22 +7769,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C194" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D194" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E194" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F194" t="n">
-        <v>117.7</v>
+        <v>10022</v>
       </c>
       <c r="G194" t="n">
-        <v>292.85</v>
+        <v>294.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7720,22 +7808,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C195" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D195" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E195" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F195" t="n">
-        <v>87</v>
+        <v>117.7</v>
       </c>
       <c r="G195" t="n">
-        <v>292.45</v>
+        <v>294.1166666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7759,22 +7847,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C196" t="n">
         <v>291</v>
       </c>
       <c r="D196" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E196" t="n">
         <v>291</v>
       </c>
       <c r="F196" t="n">
-        <v>3281.8435</v>
+        <v>87</v>
       </c>
       <c r="G196" t="n">
-        <v>292.1</v>
+        <v>294.1166666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7798,22 +7886,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C197" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D197" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E197" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F197" t="n">
-        <v>129.1648</v>
+        <v>3281.8435</v>
       </c>
       <c r="G197" t="n">
-        <v>291.8</v>
+        <v>294.1166666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7849,10 +7937,10 @@
         <v>292</v>
       </c>
       <c r="F198" t="n">
-        <v>130.3713</v>
+        <v>129.1648</v>
       </c>
       <c r="G198" t="n">
-        <v>291.3</v>
+        <v>294.05</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7876,22 +7964,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>292</v>
+      </c>
+      <c r="C199" t="n">
+        <v>292</v>
+      </c>
+      <c r="D199" t="n">
+        <v>292</v>
+      </c>
+      <c r="E199" t="n">
+        <v>292</v>
+      </c>
+      <c r="F199" t="n">
+        <v>130.3713</v>
+      </c>
+      <c r="G199" t="n">
         <v>294</v>
-      </c>
-      <c r="C199" t="n">
-        <v>294</v>
-      </c>
-      <c r="D199" t="n">
-        <v>294</v>
-      </c>
-      <c r="E199" t="n">
-        <v>294</v>
-      </c>
-      <c r="F199" t="n">
-        <v>5</v>
-      </c>
-      <c r="G199" t="n">
-        <v>291.15</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7927,10 +8015,10 @@
         <v>294</v>
       </c>
       <c r="F200" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G200" t="n">
-        <v>291.05</v>
+        <v>294</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7954,22 +8042,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C201" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D201" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E201" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F201" t="n">
-        <v>3402</v>
+        <v>2</v>
       </c>
       <c r="G201" t="n">
-        <v>290.65</v>
+        <v>293.9666666666666</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8005,10 +8093,10 @@
         <v>291</v>
       </c>
       <c r="F202" t="n">
-        <v>160.9999</v>
+        <v>3402</v>
       </c>
       <c r="G202" t="n">
-        <v>290.65</v>
+        <v>293.8333333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8032,22 +8120,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C203" t="n">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D203" t="n">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E203" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F203" t="n">
-        <v>5501.5945</v>
+        <v>160.9999</v>
       </c>
       <c r="G203" t="n">
-        <v>290.85</v>
+        <v>293.8333333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8071,22 +8159,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C204" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D204" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E204" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F204" t="n">
-        <v>4.5637</v>
+        <v>5501.5945</v>
       </c>
       <c r="G204" t="n">
-        <v>291.2</v>
+        <v>293.8166666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8110,7 +8198,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C205" t="n">
         <v>298</v>
@@ -8119,13 +8207,13 @@
         <v>298</v>
       </c>
       <c r="E205" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F205" t="n">
-        <v>2459.3657</v>
+        <v>4.5637</v>
       </c>
       <c r="G205" t="n">
-        <v>291.7</v>
+        <v>293.9333333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8149,22 +8237,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C206" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D206" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E206" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F206" t="n">
-        <v>66.889</v>
+        <v>2459.3657</v>
       </c>
       <c r="G206" t="n">
-        <v>292.25</v>
+        <v>293.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8188,22 +8276,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C207" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D207" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E207" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F207" t="n">
-        <v>807.2127</v>
+        <v>66.889</v>
       </c>
       <c r="G207" t="n">
-        <v>292.5</v>
+        <v>293.9833333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8227,22 +8315,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C208" t="n">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D208" t="n">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E208" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F208" t="n">
-        <v>19.7759</v>
+        <v>807.2127</v>
       </c>
       <c r="G208" t="n">
-        <v>292.8</v>
+        <v>294</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8269,19 +8357,19 @@
         <v>293</v>
       </c>
       <c r="C209" t="n">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D209" t="n">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E209" t="n">
         <v>293</v>
       </c>
       <c r="F209" t="n">
-        <v>3453.1082</v>
+        <v>19.7759</v>
       </c>
       <c r="G209" t="n">
-        <v>292.95</v>
+        <v>294.0166666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8305,22 +8393,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C210" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D210" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E210" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F210" t="n">
-        <v>100</v>
+        <v>3453.1082</v>
       </c>
       <c r="G210" t="n">
-        <v>293.05</v>
+        <v>294.0166666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8356,10 +8444,10 @@
         <v>292</v>
       </c>
       <c r="F211" t="n">
-        <v>525.2171</v>
+        <v>100</v>
       </c>
       <c r="G211" t="n">
-        <v>293.15</v>
+        <v>293.8833333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8383,22 +8471,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C212" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D212" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E212" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F212" t="n">
-        <v>2995.4863</v>
+        <v>525.2171</v>
       </c>
       <c r="G212" t="n">
-        <v>293.4</v>
+        <v>293.75</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8422,22 +8510,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C213" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D213" t="n">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E213" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F213" t="n">
-        <v>8647.5733</v>
+        <v>2995.4863</v>
       </c>
       <c r="G213" t="n">
-        <v>293.7</v>
+        <v>293.7666666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8461,22 +8549,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C214" t="n">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D214" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E214" t="n">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="F214" t="n">
-        <v>1.8807</v>
+        <v>8647.5733</v>
       </c>
       <c r="G214" t="n">
-        <v>294.2</v>
+        <v>293.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8500,22 +8588,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C215" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D215" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E215" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F215" t="n">
-        <v>30.4233</v>
+        <v>1.8807</v>
       </c>
       <c r="G215" t="n">
-        <v>294.65</v>
+        <v>293.7666666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8539,22 +8627,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C216" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D216" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E216" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F216" t="n">
-        <v>3463.0613</v>
+        <v>30.4233</v>
       </c>
       <c r="G216" t="n">
-        <v>294.6</v>
+        <v>293.8666666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8581,19 +8669,19 @@
         <v>292</v>
       </c>
       <c r="C217" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D217" t="n">
         <v>292</v>
       </c>
       <c r="E217" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F217" t="n">
-        <v>2137.3766</v>
+        <v>3463.0613</v>
       </c>
       <c r="G217" t="n">
-        <v>294.6</v>
+        <v>293.85</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8617,22 +8705,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C218" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D218" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E218" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F218" t="n">
-        <v>8098.3121</v>
+        <v>2137.3766</v>
       </c>
       <c r="G218" t="n">
-        <v>294.45</v>
+        <v>293.8166666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8668,10 +8756,10 @@
         <v>289</v>
       </c>
       <c r="F219" t="n">
-        <v>230</v>
+        <v>8098.3121</v>
       </c>
       <c r="G219" t="n">
-        <v>294.2</v>
+        <v>293.7333333333333</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8695,22 +8783,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C220" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D220" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E220" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F220" t="n">
-        <v>3652.8767</v>
+        <v>230</v>
       </c>
       <c r="G220" t="n">
-        <v>294.1</v>
+        <v>293.65</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8737,19 +8825,19 @@
         <v>292</v>
       </c>
       <c r="C221" t="n">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D221" t="n">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E221" t="n">
         <v>292</v>
       </c>
       <c r="F221" t="n">
-        <v>258.6918</v>
+        <v>3652.8767</v>
       </c>
       <c r="G221" t="n">
-        <v>294.15</v>
+        <v>293.6833333333333</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8773,22 +8861,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
+        <v>292</v>
+      </c>
+      <c r="C222" t="n">
         <v>299</v>
       </c>
-      <c r="C222" t="n">
-        <v>300</v>
-      </c>
       <c r="D222" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E222" t="n">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F222" t="n">
-        <v>1192.4821</v>
+        <v>258.6918</v>
       </c>
       <c r="G222" t="n">
-        <v>294.55</v>
+        <v>293.75</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8812,7 +8900,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C223" t="n">
         <v>300</v>
@@ -8821,13 +8909,13 @@
         <v>300</v>
       </c>
       <c r="E223" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F223" t="n">
-        <v>1224.1866</v>
+        <v>1192.4821</v>
       </c>
       <c r="G223" t="n">
-        <v>294.85</v>
+        <v>293.8666666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8851,22 +8939,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C224" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D224" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E224" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="F224" t="n">
-        <v>1492.1261</v>
+        <v>1224.1866</v>
       </c>
       <c r="G224" t="n">
-        <v>294.6</v>
+        <v>294.0833333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8890,22 +8978,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C225" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D225" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E225" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F225" t="n">
-        <v>125.7425</v>
+        <v>1492.1261</v>
       </c>
       <c r="G225" t="n">
-        <v>294.35</v>
+        <v>294.0333333333334</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8929,22 +9017,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C226" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D226" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E226" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F226" t="n">
-        <v>12</v>
+        <v>125.7425</v>
       </c>
       <c r="G226" t="n">
-        <v>294.15</v>
+        <v>294.05</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8968,22 +9056,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C227" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D227" t="n">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E227" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F227" t="n">
-        <v>390.4881</v>
+        <v>12</v>
       </c>
       <c r="G227" t="n">
-        <v>294.4</v>
+        <v>294.0333333333334</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -9007,22 +9095,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C228" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D228" t="n">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E228" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F228" t="n">
-        <v>818.2613</v>
+        <v>390.4881</v>
       </c>
       <c r="G228" t="n">
-        <v>294.35</v>
+        <v>294</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9058,10 +9146,10 @@
         <v>292</v>
       </c>
       <c r="F229" t="n">
-        <v>124.8582</v>
+        <v>818.2613</v>
       </c>
       <c r="G229" t="n">
-        <v>294.3</v>
+        <v>293.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -9097,10 +9185,10 @@
         <v>292</v>
       </c>
       <c r="F230" t="n">
-        <v>2628.32</v>
+        <v>124.8582</v>
       </c>
       <c r="G230" t="n">
-        <v>294.3</v>
+        <v>293.8666666666667</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -9136,10 +9224,10 @@
         <v>292</v>
       </c>
       <c r="F231" t="n">
-        <v>2756.4089</v>
+        <v>2628.32</v>
       </c>
       <c r="G231" t="n">
-        <v>294.3</v>
+        <v>293.8166666666667</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9163,22 +9251,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C232" t="n">
         <v>292</v>
       </c>
       <c r="D232" t="n">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E232" t="n">
         <v>292</v>
       </c>
       <c r="F232" t="n">
-        <v>455.4609</v>
+        <v>2756.4089</v>
       </c>
       <c r="G232" t="n">
-        <v>294.6</v>
+        <v>293.7666666666667</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9202,22 +9290,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C233" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D233" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E233" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F233" t="n">
-        <v>3000</v>
+        <v>455.4609</v>
       </c>
       <c r="G233" t="n">
-        <v>294.4</v>
+        <v>293.6333333333333</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9253,10 +9341,10 @@
         <v>295</v>
       </c>
       <c r="F234" t="n">
-        <v>143.3601</v>
+        <v>3000</v>
       </c>
       <c r="G234" t="n">
-        <v>294.05</v>
+        <v>293.5666666666667</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9280,22 +9368,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C235" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D235" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E235" t="n">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F235" t="n">
-        <v>3128.5534</v>
+        <v>143.3601</v>
       </c>
       <c r="G235" t="n">
-        <v>294</v>
+        <v>293.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9319,22 +9407,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
+        <v>299</v>
+      </c>
+      <c r="C236" t="n">
         <v>300</v>
       </c>
-      <c r="C236" t="n">
-        <v>303</v>
-      </c>
       <c r="D236" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E236" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F236" t="n">
-        <v>13650.8588</v>
+        <v>3128.5534</v>
       </c>
       <c r="G236" t="n">
-        <v>294.4</v>
+        <v>293.5166666666667</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9358,22 +9446,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C237" t="n">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D237" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E237" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F237" t="n">
-        <v>9503.3573</v>
+        <v>13650.8588</v>
       </c>
       <c r="G237" t="n">
-        <v>295</v>
+        <v>293.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9397,22 +9485,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C238" t="n">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D238" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E238" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F238" t="n">
-        <v>768.0406</v>
+        <v>9503.3573</v>
       </c>
       <c r="G238" t="n">
-        <v>295.3</v>
+        <v>293.5</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9436,22 +9524,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C239" t="n">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D239" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E239" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F239" t="n">
-        <v>300</v>
+        <v>768.0406</v>
       </c>
       <c r="G239" t="n">
-        <v>295.75</v>
+        <v>293.55</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9475,22 +9563,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C240" t="n">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D240" t="n">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E240" t="n">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F240" t="n">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="G240" t="n">
-        <v>296.35</v>
+        <v>293.55</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9514,22 +9602,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C241" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D241" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E241" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F241" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G241" t="n">
-        <v>297</v>
+        <v>293.75</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9553,7 +9641,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C242" t="n">
         <v>305</v>
@@ -9562,13 +9650,13 @@
         <v>305</v>
       </c>
       <c r="E242" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F242" t="n">
-        <v>6931.0556</v>
+        <v>1</v>
       </c>
       <c r="G242" t="n">
-        <v>297.25</v>
+        <v>294</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9592,22 +9680,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
+        <v>304</v>
+      </c>
+      <c r="C243" t="n">
         <v>305</v>
-      </c>
-      <c r="C243" t="n">
-        <v>297</v>
       </c>
       <c r="D243" t="n">
         <v>305</v>
       </c>
       <c r="E243" t="n">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="F243" t="n">
-        <v>414</v>
+        <v>6931.0556</v>
       </c>
       <c r="G243" t="n">
-        <v>297.5</v>
+        <v>294.1333333333333</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9631,22 +9719,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
+        <v>305</v>
+      </c>
+      <c r="C244" t="n">
         <v>297</v>
       </c>
-      <c r="C244" t="n">
-        <v>304</v>
-      </c>
       <c r="D244" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E244" t="n">
         <v>297</v>
       </c>
       <c r="F244" t="n">
-        <v>834.5891</v>
+        <v>414</v>
       </c>
       <c r="G244" t="n">
-        <v>297.75</v>
+        <v>294.25</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9670,7 +9758,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C245" t="n">
         <v>304</v>
@@ -9679,13 +9767,13 @@
         <v>304</v>
       </c>
       <c r="E245" t="n">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F245" t="n">
-        <v>8092.2113</v>
+        <v>834.5891</v>
       </c>
       <c r="G245" t="n">
-        <v>298.3</v>
+        <v>294.4833333333333</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9709,22 +9797,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C246" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D246" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E246" t="n">
         <v>304</v>
       </c>
       <c r="F246" t="n">
-        <v>10091.0413</v>
+        <v>8092.2113</v>
       </c>
       <c r="G246" t="n">
-        <v>298.8</v>
+        <v>294.75</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9757,13 +9845,13 @@
         <v>305</v>
       </c>
       <c r="E247" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F247" t="n">
-        <v>602.81006885</v>
+        <v>10091.0413</v>
       </c>
       <c r="G247" t="n">
-        <v>299.1</v>
+        <v>295.0333333333334</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9787,7 +9875,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C248" t="n">
         <v>305</v>
@@ -9796,13 +9884,13 @@
         <v>305</v>
       </c>
       <c r="E248" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F248" t="n">
-        <v>106</v>
+        <v>602.81006885</v>
       </c>
       <c r="G248" t="n">
-        <v>299.4</v>
+        <v>295.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9826,7 +9914,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C249" t="n">
         <v>305</v>
@@ -9835,13 +9923,13 @@
         <v>305</v>
       </c>
       <c r="E249" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F249" t="n">
-        <v>466.213</v>
+        <v>106</v>
       </c>
       <c r="G249" t="n">
-        <v>300.05</v>
+        <v>295.5666666666667</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9865,22 +9953,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C250" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D250" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E250" t="n">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F250" t="n">
-        <v>1020.9128</v>
+        <v>466.213</v>
       </c>
       <c r="G250" t="n">
-        <v>300.35</v>
+        <v>295.8166666666667</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9904,22 +9992,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C251" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D251" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E251" t="n">
         <v>297</v>
       </c>
       <c r="F251" t="n">
-        <v>12</v>
+        <v>1020.9128</v>
       </c>
       <c r="G251" t="n">
-        <v>300.6</v>
+        <v>295.95</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9943,22 +10031,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C252" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D252" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E252" t="n">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F252" t="n">
-        <v>143.7117</v>
+        <v>12</v>
       </c>
       <c r="G252" t="n">
-        <v>300.6</v>
+        <v>296.15</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9982,22 +10070,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C253" t="n">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D253" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E253" t="n">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F253" t="n">
-        <v>7200.3408</v>
+        <v>143.7117</v>
       </c>
       <c r="G253" t="n">
-        <v>300.65</v>
+        <v>296.3333333333333</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -10021,22 +10109,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C254" t="n">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D254" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E254" t="n">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="F254" t="n">
-        <v>33</v>
+        <v>7200.3408</v>
       </c>
       <c r="G254" t="n">
-        <v>301</v>
+        <v>296.3166666666667</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -10060,22 +10148,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C255" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D255" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E255" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F255" t="n">
-        <v>502.6245</v>
+        <v>33</v>
       </c>
       <c r="G255" t="n">
-        <v>301.1</v>
+        <v>296.4833333333333</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -10099,22 +10187,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
+        <v>301</v>
+      </c>
+      <c r="C256" t="n">
         <v>300</v>
       </c>
-      <c r="C256" t="n">
-        <v>299</v>
-      </c>
       <c r="D256" t="n">
+        <v>301</v>
+      </c>
+      <c r="E256" t="n">
         <v>300</v>
       </c>
-      <c r="E256" t="n">
-        <v>299</v>
-      </c>
       <c r="F256" t="n">
-        <v>361.3441</v>
+        <v>502.6245</v>
       </c>
       <c r="G256" t="n">
-        <v>301.1</v>
+        <v>296.6333333333333</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -10138,22 +10226,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
+        <v>300</v>
+      </c>
+      <c r="C257" t="n">
         <v>299</v>
       </c>
-      <c r="C257" t="n">
-        <v>297</v>
-      </c>
       <c r="D257" t="n">
+        <v>300</v>
+      </c>
+      <c r="E257" t="n">
         <v>299</v>
       </c>
-      <c r="E257" t="n">
-        <v>297</v>
-      </c>
       <c r="F257" t="n">
-        <v>2649.9838</v>
+        <v>361.3441</v>
       </c>
       <c r="G257" t="n">
-        <v>300.85</v>
+        <v>296.7666666666667</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -10177,22 +10265,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
+        <v>299</v>
+      </c>
+      <c r="C258" t="n">
         <v>297</v>
       </c>
-      <c r="C258" t="n">
-        <v>296</v>
-      </c>
       <c r="D258" t="n">
+        <v>299</v>
+      </c>
+      <c r="E258" t="n">
         <v>297</v>
       </c>
-      <c r="E258" t="n">
-        <v>296</v>
-      </c>
       <c r="F258" t="n">
-        <v>5624.3973</v>
+        <v>2649.9838</v>
       </c>
       <c r="G258" t="n">
-        <v>300.95</v>
+        <v>296.85</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -10216,22 +10304,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C259" t="n">
         <v>296</v>
       </c>
       <c r="D259" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E259" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F259" t="n">
-        <v>28721.1681</v>
+        <v>5624.3973</v>
       </c>
       <c r="G259" t="n">
-        <v>300.95</v>
+        <v>296.9166666666667</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10255,22 +10343,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C260" t="n">
         <v>296</v>
       </c>
       <c r="D260" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E260" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F260" t="n">
-        <v>51.9398</v>
+        <v>28721.1681</v>
       </c>
       <c r="G260" t="n">
-        <v>300.55</v>
+        <v>296.95</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10294,22 +10382,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C261" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D261" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E261" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F261" t="n">
-        <v>2281</v>
+        <v>51.9398</v>
       </c>
       <c r="G261" t="n">
-        <v>300.05</v>
+        <v>296.9833333333333</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10336,19 +10424,19 @@
         <v>295</v>
       </c>
       <c r="C262" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D262" t="n">
         <v>295</v>
       </c>
       <c r="E262" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F262" t="n">
-        <v>1374.6015</v>
+        <v>2281</v>
       </c>
       <c r="G262" t="n">
-        <v>299.6</v>
+        <v>297.05</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10372,22 +10460,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
+        <v>295</v>
+      </c>
+      <c r="C263" t="n">
         <v>294</v>
       </c>
-      <c r="C263" t="n">
-        <v>299</v>
-      </c>
       <c r="D263" t="n">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E263" t="n">
         <v>294</v>
       </c>
       <c r="F263" t="n">
-        <v>627.4888</v>
+        <v>1374.6015</v>
       </c>
       <c r="G263" t="n">
-        <v>299.05</v>
+        <v>297.1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10411,22 +10499,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C264" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D264" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E264" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F264" t="n">
-        <v>10</v>
+        <v>627.4888</v>
       </c>
       <c r="G264" t="n">
-        <v>299.25</v>
+        <v>297.15</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10450,22 +10538,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C265" t="n">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D265" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E265" t="n">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F265" t="n">
-        <v>630.7777</v>
+        <v>10</v>
       </c>
       <c r="G265" t="n">
-        <v>298.85</v>
+        <v>297.2</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10489,22 +10577,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
+        <v>296</v>
+      </c>
+      <c r="C266" t="n">
         <v>294</v>
       </c>
-      <c r="C266" t="n">
-        <v>300</v>
-      </c>
       <c r="D266" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E266" t="n">
         <v>294</v>
       </c>
       <c r="F266" t="n">
-        <v>410.9565</v>
+        <v>630.7777</v>
       </c>
       <c r="G266" t="n">
-        <v>298.3</v>
+        <v>297.1333333333333</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10531,19 +10619,19 @@
         <v>294</v>
       </c>
       <c r="C267" t="n">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D267" t="n">
+        <v>300</v>
+      </c>
+      <c r="E267" t="n">
         <v>294</v>
       </c>
-      <c r="E267" t="n">
-        <v>293</v>
-      </c>
       <c r="F267" t="n">
-        <v>8610.203799999999</v>
+        <v>410.9565</v>
       </c>
       <c r="G267" t="n">
-        <v>297.75</v>
+        <v>297.15</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10567,22 +10655,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C268" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D268" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E268" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F268" t="n">
-        <v>14259.0958</v>
+        <v>8610.203799999999</v>
       </c>
       <c r="G268" t="n">
-        <v>297.35</v>
+        <v>297.1333333333333</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10606,22 +10694,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C269" t="n">
         <v>289</v>
       </c>
       <c r="D269" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E269" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F269" t="n">
-        <v>943.8150000000001</v>
+        <v>14259.0958</v>
       </c>
       <c r="G269" t="n">
-        <v>296.55</v>
+        <v>296.9666666666666</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10648,19 +10736,19 @@
         <v>289</v>
       </c>
       <c r="C270" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D270" t="n">
         <v>289</v>
       </c>
       <c r="E270" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F270" t="n">
-        <v>7400.9256</v>
+        <v>943.8150000000001</v>
       </c>
       <c r="G270" t="n">
-        <v>296.1</v>
+        <v>296.9</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10684,22 +10772,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C271" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D271" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E271" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F271" t="n">
-        <v>6808.2464</v>
+        <v>7400.9256</v>
       </c>
       <c r="G271" t="n">
-        <v>295.65</v>
+        <v>296.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10723,22 +10811,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C272" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D272" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E272" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F272" t="n">
-        <v>7459.5036</v>
+        <v>6808.2464</v>
       </c>
       <c r="G272" t="n">
-        <v>295.15</v>
+        <v>296.7333333333333</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10765,19 +10853,19 @@
         <v>289</v>
       </c>
       <c r="C273" t="n">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D273" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E273" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F273" t="n">
-        <v>503</v>
+        <v>7459.5036</v>
       </c>
       <c r="G273" t="n">
-        <v>294.8</v>
+        <v>296.6333333333333</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10801,22 +10889,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C274" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D274" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E274" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F274" t="n">
-        <v>30001</v>
+        <v>503</v>
       </c>
       <c r="G274" t="n">
-        <v>294.1</v>
+        <v>296.6833333333333</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10840,22 +10928,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C275" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D275" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E275" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F275" t="n">
-        <v>305.1865</v>
+        <v>30001</v>
       </c>
       <c r="G275" t="n">
-        <v>293.6</v>
+        <v>296.5333333333334</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10879,22 +10967,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C276" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D276" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E276" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F276" t="n">
-        <v>1.677</v>
+        <v>305.1865</v>
       </c>
       <c r="G276" t="n">
-        <v>293.25</v>
+        <v>296.3833333333333</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10918,22 +11006,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C277" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D277" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E277" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F277" t="n">
-        <v>9.616400000000001</v>
+        <v>1.677</v>
       </c>
       <c r="G277" t="n">
-        <v>292.9</v>
+        <v>296.4</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10960,19 +11048,19 @@
         <v>292</v>
       </c>
       <c r="C278" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D278" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E278" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F278" t="n">
-        <v>10403.30716723</v>
+        <v>9.616400000000001</v>
       </c>
       <c r="G278" t="n">
-        <v>292.65</v>
+        <v>296.4166666666667</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10996,22 +11084,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C279" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D279" t="n">
         <v>293</v>
       </c>
       <c r="E279" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F279" t="n">
-        <v>1683.8531</v>
+        <v>10403.30716723</v>
       </c>
       <c r="G279" t="n">
-        <v>292.25</v>
+        <v>296.4833333333333</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -11038,19 +11126,19 @@
         <v>290</v>
       </c>
       <c r="C280" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D280" t="n">
+        <v>293</v>
+      </c>
+      <c r="E280" t="n">
         <v>290</v>
       </c>
-      <c r="E280" t="n">
-        <v>288</v>
-      </c>
       <c r="F280" t="n">
-        <v>4586.4383</v>
+        <v>1683.8531</v>
       </c>
       <c r="G280" t="n">
-        <v>291.95</v>
+        <v>296.5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -11077,19 +11165,19 @@
         <v>290</v>
       </c>
       <c r="C281" t="n">
+        <v>289</v>
+      </c>
+      <c r="D281" t="n">
         <v>290</v>
       </c>
-      <c r="D281" t="n">
-        <v>293</v>
-      </c>
       <c r="E281" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F281" t="n">
-        <v>1192.04332935</v>
+        <v>4586.4383</v>
       </c>
       <c r="G281" t="n">
-        <v>291.7</v>
+        <v>296.45</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -11113,22 +11201,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C282" t="n">
         <v>290</v>
       </c>
       <c r="D282" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E282" t="n">
         <v>290</v>
       </c>
       <c r="F282" t="n">
-        <v>3980.2566</v>
+        <v>1192.04332935</v>
       </c>
       <c r="G282" t="n">
-        <v>291.5</v>
+        <v>296.3</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -11152,22 +11240,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C283" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D283" t="n">
         <v>291</v>
       </c>
       <c r="E283" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F283" t="n">
-        <v>20808</v>
+        <v>3980.2566</v>
       </c>
       <c r="G283" t="n">
-        <v>291.2</v>
+        <v>296.1333333333333</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -11183,6 +11271,45 @@
         </is>
       </c>
       <c r="M283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>288</v>
+      </c>
+      <c r="C284" t="n">
+        <v>291</v>
+      </c>
+      <c r="D284" t="n">
+        <v>291</v>
+      </c>
+      <c r="E284" t="n">
+        <v>285</v>
+      </c>
+      <c r="F284" t="n">
+        <v>20808</v>
+      </c>
+      <c r="G284" t="n">
+        <v>295.9833333333333</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M284" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-29 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M284"/>
+  <dimension ref="A1:N294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>19996.5703</v>
       </c>
       <c r="G2" t="n">
+        <v>285.4</v>
+      </c>
+      <c r="H2" t="n">
         <v>281.8333333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>5701.6109</v>
       </c>
       <c r="G3" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="H3" t="n">
         <v>282.0333333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>293</v>
+      </c>
+      <c r="L3" t="n">
+        <v>293</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,27 @@
         <v>38.4051</v>
       </c>
       <c r="G4" t="n">
+        <v>286.6666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>282.1333333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="L4" t="n">
+        <v>293</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +577,29 @@
         <v>4475.2798</v>
       </c>
       <c r="G5" t="n">
+        <v>287.4</v>
+      </c>
+      <c r="H5" t="n">
         <v>282.3333333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>288</v>
+      </c>
+      <c r="L5" t="n">
+        <v>293</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,29 @@
         <v>36655.8593</v>
       </c>
       <c r="G6" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="H6" t="n">
         <v>282.55</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>293</v>
+      </c>
+      <c r="L6" t="n">
+        <v>293</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +669,27 @@
         <v>48859.8899</v>
       </c>
       <c r="G7" t="n">
+        <v>289.4</v>
+      </c>
+      <c r="H7" t="n">
         <v>282.8833333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
+        <v>293</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +713,27 @@
         <v>2459.8233</v>
       </c>
       <c r="G8" t="n">
+        <v>290.8</v>
+      </c>
+      <c r="H8" t="n">
         <v>283.3333333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>293</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +757,27 @@
         <v>23725.3727</v>
       </c>
       <c r="G9" t="n">
+        <v>292.5333333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>283.85</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>293</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +801,27 @@
         <v>18210.1843</v>
       </c>
       <c r="G10" t="n">
+        <v>294.2666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>284.2833333333334</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>293</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +845,27 @@
         <v>10484.3808</v>
       </c>
       <c r="G11" t="n">
+        <v>296</v>
+      </c>
+      <c r="H11" t="n">
         <v>284.7166666666666</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>293</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +889,27 @@
         <v>6186.1128</v>
       </c>
       <c r="G12" t="n">
+        <v>297.7333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>285.1666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>293</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +933,27 @@
         <v>41536.2201</v>
       </c>
       <c r="G13" t="n">
+        <v>298.8</v>
+      </c>
+      <c r="H13" t="n">
         <v>285.6333333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>293</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +977,27 @@
         <v>41</v>
       </c>
       <c r="G14" t="n">
+        <v>299.8666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>286.1166666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>293</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1021,27 @@
         <v>4.67</v>
       </c>
       <c r="G15" t="n">
+        <v>300.8666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>286.6166666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>293</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1065,27 @@
         <v>11511.0108</v>
       </c>
       <c r="G16" t="n">
+        <v>301.8666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>287.1333333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>293</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1109,27 @@
         <v>9052.901900000001</v>
       </c>
       <c r="G17" t="n">
+        <v>302.7333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>287.6333333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>293</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1153,27 @@
         <v>5881.2403</v>
       </c>
       <c r="G18" t="n">
+        <v>303.7333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>288.15</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>293</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1197,27 @@
         <v>1.667</v>
       </c>
       <c r="G19" t="n">
+        <v>304.9333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>288.6333333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>293</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1241,27 @@
         <v>2551.8611</v>
       </c>
       <c r="G20" t="n">
+        <v>305.9333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>289.15</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>293</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1285,27 @@
         <v>14208.4511</v>
       </c>
       <c r="G21" t="n">
+        <v>306.8666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>289.6166666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>293</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1329,27 @@
         <v>36950.6764</v>
       </c>
       <c r="G22" t="n">
+        <v>307.2666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>290.0333333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>293</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1373,27 @@
         <v>64649.372</v>
       </c>
       <c r="G23" t="n">
+        <v>307.7333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>290.5</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>293</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,19 +1417,28 @@
         <v>2960.25</v>
       </c>
       <c r="G24" t="n">
+        <v>308.1333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>291.0333333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
+      <c r="L24" t="n">
+        <v>293</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>1.066672354948806</v>
       </c>
     </row>
     <row r="25">
@@ -1253,18 +1461,21 @@
         <v>43831.85480307</v>
       </c>
       <c r="G25" t="n">
+        <v>308.1333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>291.4666666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1499,21 @@
         <v>35562.58304936</v>
       </c>
       <c r="G26" t="n">
+        <v>308</v>
+      </c>
+      <c r="H26" t="n">
         <v>291.8666666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1537,21 @@
         <v>9855.2572</v>
       </c>
       <c r="G27" t="n">
+        <v>307.8</v>
+      </c>
+      <c r="H27" t="n">
         <v>292.2833333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1575,21 @@
         <v>21589.4383</v>
       </c>
       <c r="G28" t="n">
+        <v>307.4</v>
+      </c>
+      <c r="H28" t="n">
         <v>292.6333333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1613,21 @@
         <v>7726.0079</v>
       </c>
       <c r="G29" t="n">
+        <v>307</v>
+      </c>
+      <c r="H29" t="n">
         <v>292.9833333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1651,21 @@
         <v>17213.4855</v>
       </c>
       <c r="G30" t="n">
+        <v>307.1333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>293.45</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1689,21 @@
         <v>3694.8526</v>
       </c>
       <c r="G31" t="n">
+        <v>306.5333333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>293.7333333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1727,21 @@
         <v>1639.8899</v>
       </c>
       <c r="G32" t="n">
+        <v>306</v>
+      </c>
+      <c r="H32" t="n">
         <v>294.0166666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1765,21 @@
         <v>50</v>
       </c>
       <c r="G33" t="n">
+        <v>305.7333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>294.4833333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1803,21 @@
         <v>246</v>
       </c>
       <c r="G34" t="n">
+        <v>305.6</v>
+      </c>
+      <c r="H34" t="n">
         <v>294.85</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1841,21 @@
         <v>58</v>
       </c>
       <c r="G35" t="n">
+        <v>305.3333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>295.2</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1879,21 @@
         <v>4</v>
       </c>
       <c r="G36" t="n">
+        <v>305.0666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>295.55</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1917,21 @@
         <v>4</v>
       </c>
       <c r="G37" t="n">
+        <v>304.8666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>295.9</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1955,21 @@
         <v>2</v>
       </c>
       <c r="G38" t="n">
+        <v>304.4666666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>296.25</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1993,21 @@
         <v>22674.005</v>
       </c>
       <c r="G39" t="n">
+        <v>303.1333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>296.4333333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2031,21 @@
         <v>4261.7213</v>
       </c>
       <c r="G40" t="n">
+        <v>302.1333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>296.6</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2069,21 @@
         <v>3160.9374</v>
       </c>
       <c r="G41" t="n">
+        <v>301.2666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>296.7666666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,24 +2107,21 @@
         <v>6481.0498</v>
       </c>
       <c r="G42" t="n">
+        <v>300.7333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>297.0166666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1889,24 +2145,21 @@
         <v>5033.5967</v>
       </c>
       <c r="G43" t="n">
+        <v>300.2</v>
+      </c>
+      <c r="H43" t="n">
         <v>297.2333333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1930,24 +2183,21 @@
         <v>1696.9152</v>
       </c>
       <c r="G44" t="n">
+        <v>299.6</v>
+      </c>
+      <c r="H44" t="n">
         <v>297.4333333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1971,22 +2221,21 @@
         <v>4</v>
       </c>
       <c r="G45" t="n">
+        <v>298.5333333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>297.6166666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2010,24 +2259,21 @@
         <v>1684</v>
       </c>
       <c r="G46" t="n">
+        <v>298.4</v>
+      </c>
+      <c r="H46" t="n">
         <v>297.85</v>
       </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2051,22 +2297,21 @@
         <v>147</v>
       </c>
       <c r="G47" t="n">
+        <v>298</v>
+      </c>
+      <c r="H47" t="n">
         <v>298.0333333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2090,22 +2335,21 @@
         <v>251</v>
       </c>
       <c r="G48" t="n">
+        <v>297.4666666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>298.2833333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2129,22 +2373,21 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
+        <v>297.4</v>
+      </c>
+      <c r="H49" t="n">
         <v>298.65</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2168,22 +2411,21 @@
         <v>8005.0631</v>
       </c>
       <c r="G50" t="n">
+        <v>296.4666666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>298.7833333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2207,22 +2449,21 @@
         <v>2.4597</v>
       </c>
       <c r="G51" t="n">
+        <v>296</v>
+      </c>
+      <c r="H51" t="n">
         <v>299.0333333333334</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2246,22 +2487,21 @@
         <v>4517.7633</v>
       </c>
       <c r="G52" t="n">
+        <v>295.1333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>299.1666666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2285,22 +2525,21 @@
         <v>4097.4715</v>
       </c>
       <c r="G53" t="n">
+        <v>294.0666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>299.2666666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2324,22 +2563,21 @@
         <v>1700.7971</v>
       </c>
       <c r="G54" t="n">
+        <v>294.0666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>299.4666666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2363,22 +2601,21 @@
         <v>869.3967</v>
       </c>
       <c r="G55" t="n">
+        <v>293.7333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>299.5666666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2402,22 +2639,21 @@
         <v>10885.2188</v>
       </c>
       <c r="G56" t="n">
+        <v>293.3333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>299.65</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2441,22 +2677,21 @@
         <v>5596.018</v>
       </c>
       <c r="G57" t="n">
+        <v>293.1333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>299.85</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2480,22 +2715,21 @@
         <v>19496.631</v>
       </c>
       <c r="G58" t="n">
+        <v>293.6666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>300.0166666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2519,22 +2753,21 @@
         <v>27563.09305206</v>
       </c>
       <c r="G59" t="n">
+        <v>293.2666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>299.9333333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2558,22 +2791,21 @@
         <v>3702.0341</v>
       </c>
       <c r="G60" t="n">
+        <v>293.0666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>299.9</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2597,22 +2829,21 @@
         <v>32148.104</v>
       </c>
       <c r="G61" t="n">
+        <v>292.2666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>299.7666666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,22 +2867,21 @@
         <v>1161.3206</v>
       </c>
       <c r="G62" t="n">
+        <v>292.1333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>299.7166666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2675,22 +2905,21 @@
         <v>4149.4526</v>
       </c>
       <c r="G63" t="n">
+        <v>291.4666666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>299.6</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2714,22 +2943,21 @@
         <v>281.3</v>
       </c>
       <c r="G64" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="H64" t="n">
         <v>299.5833333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2753,22 +2981,21 @@
         <v>8458.298000000001</v>
       </c>
       <c r="G65" t="n">
+        <v>290.3333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>299.5166666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2792,22 +3019,21 @@
         <v>3969.8528</v>
       </c>
       <c r="G66" t="n">
+        <v>289.8666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>299.45</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2831,22 +3057,21 @@
         <v>14207.9531</v>
       </c>
       <c r="G67" t="n">
+        <v>289.9333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>299.3</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,22 +3095,21 @@
         <v>15125.3499</v>
       </c>
       <c r="G68" t="n">
+        <v>290.2</v>
+      </c>
+      <c r="H68" t="n">
         <v>299.1166666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2909,22 +3133,21 @@
         <v>1</v>
       </c>
       <c r="G69" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="H69" t="n">
         <v>298.9333333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2948,22 +3171,21 @@
         <v>10771.3966</v>
       </c>
       <c r="G70" t="n">
+        <v>290.6</v>
+      </c>
+      <c r="H70" t="n">
         <v>298.65</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2987,22 +3209,21 @@
         <v>44.7973</v>
       </c>
       <c r="G71" t="n">
+        <v>291.5333333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>298.5333333333334</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3026,22 +3247,21 @@
         <v>372.0813</v>
       </c>
       <c r="G72" t="n">
+        <v>291.5333333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>298.3</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3065,22 +3285,21 @@
         <v>2904.653</v>
       </c>
       <c r="G73" t="n">
+        <v>291</v>
+      </c>
+      <c r="H73" t="n">
         <v>298.0666666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3104,22 +3323,21 @@
         <v>1</v>
       </c>
       <c r="G74" t="n">
+        <v>291.8</v>
+      </c>
+      <c r="H74" t="n">
         <v>297.9166666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,22 +3361,21 @@
         <v>7186.3094</v>
       </c>
       <c r="G75" t="n">
+        <v>292.4</v>
+      </c>
+      <c r="H75" t="n">
         <v>297.7833333333334</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3182,22 +3399,21 @@
         <v>19084.99523974</v>
       </c>
       <c r="G76" t="n">
+        <v>294.2666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>297.8666666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3221,22 +3437,21 @@
         <v>2174.217</v>
       </c>
       <c r="G77" t="n">
+        <v>294.8666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>297.75</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3260,22 +3475,21 @@
         <v>103</v>
       </c>
       <c r="G78" t="n">
+        <v>296.3333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>297.75</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,22 +3513,21 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
+        <v>297</v>
+      </c>
+      <c r="H79" t="n">
         <v>297.6</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,22 +3551,21 @@
         <v>1000</v>
       </c>
       <c r="G80" t="n">
+        <v>297.4666666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>297.4</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3377,22 +3589,21 @@
         <v>100</v>
       </c>
       <c r="G81" t="n">
+        <v>298.0666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>297.25</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3416,22 +3627,21 @@
         <v>2157.3653</v>
       </c>
       <c r="G82" t="n">
+        <v>298.6</v>
+      </c>
+      <c r="H82" t="n">
         <v>297.1333333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3455,22 +3665,21 @@
         <v>6427.3559</v>
       </c>
       <c r="G83" t="n">
+        <v>299.1333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>296.9666666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,22 +3703,21 @@
         <v>226</v>
       </c>
       <c r="G84" t="n">
+        <v>299.4666666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>296.7666666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3533,22 +3741,21 @@
         <v>6211.5435</v>
       </c>
       <c r="G85" t="n">
+        <v>300.0666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>296.6333333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3572,22 +3779,21 @@
         <v>100</v>
       </c>
       <c r="G86" t="n">
+        <v>300.2</v>
+      </c>
+      <c r="H86" t="n">
         <v>296.5833333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3611,22 +3817,21 @@
         <v>17387.0085</v>
       </c>
       <c r="G87" t="n">
+        <v>300.8666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>296.5666666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3650,22 +3855,21 @@
         <v>23972.1591</v>
       </c>
       <c r="G88" t="n">
+        <v>301.6666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>296.6333333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3689,22 +3893,21 @@
         <v>100</v>
       </c>
       <c r="G89" t="n">
+        <v>301.6666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>296.5833333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3728,22 +3931,21 @@
         <v>100</v>
       </c>
       <c r="G90" t="n">
+        <v>301.7333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>296.4333333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3767,22 +3969,21 @@
         <v>7286.4709</v>
       </c>
       <c r="G91" t="n">
+        <v>300.6666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>296.4</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3806,22 +4007,21 @@
         <v>78.20050000000001</v>
       </c>
       <c r="G92" t="n">
+        <v>300.6666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>296.4166666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3845,22 +4045,21 @@
         <v>544.9347</v>
       </c>
       <c r="G93" t="n">
+        <v>300</v>
+      </c>
+      <c r="H93" t="n">
         <v>296.3166666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3884,22 +4083,21 @@
         <v>1063.0535</v>
       </c>
       <c r="G94" t="n">
+        <v>300.1333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>296.2333333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3923,22 +4121,21 @@
         <v>939.22</v>
       </c>
       <c r="G95" t="n">
+        <v>300.2</v>
+      </c>
+      <c r="H95" t="n">
         <v>296.1166666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3962,22 +4159,21 @@
         <v>29.7889</v>
       </c>
       <c r="G96" t="n">
+        <v>300.0666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>296</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4001,22 +4197,21 @@
         <v>96.92659999999999</v>
       </c>
       <c r="G97" t="n">
+        <v>300.0666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>295.9333333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4040,22 +4235,21 @@
         <v>710.8904</v>
       </c>
       <c r="G98" t="n">
+        <v>299.9333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>295.8333333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4079,22 +4273,21 @@
         <v>20826.09878173</v>
       </c>
       <c r="G99" t="n">
+        <v>300.6</v>
+      </c>
+      <c r="H99" t="n">
         <v>296.1333333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4118,22 +4311,21 @@
         <v>878.1</v>
       </c>
       <c r="G100" t="n">
+        <v>300.7333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>296.2833333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4157,22 +4349,21 @@
         <v>428</v>
       </c>
       <c r="G101" t="n">
+        <v>300.6</v>
+      </c>
+      <c r="H101" t="n">
         <v>296.4166666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4196,22 +4387,21 @@
         <v>769.5172</v>
       </c>
       <c r="G102" t="n">
+        <v>300.3333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>296.4666666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4235,22 +4425,21 @@
         <v>1543.5</v>
       </c>
       <c r="G103" t="n">
+        <v>300.0666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>296.6</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4274,22 +4463,21 @@
         <v>4367.7253</v>
       </c>
       <c r="G104" t="n">
+        <v>300.0666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>296.7</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4313,22 +4501,21 @@
         <v>1874.799</v>
       </c>
       <c r="G105" t="n">
+        <v>300.0666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>296.8166666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,22 +4539,21 @@
         <v>2385.0163</v>
       </c>
       <c r="G106" t="n">
+        <v>300.7333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>296.9833333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4391,22 +4577,21 @@
         <v>47084.1657</v>
       </c>
       <c r="G107" t="n">
+        <v>300.9333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>297.15</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4430,22 +4615,21 @@
         <v>40.5585</v>
       </c>
       <c r="G108" t="n">
+        <v>301</v>
+      </c>
+      <c r="H108" t="n">
         <v>297.2</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4469,22 +4653,21 @@
         <v>7510.1647</v>
       </c>
       <c r="G109" t="n">
+        <v>301</v>
+      </c>
+      <c r="H109" t="n">
         <v>297.1333333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,22 +4691,21 @@
         <v>7965</v>
       </c>
       <c r="G110" t="n">
+        <v>301.1333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>297.2833333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4547,22 +4729,21 @@
         <v>934.7227</v>
       </c>
       <c r="G111" t="n">
+        <v>301.0666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>297.2666666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4586,22 +4767,21 @@
         <v>37</v>
       </c>
       <c r="G112" t="n">
+        <v>300.9333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>297.3833333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4625,22 +4805,21 @@
         <v>2759.0519</v>
       </c>
       <c r="G113" t="n">
+        <v>300.8666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>297.5333333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,22 +4843,21 @@
         <v>1529.3712</v>
       </c>
       <c r="G114" t="n">
+        <v>299.8</v>
+      </c>
+      <c r="H114" t="n">
         <v>297.5666666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4703,22 +4881,21 @@
         <v>242.0999</v>
       </c>
       <c r="G115" t="n">
+        <v>299.4666666666666</v>
+      </c>
+      <c r="H115" t="n">
         <v>297.7166666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4742,22 +4919,21 @@
         <v>22</v>
       </c>
       <c r="G116" t="n">
+        <v>299.1333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>297.8666666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4781,22 +4957,21 @@
         <v>1</v>
       </c>
       <c r="G117" t="n">
+        <v>299.0666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>297.95</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4820,22 +4995,21 @@
         <v>24068.0135</v>
       </c>
       <c r="G118" t="n">
+        <v>298.7333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>297.8666666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4859,22 +5033,21 @@
         <v>53.9527</v>
       </c>
       <c r="G119" t="n">
+        <v>298.6</v>
+      </c>
+      <c r="H119" t="n">
         <v>298.0333333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4898,22 +5071,21 @@
         <v>293</v>
       </c>
       <c r="G120" t="n">
+        <v>298.4</v>
+      </c>
+      <c r="H120" t="n">
         <v>298.15</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4937,22 +5109,21 @@
         <v>21650.9413</v>
       </c>
       <c r="G121" t="n">
+        <v>297.4666666666666</v>
+      </c>
+      <c r="H121" t="n">
         <v>298.2833333333334</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4976,22 +5147,21 @@
         <v>34.995</v>
       </c>
       <c r="G122" t="n">
+        <v>296.8</v>
+      </c>
+      <c r="H122" t="n">
         <v>298.3166666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5015,22 +5185,21 @@
         <v>212.3167</v>
       </c>
       <c r="G123" t="n">
+        <v>296.6</v>
+      </c>
+      <c r="H123" t="n">
         <v>298.4833333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5054,22 +5223,21 @@
         <v>7971.7773</v>
       </c>
       <c r="G124" t="n">
+        <v>296.2666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>298.6</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5093,22 +5261,21 @@
         <v>274</v>
       </c>
       <c r="G125" t="n">
+        <v>295.9333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>298.6833333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5132,22 +5299,21 @@
         <v>1220</v>
       </c>
       <c r="G126" t="n">
+        <v>295.7333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>298.7333333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5171,22 +5337,21 @@
         <v>614.1399</v>
       </c>
       <c r="G127" t="n">
+        <v>295.4</v>
+      </c>
+      <c r="H127" t="n">
         <v>298.75</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5210,22 +5375,21 @@
         <v>643.2212</v>
       </c>
       <c r="G128" t="n">
+        <v>295</v>
+      </c>
+      <c r="H128" t="n">
         <v>298.7333333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5249,22 +5413,21 @@
         <v>1778.2583</v>
       </c>
       <c r="G129" t="n">
+        <v>294.6</v>
+      </c>
+      <c r="H129" t="n">
         <v>298.6166666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5288,22 +5451,21 @@
         <v>2598.3413</v>
       </c>
       <c r="G130" t="n">
+        <v>294.1333333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>298.6</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5327,22 +5489,21 @@
         <v>317.8693</v>
       </c>
       <c r="G131" t="n">
+        <v>293.8</v>
+      </c>
+      <c r="H131" t="n">
         <v>298.4333333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5366,22 +5527,21 @@
         <v>695</v>
       </c>
       <c r="G132" t="n">
+        <v>293.1333333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>298.35</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5405,22 +5565,21 @@
         <v>149.6512</v>
       </c>
       <c r="G133" t="n">
+        <v>292.7333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>298.3</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5444,22 +5603,21 @@
         <v>1804.9458</v>
       </c>
       <c r="G134" t="n">
+        <v>292.3333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>298.1666666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5483,22 +5641,21 @@
         <v>3395.9965</v>
       </c>
       <c r="G135" t="n">
+        <v>291.9333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>298.0333333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5522,22 +5679,21 @@
         <v>1446.7027</v>
       </c>
       <c r="G136" t="n">
+        <v>291.8666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>297.6833333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5561,22 +5717,21 @@
         <v>6302.8831</v>
       </c>
       <c r="G137" t="n">
+        <v>291.8</v>
+      </c>
+      <c r="H137" t="n">
         <v>297.55</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5600,22 +5755,21 @@
         <v>1</v>
       </c>
       <c r="G138" t="n">
+        <v>291.8</v>
+      </c>
+      <c r="H138" t="n">
         <v>297.35</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5639,22 +5793,21 @@
         <v>100</v>
       </c>
       <c r="G139" t="n">
+        <v>291.8666666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>297.3166666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5678,22 +5831,21 @@
         <v>8320.611800000001</v>
       </c>
       <c r="G140" t="n">
+        <v>291.8666666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>297.2833333333334</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5717,22 +5869,21 @@
         <v>10039.3501</v>
       </c>
       <c r="G141" t="n">
+        <v>292.0666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>297.2333333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5756,22 +5907,21 @@
         <v>101</v>
       </c>
       <c r="G142" t="n">
+        <v>292.4666666666666</v>
+      </c>
+      <c r="H142" t="n">
         <v>297.2166666666666</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5795,22 +5945,21 @@
         <v>12809.9116</v>
       </c>
       <c r="G143" t="n">
+        <v>292.4666666666666</v>
+      </c>
+      <c r="H143" t="n">
         <v>297.0666666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5834,22 +5983,21 @@
         <v>1</v>
       </c>
       <c r="G144" t="n">
+        <v>292.9333333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>296.9833333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,22 +6021,21 @@
         <v>12188.7094</v>
       </c>
       <c r="G145" t="n">
+        <v>293</v>
+      </c>
+      <c r="H145" t="n">
         <v>296.8333333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5912,22 +6059,21 @@
         <v>1</v>
       </c>
       <c r="G146" t="n">
+        <v>293.6</v>
+      </c>
+      <c r="H146" t="n">
         <v>296.7833333333334</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5951,22 +6097,21 @@
         <v>126.6287</v>
       </c>
       <c r="G147" t="n">
+        <v>293.8666666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>296.6</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5990,22 +6135,21 @@
         <v>48.1904</v>
       </c>
       <c r="G148" t="n">
+        <v>294</v>
+      </c>
+      <c r="H148" t="n">
         <v>296.3833333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6029,22 +6173,21 @@
         <v>1</v>
       </c>
       <c r="G149" t="n">
+        <v>294.4666666666666</v>
+      </c>
+      <c r="H149" t="n">
         <v>296.3666666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6068,22 +6211,21 @@
         <v>3885.3747</v>
       </c>
       <c r="G150" t="n">
+        <v>294.6</v>
+      </c>
+      <c r="H150" t="n">
         <v>296.25</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6107,22 +6249,21 @@
         <v>1847.775</v>
       </c>
       <c r="G151" t="n">
+        <v>295.2</v>
+      </c>
+      <c r="H151" t="n">
         <v>296.3166666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6146,22 +6287,21 @@
         <v>3790.7966</v>
       </c>
       <c r="G152" t="n">
+        <v>295.8</v>
+      </c>
+      <c r="H152" t="n">
         <v>296.3333333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6185,22 +6325,21 @@
         <v>44</v>
       </c>
       <c r="G153" t="n">
+        <v>295.5333333333334</v>
+      </c>
+      <c r="H153" t="n">
         <v>296.2333333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6224,22 +6363,21 @@
         <v>960.8686</v>
       </c>
       <c r="G154" t="n">
+        <v>295.4</v>
+      </c>
+      <c r="H154" t="n">
         <v>296.1333333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6263,22 +6401,21 @@
         <v>19977.6562</v>
       </c>
       <c r="G155" t="n">
+        <v>295.6666666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>296.15</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6302,22 +6439,21 @@
         <v>455.7312</v>
       </c>
       <c r="G156" t="n">
+        <v>295.5333333333334</v>
+      </c>
+      <c r="H156" t="n">
         <v>296.1</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6341,22 +6477,21 @@
         <v>3000</v>
       </c>
       <c r="G157" t="n">
+        <v>295.1333333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>295.9833333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6380,22 +6515,21 @@
         <v>618.5827</v>
       </c>
       <c r="G158" t="n">
+        <v>295.2666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>295.9</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6419,22 +6553,21 @@
         <v>1</v>
       </c>
       <c r="G159" t="n">
+        <v>295.0666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>295.6</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6458,22 +6591,21 @@
         <v>4</v>
       </c>
       <c r="G160" t="n">
+        <v>295.2666666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>295.4666666666666</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6497,22 +6629,21 @@
         <v>612.6045</v>
       </c>
       <c r="G161" t="n">
+        <v>294.6</v>
+      </c>
+      <c r="H161" t="n">
         <v>295.2833333333334</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6536,22 +6667,21 @@
         <v>1</v>
       </c>
       <c r="G162" t="n">
+        <v>294.6666666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>295.1833333333333</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6575,22 +6705,21 @@
         <v>2964.9428</v>
       </c>
       <c r="G163" t="n">
+        <v>294.6666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>295.0333333333334</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6614,22 +6743,21 @@
         <v>1405.2269</v>
       </c>
       <c r="G164" t="n">
+        <v>293.9333333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>294.8333333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6653,22 +6781,21 @@
         <v>10</v>
       </c>
       <c r="G165" t="n">
+        <v>293.9333333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>294.7166666666666</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6692,22 +6819,21 @@
         <v>2711.7027</v>
       </c>
       <c r="G166" t="n">
+        <v>293.4</v>
+      </c>
+      <c r="H166" t="n">
         <v>294.4833333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6731,22 +6857,21 @@
         <v>10</v>
       </c>
       <c r="G167" t="n">
+        <v>293.1333333333333</v>
+      </c>
+      <c r="H167" t="n">
         <v>294.3833333333333</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6770,22 +6895,21 @@
         <v>2229.8847</v>
       </c>
       <c r="G168" t="n">
+        <v>293.3333333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>294.3166666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6809,22 +6933,21 @@
         <v>2009.0267</v>
       </c>
       <c r="G169" t="n">
+        <v>293.6666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>294.3</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6848,22 +6971,21 @@
         <v>14421.5802</v>
       </c>
       <c r="G170" t="n">
+        <v>293.4</v>
+      </c>
+      <c r="H170" t="n">
         <v>294.2166666666666</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6887,22 +7009,21 @@
         <v>2300.2549</v>
       </c>
       <c r="G171" t="n">
+        <v>293.4666666666666</v>
+      </c>
+      <c r="H171" t="n">
         <v>294.2</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6926,22 +7047,21 @@
         <v>3962.7923</v>
       </c>
       <c r="G172" t="n">
+        <v>293.6</v>
+      </c>
+      <c r="H172" t="n">
         <v>294.15</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6965,22 +7085,21 @@
         <v>388.4732</v>
       </c>
       <c r="G173" t="n">
+        <v>294.0666666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>294.2</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7004,22 +7123,21 @@
         <v>138.0232</v>
       </c>
       <c r="G174" t="n">
+        <v>294.4</v>
+      </c>
+      <c r="H174" t="n">
         <v>294.25</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7043,22 +7161,21 @@
         <v>330.7993</v>
       </c>
       <c r="G175" t="n">
+        <v>294.7333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>294.2833333333334</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7082,22 +7199,21 @@
         <v>1026.2575</v>
       </c>
       <c r="G176" t="n">
+        <v>295.3333333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>294.3333333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7121,22 +7237,21 @@
         <v>1176</v>
       </c>
       <c r="G177" t="n">
+        <v>295.5333333333334</v>
+      </c>
+      <c r="H177" t="n">
         <v>294.3</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7160,22 +7275,21 @@
         <v>1009.5952</v>
       </c>
       <c r="G178" t="n">
+        <v>296.2</v>
+      </c>
+      <c r="H178" t="n">
         <v>294.4</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7199,22 +7313,21 @@
         <v>633.5993</v>
       </c>
       <c r="G179" t="n">
+        <v>297.2</v>
+      </c>
+      <c r="H179" t="n">
         <v>294.4833333333333</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,22 +7351,21 @@
         <v>12562.2436</v>
       </c>
       <c r="G180" t="n">
+        <v>297.4666666666666</v>
+      </c>
+      <c r="H180" t="n">
         <v>294.4833333333333</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7277,22 +7389,21 @@
         <v>5963.1487</v>
       </c>
       <c r="G181" t="n">
+        <v>297.4666666666666</v>
+      </c>
+      <c r="H181" t="n">
         <v>294.4833333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7316,22 +7427,21 @@
         <v>2148.1176</v>
       </c>
       <c r="G182" t="n">
+        <v>297.0666666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>294.45</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7355,22 +7465,21 @@
         <v>14432.08</v>
       </c>
       <c r="G183" t="n">
+        <v>297.2</v>
+      </c>
+      <c r="H183" t="n">
         <v>294.4666666666666</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7394,22 +7503,21 @@
         <v>21531.5198</v>
       </c>
       <c r="G184" t="n">
+        <v>296.6666666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>294.4</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7433,22 +7541,21 @@
         <v>6806.9345</v>
       </c>
       <c r="G185" t="n">
+        <v>296.4</v>
+      </c>
+      <c r="H185" t="n">
         <v>294.3333333333333</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7472,22 +7579,21 @@
         <v>267.1298</v>
       </c>
       <c r="G186" t="n">
+        <v>295.9333333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>294.25</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7511,22 +7617,21 @@
         <v>632.0153</v>
       </c>
       <c r="G187" t="n">
+        <v>295.4666666666666</v>
+      </c>
+      <c r="H187" t="n">
         <v>294.1666666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7550,22 +7655,21 @@
         <v>131.4695</v>
       </c>
       <c r="G188" t="n">
+        <v>294.7333333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>294.1333333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7589,22 +7693,21 @@
         <v>7212.7291</v>
       </c>
       <c r="G189" t="n">
+        <v>294.0666666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>294.1166666666667</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7628,22 +7731,21 @@
         <v>1299.9999</v>
       </c>
       <c r="G190" t="n">
+        <v>293.4666666666666</v>
+      </c>
+      <c r="H190" t="n">
         <v>294.1166666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7667,22 +7769,21 @@
         <v>156.8</v>
       </c>
       <c r="G191" t="n">
+        <v>292.8666666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>294.1</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7706,22 +7807,21 @@
         <v>115.1367</v>
       </c>
       <c r="G192" t="n">
+        <v>292.3333333333333</v>
+      </c>
+      <c r="H192" t="n">
         <v>294.1</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7745,22 +7845,21 @@
         <v>3.136</v>
       </c>
       <c r="G193" t="n">
+        <v>291.3333333333333</v>
+      </c>
+      <c r="H193" t="n">
         <v>294.05</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7784,22 +7883,21 @@
         <v>10022</v>
       </c>
       <c r="G194" t="n">
+        <v>290.8</v>
+      </c>
+      <c r="H194" t="n">
         <v>294.1</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7823,22 +7921,21 @@
         <v>117.7</v>
       </c>
       <c r="G195" t="n">
+        <v>290.4666666666666</v>
+      </c>
+      <c r="H195" t="n">
         <v>294.1166666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7862,22 +7959,21 @@
         <v>87</v>
       </c>
       <c r="G196" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="H196" t="n">
         <v>294.1166666666667</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7901,22 +7997,21 @@
         <v>3281.8435</v>
       </c>
       <c r="G197" t="n">
+        <v>290.4666666666666</v>
+      </c>
+      <c r="H197" t="n">
         <v>294.1166666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7940,22 +8035,21 @@
         <v>129.1648</v>
       </c>
       <c r="G198" t="n">
+        <v>290.1333333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>294.05</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7979,22 +8073,21 @@
         <v>130.3713</v>
       </c>
       <c r="G199" t="n">
+        <v>290.2666666666667</v>
+      </c>
+      <c r="H199" t="n">
         <v>294</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8018,22 +8111,21 @@
         <v>5</v>
       </c>
       <c r="G200" t="n">
+        <v>290.5333333333334</v>
+      </c>
+      <c r="H200" t="n">
         <v>294</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8057,22 +8149,21 @@
         <v>2</v>
       </c>
       <c r="G201" t="n">
+        <v>290.9333333333333</v>
+      </c>
+      <c r="H201" t="n">
         <v>293.9666666666666</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8096,22 +8187,21 @@
         <v>3402</v>
       </c>
       <c r="G202" t="n">
+        <v>291.1333333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>293.8333333333333</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8135,22 +8225,21 @@
         <v>160.9999</v>
       </c>
       <c r="G203" t="n">
+        <v>291.2666666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>293.8333333333333</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8174,22 +8263,21 @@
         <v>5501.5945</v>
       </c>
       <c r="G204" t="n">
+        <v>291.7333333333333</v>
+      </c>
+      <c r="H204" t="n">
         <v>293.8166666666667</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8213,22 +8301,21 @@
         <v>4.5637</v>
       </c>
       <c r="G205" t="n">
+        <v>292.2666666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>293.9333333333333</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8252,22 +8339,21 @@
         <v>2459.3657</v>
       </c>
       <c r="G206" t="n">
+        <v>292.8</v>
+      </c>
+      <c r="H206" t="n">
         <v>293.9</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8291,22 +8377,21 @@
         <v>66.889</v>
       </c>
       <c r="G207" t="n">
+        <v>293.4</v>
+      </c>
+      <c r="H207" t="n">
         <v>293.9833333333333</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8330,22 +8415,21 @@
         <v>807.2127</v>
       </c>
       <c r="G208" t="n">
+        <v>293.8</v>
+      </c>
+      <c r="H208" t="n">
         <v>294</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8369,22 +8453,21 @@
         <v>19.7759</v>
       </c>
       <c r="G209" t="n">
+        <v>294.1333333333333</v>
+      </c>
+      <c r="H209" t="n">
         <v>294.0166666666667</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8408,22 +8491,21 @@
         <v>3453.1082</v>
       </c>
       <c r="G210" t="n">
+        <v>294.2</v>
+      </c>
+      <c r="H210" t="n">
         <v>294.0166666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8447,22 +8529,21 @@
         <v>100</v>
       </c>
       <c r="G211" t="n">
+        <v>294.2666666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>293.8833333333333</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8486,22 +8567,21 @@
         <v>525.2171</v>
       </c>
       <c r="G212" t="n">
+        <v>294.3333333333333</v>
+      </c>
+      <c r="H212" t="n">
         <v>293.75</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8525,22 +8605,21 @@
         <v>2995.4863</v>
       </c>
       <c r="G213" t="n">
+        <v>294.4</v>
+      </c>
+      <c r="H213" t="n">
         <v>293.7666666666667</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8564,22 +8643,21 @@
         <v>8647.5733</v>
       </c>
       <c r="G214" t="n">
+        <v>294.2</v>
+      </c>
+      <c r="H214" t="n">
         <v>293.7</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8603,22 +8681,21 @@
         <v>1.8807</v>
       </c>
       <c r="G215" t="n">
+        <v>294.7333333333333</v>
+      </c>
+      <c r="H215" t="n">
         <v>293.7666666666667</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8642,22 +8719,21 @@
         <v>30.4233</v>
       </c>
       <c r="G216" t="n">
+        <v>295.1333333333333</v>
+      </c>
+      <c r="H216" t="n">
         <v>293.8666666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8681,22 +8757,21 @@
         <v>3463.0613</v>
       </c>
       <c r="G217" t="n">
+        <v>295.2</v>
+      </c>
+      <c r="H217" t="n">
         <v>293.85</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8720,22 +8795,21 @@
         <v>2137.3766</v>
       </c>
       <c r="G218" t="n">
+        <v>295.2</v>
+      </c>
+      <c r="H218" t="n">
         <v>293.8166666666667</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8759,22 +8833,21 @@
         <v>8098.3121</v>
       </c>
       <c r="G219" t="n">
+        <v>294.7333333333333</v>
+      </c>
+      <c r="H219" t="n">
         <v>293.7333333333333</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8798,22 +8871,21 @@
         <v>230</v>
       </c>
       <c r="G220" t="n">
+        <v>294.1333333333333</v>
+      </c>
+      <c r="H220" t="n">
         <v>293.65</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8837,22 +8909,21 @@
         <v>3652.8767</v>
       </c>
       <c r="G221" t="n">
+        <v>293.7333333333333</v>
+      </c>
+      <c r="H221" t="n">
         <v>293.6833333333333</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8876,22 +8947,21 @@
         <v>258.6918</v>
       </c>
       <c r="G222" t="n">
+        <v>293.7333333333333</v>
+      </c>
+      <c r="H222" t="n">
         <v>293.75</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8915,22 +8985,21 @@
         <v>1192.4821</v>
       </c>
       <c r="G223" t="n">
+        <v>294.1333333333333</v>
+      </c>
+      <c r="H223" t="n">
         <v>293.8666666666667</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8954,22 +9023,21 @@
         <v>1224.1866</v>
       </c>
       <c r="G224" t="n">
+        <v>294.2</v>
+      </c>
+      <c r="H224" t="n">
         <v>294.0833333333333</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8993,22 +9061,21 @@
         <v>1492.1261</v>
       </c>
       <c r="G225" t="n">
+        <v>294</v>
+      </c>
+      <c r="H225" t="n">
         <v>294.0333333333334</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9032,22 +9099,21 @@
         <v>125.7425</v>
       </c>
       <c r="G226" t="n">
+        <v>294.0666666666667</v>
+      </c>
+      <c r="H226" t="n">
         <v>294.05</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9071,22 +9137,21 @@
         <v>12</v>
       </c>
       <c r="G227" t="n">
+        <v>294.2666666666667</v>
+      </c>
+      <c r="H227" t="n">
         <v>294.0333333333334</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9110,22 +9175,21 @@
         <v>390.4881</v>
       </c>
       <c r="G228" t="n">
+        <v>294.2666666666667</v>
+      </c>
+      <c r="H228" t="n">
         <v>294</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9149,22 +9213,21 @@
         <v>818.2613</v>
       </c>
       <c r="G229" t="n">
+        <v>294.4666666666666</v>
+      </c>
+      <c r="H229" t="n">
         <v>293.9</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9188,22 +9251,21 @@
         <v>124.8582</v>
       </c>
       <c r="G230" t="n">
+        <v>293.8</v>
+      </c>
+      <c r="H230" t="n">
         <v>293.8666666666667</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9227,22 +9289,21 @@
         <v>2628.32</v>
       </c>
       <c r="G231" t="n">
+        <v>293.2666666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>293.8166666666667</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9266,22 +9327,21 @@
         <v>2756.4089</v>
       </c>
       <c r="G232" t="n">
+        <v>293.2666666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>293.7666666666667</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9305,22 +9365,21 @@
         <v>455.4609</v>
       </c>
       <c r="G233" t="n">
+        <v>293.3333333333333</v>
+      </c>
+      <c r="H233" t="n">
         <v>293.6333333333333</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9344,22 +9403,21 @@
         <v>3000</v>
       </c>
       <c r="G234" t="n">
+        <v>293.7333333333333</v>
+      </c>
+      <c r="H234" t="n">
         <v>293.5666666666667</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9383,22 +9441,21 @@
         <v>143.3601</v>
       </c>
       <c r="G235" t="n">
+        <v>294.1333333333333</v>
+      </c>
+      <c r="H235" t="n">
         <v>293.5</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9422,22 +9479,21 @@
         <v>3128.5534</v>
       </c>
       <c r="G236" t="n">
+        <v>294.6666666666667</v>
+      </c>
+      <c r="H236" t="n">
         <v>293.5166666666667</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9461,22 +9517,21 @@
         <v>13650.8588</v>
       </c>
       <c r="G237" t="n">
+        <v>294.9333333333333</v>
+      </c>
+      <c r="H237" t="n">
         <v>293.6</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9500,22 +9555,21 @@
         <v>9503.3573</v>
       </c>
       <c r="G238" t="n">
+        <v>294.7333333333333</v>
+      </c>
+      <c r="H238" t="n">
         <v>293.5</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9539,22 +9593,21 @@
         <v>768.0406</v>
       </c>
       <c r="G239" t="n">
+        <v>295.0666666666667</v>
+      </c>
+      <c r="H239" t="n">
         <v>293.55</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9578,22 +9631,21 @@
         <v>300</v>
       </c>
       <c r="G240" t="n">
+        <v>295.5333333333334</v>
+      </c>
+      <c r="H240" t="n">
         <v>293.55</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9617,22 +9669,21 @@
         <v>10</v>
       </c>
       <c r="G241" t="n">
+        <v>296.2666666666667</v>
+      </c>
+      <c r="H241" t="n">
         <v>293.75</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9656,22 +9707,21 @@
         <v>1</v>
       </c>
       <c r="G242" t="n">
+        <v>296.9333333333333</v>
+      </c>
+      <c r="H242" t="n">
         <v>294</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9695,22 +9745,21 @@
         <v>6931.0556</v>
       </c>
       <c r="G243" t="n">
+        <v>297.7333333333333</v>
+      </c>
+      <c r="H243" t="n">
         <v>294.1333333333333</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9734,22 +9783,21 @@
         <v>414</v>
       </c>
       <c r="G244" t="n">
+        <v>298.0666666666667</v>
+      </c>
+      <c r="H244" t="n">
         <v>294.25</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9773,22 +9821,21 @@
         <v>834.5891</v>
       </c>
       <c r="G245" t="n">
+        <v>298.8666666666667</v>
+      </c>
+      <c r="H245" t="n">
         <v>294.4833333333333</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9812,22 +9859,21 @@
         <v>8092.2113</v>
       </c>
       <c r="G246" t="n">
+        <v>299.6666666666667</v>
+      </c>
+      <c r="H246" t="n">
         <v>294.75</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9851,22 +9897,21 @@
         <v>10091.0413</v>
       </c>
       <c r="G247" t="n">
+        <v>300.5333333333334</v>
+      </c>
+      <c r="H247" t="n">
         <v>295.0333333333334</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9890,22 +9935,21 @@
         <v>602.81006885</v>
       </c>
       <c r="G248" t="n">
+        <v>301.4</v>
+      </c>
+      <c r="H248" t="n">
         <v>295.3</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9929,22 +9973,21 @@
         <v>106</v>
       </c>
       <c r="G249" t="n">
+        <v>302.0666666666667</v>
+      </c>
+      <c r="H249" t="n">
         <v>295.5666666666667</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9968,22 +10011,21 @@
         <v>466.213</v>
       </c>
       <c r="G250" t="n">
+        <v>302.7333333333333</v>
+      </c>
+      <c r="H250" t="n">
         <v>295.8166666666667</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10007,22 +10049,21 @@
         <v>1020.9128</v>
       </c>
       <c r="G251" t="n">
+        <v>302.6</v>
+      </c>
+      <c r="H251" t="n">
         <v>295.95</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10046,22 +10087,21 @@
         <v>12</v>
       </c>
       <c r="G252" t="n">
+        <v>302.5333333333334</v>
+      </c>
+      <c r="H252" t="n">
         <v>296.15</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10085,22 +10125,21 @@
         <v>143.7117</v>
       </c>
       <c r="G253" t="n">
+        <v>302.6666666666667</v>
+      </c>
+      <c r="H253" t="n">
         <v>296.3333333333333</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10124,22 +10163,21 @@
         <v>7200.3408</v>
       </c>
       <c r="G254" t="n">
+        <v>301.8666666666667</v>
+      </c>
+      <c r="H254" t="n">
         <v>296.3166666666667</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10163,22 +10201,21 @@
         <v>33</v>
       </c>
       <c r="G255" t="n">
+        <v>302.2</v>
+      </c>
+      <c r="H255" t="n">
         <v>296.4833333333333</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10202,22 +10239,21 @@
         <v>502.6245</v>
       </c>
       <c r="G256" t="n">
+        <v>301.9333333333333</v>
+      </c>
+      <c r="H256" t="n">
         <v>296.6333333333333</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10241,22 +10277,21 @@
         <v>361.3441</v>
       </c>
       <c r="G257" t="n">
+        <v>301.5333333333334</v>
+      </c>
+      <c r="H257" t="n">
         <v>296.7666666666667</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10280,22 +10315,21 @@
         <v>2649.9838</v>
       </c>
       <c r="G258" t="n">
+        <v>301</v>
+      </c>
+      <c r="H258" t="n">
         <v>296.85</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10319,22 +10353,21 @@
         <v>5624.3973</v>
       </c>
       <c r="G259" t="n">
+        <v>300.9333333333333</v>
+      </c>
+      <c r="H259" t="n">
         <v>296.9166666666667</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10358,22 +10391,21 @@
         <v>28721.1681</v>
       </c>
       <c r="G260" t="n">
+        <v>300.4</v>
+      </c>
+      <c r="H260" t="n">
         <v>296.95</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10397,22 +10429,21 @@
         <v>51.9398</v>
       </c>
       <c r="G261" t="n">
+        <v>299.8666666666667</v>
+      </c>
+      <c r="H261" t="n">
         <v>296.9833333333333</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10436,22 +10467,21 @@
         <v>2281</v>
       </c>
       <c r="G262" t="n">
+        <v>299.2</v>
+      </c>
+      <c r="H262" t="n">
         <v>297.05</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10475,22 +10505,21 @@
         <v>1374.6015</v>
       </c>
       <c r="G263" t="n">
+        <v>298.4666666666666</v>
+      </c>
+      <c r="H263" t="n">
         <v>297.1</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10514,22 +10543,21 @@
         <v>627.4888</v>
       </c>
       <c r="G264" t="n">
+        <v>298.0666666666667</v>
+      </c>
+      <c r="H264" t="n">
         <v>297.15</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10553,22 +10581,21 @@
         <v>10</v>
       </c>
       <c r="G265" t="n">
+        <v>297.8</v>
+      </c>
+      <c r="H265" t="n">
         <v>297.2</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10592,22 +10619,21 @@
         <v>630.7777</v>
       </c>
       <c r="G266" t="n">
+        <v>297.5333333333334</v>
+      </c>
+      <c r="H266" t="n">
         <v>297.1333333333333</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10631,22 +10657,21 @@
         <v>410.9565</v>
       </c>
       <c r="G267" t="n">
+        <v>297.4</v>
+      </c>
+      <c r="H267" t="n">
         <v>297.15</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10670,22 +10695,21 @@
         <v>8610.203799999999</v>
       </c>
       <c r="G268" t="n">
+        <v>297</v>
+      </c>
+      <c r="H268" t="n">
         <v>297.1333333333333</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10709,22 +10733,21 @@
         <v>14259.0958</v>
       </c>
       <c r="G269" t="n">
+        <v>296.7333333333333</v>
+      </c>
+      <c r="H269" t="n">
         <v>296.9666666666666</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10748,22 +10771,21 @@
         <v>943.8150000000001</v>
       </c>
       <c r="G270" t="n">
+        <v>295.8666666666667</v>
+      </c>
+      <c r="H270" t="n">
         <v>296.9</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10787,22 +10809,21 @@
         <v>7400.9256</v>
       </c>
       <c r="G271" t="n">
+        <v>294.9333333333333</v>
+      </c>
+      <c r="H271" t="n">
         <v>296.8</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10826,22 +10847,21 @@
         <v>6808.2464</v>
       </c>
       <c r="G272" t="n">
+        <v>294.2</v>
+      </c>
+      <c r="H272" t="n">
         <v>296.7333333333333</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10865,22 +10885,21 @@
         <v>7459.5036</v>
       </c>
       <c r="G273" t="n">
+        <v>293.5333333333334</v>
+      </c>
+      <c r="H273" t="n">
         <v>296.6333333333333</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M273" t="n">
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10904,22 +10923,21 @@
         <v>503</v>
       </c>
       <c r="G274" t="n">
+        <v>293.2666666666667</v>
+      </c>
+      <c r="H274" t="n">
         <v>296.6833333333333</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10943,22 +10961,21 @@
         <v>30001</v>
       </c>
       <c r="G275" t="n">
+        <v>293.0666666666667</v>
+      </c>
+      <c r="H275" t="n">
         <v>296.5333333333334</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10982,22 +10999,21 @@
         <v>305.1865</v>
       </c>
       <c r="G276" t="n">
+        <v>292.7333333333333</v>
+      </c>
+      <c r="H276" t="n">
         <v>296.3833333333333</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11021,22 +11037,21 @@
         <v>1.677</v>
       </c>
       <c r="G277" t="n">
+        <v>292.6</v>
+      </c>
+      <c r="H277" t="n">
         <v>296.4</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M277" t="n">
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11060,22 +11075,21 @@
         <v>9.616400000000001</v>
       </c>
       <c r="G278" t="n">
+        <v>292.4666666666666</v>
+      </c>
+      <c r="H278" t="n">
         <v>296.4166666666667</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M278" t="n">
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11099,22 +11113,21 @@
         <v>10403.30716723</v>
       </c>
       <c r="G279" t="n">
+        <v>292.0666666666667</v>
+      </c>
+      <c r="H279" t="n">
         <v>296.4833333333333</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M279" t="n">
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11138,22 +11151,21 @@
         <v>1683.8531</v>
       </c>
       <c r="G280" t="n">
+        <v>291.3333333333333</v>
+      </c>
+      <c r="H280" t="n">
         <v>296.5</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M280" t="n">
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11177,22 +11189,21 @@
         <v>4586.4383</v>
       </c>
       <c r="G281" t="n">
+        <v>291</v>
+      </c>
+      <c r="H281" t="n">
         <v>296.45</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M281" t="n">
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11216,22 +11227,21 @@
         <v>1192.04332935</v>
       </c>
       <c r="G282" t="n">
+        <v>290.3333333333333</v>
+      </c>
+      <c r="H282" t="n">
         <v>296.3</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M282" t="n">
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11255,22 +11265,21 @@
         <v>3980.2566</v>
       </c>
       <c r="G283" t="n">
+        <v>290.1333333333333</v>
+      </c>
+      <c r="H283" t="n">
         <v>296.1333333333333</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M283" t="n">
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11294,22 +11303,401 @@
         <v>20808</v>
       </c>
       <c r="G284" t="n">
+        <v>290.2666666666667</v>
+      </c>
+      <c r="H284" t="n">
         <v>295.9833333333333</v>
       </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M284" t="n">
+      <c r="L284" t="inlineStr"/>
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>289</v>
+      </c>
+      <c r="C285" t="n">
+        <v>290</v>
+      </c>
+      <c r="D285" t="n">
+        <v>292</v>
+      </c>
+      <c r="E285" t="n">
+        <v>289</v>
+      </c>
+      <c r="F285" t="n">
+        <v>2301.3377</v>
+      </c>
+      <c r="G285" t="n">
+        <v>290.3333333333333</v>
+      </c>
+      <c r="H285" t="n">
+        <v>295.9833333333333</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>291</v>
+      </c>
+      <c r="C286" t="n">
+        <v>292</v>
+      </c>
+      <c r="D286" t="n">
+        <v>292</v>
+      </c>
+      <c r="E286" t="n">
+        <v>291</v>
+      </c>
+      <c r="F286" t="n">
+        <v>5169.86404109</v>
+      </c>
+      <c r="G286" t="n">
+        <v>290.7333333333333</v>
+      </c>
+      <c r="H286" t="n">
+        <v>295.9666666666666</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>286</v>
+      </c>
+      <c r="C287" t="n">
+        <v>291</v>
+      </c>
+      <c r="D287" t="n">
+        <v>291</v>
+      </c>
+      <c r="E287" t="n">
+        <v>284</v>
+      </c>
+      <c r="F287" t="n">
+        <v>8100</v>
+      </c>
+      <c r="G287" t="n">
+        <v>290.9333333333333</v>
+      </c>
+      <c r="H287" t="n">
+        <v>295.9</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>285</v>
+      </c>
+      <c r="C288" t="n">
+        <v>282</v>
+      </c>
+      <c r="D288" t="n">
+        <v>285</v>
+      </c>
+      <c r="E288" t="n">
+        <v>282</v>
+      </c>
+      <c r="F288" t="n">
+        <v>10630.923</v>
+      </c>
+      <c r="G288" t="n">
+        <v>290.6</v>
+      </c>
+      <c r="H288" t="n">
+        <v>295.7166666666666</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>288</v>
+      </c>
+      <c r="C289" t="n">
+        <v>289</v>
+      </c>
+      <c r="D289" t="n">
+        <v>289</v>
+      </c>
+      <c r="E289" t="n">
+        <v>284</v>
+      </c>
+      <c r="F289" t="n">
+        <v>13696.5612</v>
+      </c>
+      <c r="G289" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="H289" t="n">
+        <v>295.6666666666667</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>284</v>
+      </c>
+      <c r="C290" t="n">
+        <v>286</v>
+      </c>
+      <c r="D290" t="n">
+        <v>288</v>
+      </c>
+      <c r="E290" t="n">
+        <v>281</v>
+      </c>
+      <c r="F290" t="n">
+        <v>12958.6701</v>
+      </c>
+      <c r="G290" t="n">
+        <v>289.9333333333333</v>
+      </c>
+      <c r="H290" t="n">
+        <v>295.5666666666667</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>287</v>
+      </c>
+      <c r="C291" t="n">
+        <v>286</v>
+      </c>
+      <c r="D291" t="n">
+        <v>287</v>
+      </c>
+      <c r="E291" t="n">
+        <v>284</v>
+      </c>
+      <c r="F291" t="n">
+        <v>3773.9003</v>
+      </c>
+      <c r="G291" t="n">
+        <v>289.6</v>
+      </c>
+      <c r="H291" t="n">
+        <v>295.4666666666666</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>286</v>
+      </c>
+      <c r="C292" t="n">
+        <v>287</v>
+      </c>
+      <c r="D292" t="n">
+        <v>287</v>
+      </c>
+      <c r="E292" t="n">
+        <v>286</v>
+      </c>
+      <c r="F292" t="n">
+        <v>1810</v>
+      </c>
+      <c r="G292" t="n">
+        <v>289.2</v>
+      </c>
+      <c r="H292" t="n">
+        <v>295.3833333333333</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>283</v>
+      </c>
+      <c r="C293" t="n">
+        <v>283</v>
+      </c>
+      <c r="D293" t="n">
+        <v>283</v>
+      </c>
+      <c r="E293" t="n">
+        <v>283</v>
+      </c>
+      <c r="F293" t="n">
+        <v>175.2791</v>
+      </c>
+      <c r="G293" t="n">
+        <v>288.6</v>
+      </c>
+      <c r="H293" t="n">
+        <v>295.2333333333333</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>283</v>
+      </c>
+      <c r="C294" t="n">
+        <v>283</v>
+      </c>
+      <c r="D294" t="n">
+        <v>283</v>
+      </c>
+      <c r="E294" t="n">
+        <v>283</v>
+      </c>
+      <c r="F294" t="n">
+        <v>6150</v>
+      </c>
+      <c r="G294" t="n">
+        <v>287.9333333333333</v>
+      </c>
+      <c r="H294" t="n">
+        <v>295.0333333333334</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-29 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-10018.69017951001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-16044.86047951001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>282</v>
+      </c>
+      <c r="J3" t="n">
+        <v>282</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-16044.86047951001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>281</v>
+      </c>
+      <c r="J4" t="n">
+        <v>282</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-16044.86047951001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>281</v>
+      </c>
+      <c r="J5" t="n">
+        <v>282</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>-16160.86047951001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>281</v>
+      </c>
+      <c r="J6" t="n">
+        <v>281</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>-16151.35127951001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>276</v>
+      </c>
+      <c r="J7" t="n">
+        <v>281</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>-14284.12537951001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>277</v>
+      </c>
+      <c r="J8" t="n">
+        <v>281</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +722,19 @@
         <v>-14284.12537951001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>282</v>
+      </c>
+      <c r="J9" t="n">
+        <v>281</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +763,19 @@
         <v>-14284.12537951001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>282</v>
+      </c>
+      <c r="J10" t="n">
+        <v>281</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +804,19 @@
         <v>-15319.12537951001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>282</v>
+      </c>
+      <c r="J11" t="n">
+        <v>281</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +845,19 @@
         <v>-17853.12537951001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>280</v>
+      </c>
+      <c r="J12" t="n">
+        <v>281</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +886,19 @@
         <v>-18028.99477951001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>279</v>
+      </c>
+      <c r="J13" t="n">
+        <v>281</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +927,19 @@
         <v>-19503.89467951001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>277</v>
+      </c>
+      <c r="J14" t="n">
+        <v>281</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +968,19 @@
         <v>-19503.89467951001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>276</v>
+      </c>
+      <c r="J15" t="n">
+        <v>281</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1009,19 @@
         <v>-18282.22117951</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>276</v>
+      </c>
+      <c r="J16" t="n">
+        <v>281</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,15 +1050,19 @@
         <v>-18282.22117951</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>277</v>
       </c>
       <c r="J17" t="n">
-        <v>277</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,17 +1091,17 @@
         <v>-18282.22117951</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>277</v>
       </c>
       <c r="J18" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1024,17 +1132,17 @@
         <v>-4985.113979510004</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>277</v>
       </c>
       <c r="J19" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1065,13 +1173,13 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>280</v>
       </c>
       <c r="J20" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1106,13 +1214,13 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>282</v>
       </c>
       <c r="J21" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1147,13 +1255,13 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>282</v>
       </c>
       <c r="J22" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1188,11 +1296,13 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>282</v>
+      </c>
       <c r="J23" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1227,11 +1337,13 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>282</v>
+      </c>
       <c r="J24" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1266,13 +1378,13 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>282</v>
       </c>
       <c r="J25" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1307,11 +1419,13 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>281</v>
+      </c>
       <c r="J26" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1346,11 +1460,13 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>281</v>
+      </c>
       <c r="J27" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1385,11 +1501,13 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>281</v>
+      </c>
       <c r="J28" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1424,11 +1542,13 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>281</v>
+      </c>
       <c r="J29" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1463,11 +1583,13 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>281</v>
+      </c>
       <c r="J30" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1502,11 +1624,13 @@
         <v>-10072.79257951001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>281</v>
+      </c>
       <c r="J31" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1541,11 +1665,13 @@
         <v>7953.810120489994</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>276</v>
+      </c>
       <c r="J32" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1580,11 +1706,13 @@
         <v>13751.81012048999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>282</v>
+      </c>
       <c r="J33" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1619,11 +1747,13 @@
         <v>13751.81012048999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>283</v>
+      </c>
       <c r="J34" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1658,11 +1788,13 @@
         <v>13751.81012048999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>283</v>
+      </c>
       <c r="J35" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1697,11 +1829,13 @@
         <v>13751.81012048999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>283</v>
+      </c>
       <c r="J36" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1740,7 +1874,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1775,11 +1909,13 @@
         <v>13751.81012048999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>283</v>
+      </c>
       <c r="J38" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1814,11 +1950,13 @@
         <v>13751.81012048999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>283</v>
+      </c>
       <c r="J39" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1853,11 +1991,13 @@
         <v>13751.81012048999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>283</v>
+      </c>
       <c r="J40" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1892,11 +2032,13 @@
         <v>13185.62352048999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>283</v>
+      </c>
       <c r="J41" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1931,11 +2073,13 @@
         <v>13185.62352048999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>281</v>
+      </c>
       <c r="J42" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1970,11 +2114,13 @@
         <v>13744.62352048999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>281</v>
+      </c>
       <c r="J43" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2009,11 +2155,13 @@
         <v>13744.62352048999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>282</v>
+      </c>
       <c r="J44" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2048,11 +2196,13 @@
         <v>11216.87992048999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>282</v>
+      </c>
       <c r="J45" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2091,7 +2241,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2126,11 +2276,13 @@
         <v>11216.87992048999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>281</v>
+      </c>
       <c r="J47" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2165,11 +2317,13 @@
         <v>11243.20182048999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>281</v>
+      </c>
       <c r="J48" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2204,11 +2358,13 @@
         <v>11243.20182048999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>282</v>
+      </c>
       <c r="J49" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2243,11 +2399,13 @@
         <v>11262.97052048999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>282</v>
+      </c>
       <c r="J50" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2282,11 +2440,13 @@
         <v>11253.14162048999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>283</v>
+      </c>
       <c r="J51" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2321,11 +2481,13 @@
         <v>11253.14162048999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>282</v>
+      </c>
       <c r="J52" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2360,11 +2522,13 @@
         <v>11253.14162048999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>282</v>
+      </c>
       <c r="J53" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2399,11 +2563,13 @@
         <v>11253.14162048999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>282</v>
+      </c>
       <c r="J54" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2438,11 +2604,13 @@
         <v>12082.37292048999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>282</v>
+      </c>
       <c r="J55" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2477,11 +2645,13 @@
         <v>55595.53152049</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>283</v>
+      </c>
       <c r="J56" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2520,7 +2690,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2559,7 +2729,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2598,7 +2768,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2637,7 +2807,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2676,7 +2846,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2715,7 +2885,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2754,7 +2924,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2793,7 +2963,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2832,7 +3002,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2871,7 +3041,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2910,7 +3080,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2949,7 +3119,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2988,7 +3158,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3027,7 +3197,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3066,7 +3236,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3105,7 +3275,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3144,7 +3314,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3183,7 +3353,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3222,7 +3392,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3261,7 +3431,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3300,7 +3470,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3339,7 +3509,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3378,7 +3548,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3417,7 +3587,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3456,7 +3626,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3495,7 +3665,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3534,7 +3704,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3573,7 +3743,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3608,11 +3778,11 @@
         <v>107018.18466806</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3620,10 +3790,10 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.099693140794224</v>
+        <v>1.083967971530249</v>
       </c>
       <c r="M85" t="n">
-        <v>1.025454545454545</v>
+        <v>1.021739130434783</v>
       </c>
     </row>
     <row r="86">
@@ -3649,7 +3819,7 @@
         <v>85428.74636806003</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3682,7 +3852,7 @@
         <v>85428.74636806003</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3715,7 +3885,7 @@
         <v>102642.23186806</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3748,7 +3918,7 @@
         <v>98947.37926806003</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3781,7 +3951,7 @@
         <v>98947.37926806003</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3814,7 +3984,7 @@
         <v>98997.37926806003</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3847,7 +4017,7 @@
         <v>98997.37926806003</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3880,7 +4050,7 @@
         <v>98997.37926806003</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3913,7 +4083,7 @@
         <v>98997.37926806003</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3946,7 +4116,7 @@
         <v>98997.37926806003</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3979,7 +4149,7 @@
         <v>98997.37926806003</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4012,7 +4182,7 @@
         <v>76323.37426806003</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4045,7 +4215,7 @@
         <v>72061.65296806002</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4078,7 +4248,7 @@
         <v>72061.65296806002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4111,7 +4281,7 @@
         <v>78542.70276806001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4144,7 +4314,7 @@
         <v>73509.10606806002</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4177,7 +4347,7 @@
         <v>71812.19086806002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4210,7 +4380,7 @@
         <v>71812.19086806002</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4243,7 +4413,7 @@
         <v>73496.19086806002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4276,7 +4446,7 @@
         <v>73349.19086806002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4309,7 +4479,7 @@
         <v>73600.19086806002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4342,7 +4512,7 @@
         <v>73601.19086806002</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4375,7 +4545,7 @@
         <v>65596.12776806002</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4408,7 +4578,7 @@
         <v>65598.58746806002</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4441,7 +4611,7 @@
         <v>61080.82416806003</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4474,7 +4644,7 @@
         <v>56983.35266806003</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4507,7 +4677,7 @@
         <v>58684.14976806003</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4540,7 +4710,7 @@
         <v>57814.75306806003</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4606,7 +4776,7 @@
         <v>52525.55226806003</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4672,7 +4842,7 @@
         <v>44459.09021600003</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4738,7 +4908,7 @@
         <v>16013.02031600003</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -5134,7 +5304,7 @@
         <v>25939.95861600003</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5167,7 +5337,7 @@
         <v>25940.95861600003</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5332,7 +5502,7 @@
         <v>42953.73685574003</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5365,7 +5535,7 @@
         <v>41953.73685574003</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5398,7 +5568,7 @@
         <v>42053.73685574003</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5431,7 +5601,7 @@
         <v>44211.10215574003</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5464,7 +5634,7 @@
         <v>44211.10215574003</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5497,7 +5667,7 @@
         <v>44437.10215574003</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5530,7 +5700,7 @@
         <v>38225.55865574003</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5563,7 +5733,7 @@
         <v>38325.55865574003</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5629,7 +5799,7 @@
         <v>79684.72625574004</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5695,7 +5865,7 @@
         <v>79684.72625574004</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5728,7 +5898,7 @@
         <v>72398.25535574004</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5761,7 +5931,7 @@
         <v>72476.45585574005</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5794,7 +5964,7 @@
         <v>71931.52115574005</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5827,7 +5997,7 @@
         <v>72994.57465574004</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5860,7 +6030,7 @@
         <v>72055.35465574004</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5893,7 +6063,7 @@
         <v>72055.35465574004</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5926,7 +6096,7 @@
         <v>72152.28125574005</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5959,7 +6129,7 @@
         <v>71441.39085574004</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6157,7 +6327,7 @@
         <v>88137.16433747004</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6190,7 +6360,7 @@
         <v>90011.96333747004</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6223,7 +6393,7 @@
         <v>92396.97963747004</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6289,7 +6459,7 @@
         <v>45272.25543747004</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6355,7 +6525,7 @@
         <v>45272.25543747004</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6520,7 +6690,7 @@
         <v>40328.20953747004</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6586,7 +6756,7 @@
         <v>40307.20953747004</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6718,7 +6888,7 @@
         <v>-5411.745262529956</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7147,7 +7317,7 @@
         <v>-17040.16486252996</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7180,7 +7350,7 @@
         <v>-17040.16486252996</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7213,7 +7383,7 @@
         <v>-17040.16486252996</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7246,7 +7416,7 @@
         <v>-17040.16486252996</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7411,7 +7581,7 @@
         <v>-15319.42656252996</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7444,7 +7614,7 @@
         <v>-28129.33816252996</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7741,7 +7911,7 @@
         <v>-42527.46636252996</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7840,7 +8010,7 @@
         <v>-21632.94156252996</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7873,7 +8043,7 @@
         <v>-22088.67276252995</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8335,7 +8505,7 @@
         <v>-47403.58786252995</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8401,7 +8571,7 @@
         <v>-45103.33296252995</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8665,7 +8835,7 @@
         <v>-58215.13066252995</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -10678,7 +10848,7 @@
         <v>-70567.03266252996</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10843,7 +11013,7 @@
         <v>-70145.44356252997</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10876,7 +11046,7 @@
         <v>-60054.40226252997</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10909,7 +11079,7 @@
         <v>-60054.40226252997</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10942,7 +11112,7 @@
         <v>-60054.40226252997</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12438,6 +12608,6 @@
       <c r="M352" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-29 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-10018.69017951001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-16044.86047951001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>282</v>
-      </c>
-      <c r="J3" t="n">
-        <v>282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-16044.86047951001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>281</v>
-      </c>
-      <c r="J4" t="n">
-        <v>282</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-16044.86047951001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>281</v>
-      </c>
-      <c r="J5" t="n">
-        <v>282</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-16160.86047951001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>281</v>
-      </c>
-      <c r="J6" t="n">
-        <v>281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>-16151.35127951001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>276</v>
-      </c>
-      <c r="J7" t="n">
-        <v>281</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>-14284.12537951001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>277</v>
-      </c>
-      <c r="J8" t="n">
-        <v>281</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,19 +682,11 @@
         <v>-14284.12537951001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>282</v>
-      </c>
-      <c r="J9" t="n">
-        <v>281</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -763,19 +715,11 @@
         <v>-14284.12537951001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>282</v>
-      </c>
-      <c r="J10" t="n">
-        <v>281</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -804,19 +748,11 @@
         <v>-15319.12537951001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>282</v>
-      </c>
-      <c r="J11" t="n">
-        <v>281</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -845,19 +781,11 @@
         <v>-17853.12537951001</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>280</v>
-      </c>
-      <c r="J12" t="n">
-        <v>281</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -886,19 +814,11 @@
         <v>-18028.99477951001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>279</v>
-      </c>
-      <c r="J13" t="n">
-        <v>281</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -927,19 +847,11 @@
         <v>-19503.89467951001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>277</v>
-      </c>
-      <c r="J14" t="n">
-        <v>281</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -968,19 +880,11 @@
         <v>-19503.89467951001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>276</v>
-      </c>
-      <c r="J15" t="n">
-        <v>281</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1009,19 +913,11 @@
         <v>-18282.22117951</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>276</v>
-      </c>
-      <c r="J16" t="n">
-        <v>281</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1050,19 +946,11 @@
         <v>-18282.22117951</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>277</v>
-      </c>
-      <c r="J17" t="n">
-        <v>281</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1091,19 +979,11 @@
         <v>-18282.22117951</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>277</v>
-      </c>
-      <c r="J18" t="n">
-        <v>281</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1132,19 +1012,11 @@
         <v>-4985.113979510004</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>277</v>
-      </c>
-      <c r="J19" t="n">
-        <v>281</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1173,19 +1045,11 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>280</v>
-      </c>
-      <c r="J20" t="n">
-        <v>281</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1214,19 +1078,11 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>282</v>
-      </c>
-      <c r="J21" t="n">
-        <v>281</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1255,19 +1111,11 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>282</v>
-      </c>
-      <c r="J22" t="n">
-        <v>281</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1296,19 +1144,11 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>282</v>
-      </c>
-      <c r="J23" t="n">
-        <v>281</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1337,19 +1177,11 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>282</v>
-      </c>
-      <c r="J24" t="n">
-        <v>281</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1378,19 +1210,11 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>282</v>
-      </c>
-      <c r="J25" t="n">
-        <v>281</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1419,19 +1243,11 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>281</v>
-      </c>
-      <c r="J26" t="n">
-        <v>281</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1460,19 +1276,11 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>281</v>
-      </c>
-      <c r="J27" t="n">
-        <v>281</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1501,19 +1309,11 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>281</v>
-      </c>
-      <c r="J28" t="n">
-        <v>281</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1542,19 +1342,11 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>281</v>
-      </c>
-      <c r="J29" t="n">
-        <v>281</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1583,19 +1375,11 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>281</v>
-      </c>
-      <c r="J30" t="n">
-        <v>281</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1624,19 +1408,11 @@
         <v>-10072.79257951001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>281</v>
-      </c>
-      <c r="J31" t="n">
-        <v>281</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1665,19 +1441,11 @@
         <v>7953.810120489994</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>276</v>
-      </c>
-      <c r="J32" t="n">
-        <v>281</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1706,19 +1474,11 @@
         <v>13751.81012048999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>282</v>
-      </c>
-      <c r="J33" t="n">
-        <v>281</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1747,19 +1507,11 @@
         <v>13751.81012048999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>283</v>
-      </c>
-      <c r="J34" t="n">
-        <v>281</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1788,19 +1540,11 @@
         <v>13751.81012048999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>283</v>
-      </c>
-      <c r="J35" t="n">
-        <v>281</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1829,19 +1573,11 @@
         <v>13751.81012048999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>283</v>
-      </c>
-      <c r="J36" t="n">
-        <v>281</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1873,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>281</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1909,19 +1639,11 @@
         <v>13751.81012048999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>283</v>
-      </c>
-      <c r="J38" t="n">
-        <v>281</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1950,19 +1672,11 @@
         <v>13751.81012048999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>283</v>
-      </c>
-      <c r="J39" t="n">
-        <v>281</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1991,19 +1705,11 @@
         <v>13751.81012048999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>283</v>
-      </c>
-      <c r="J40" t="n">
-        <v>281</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2032,19 +1738,11 @@
         <v>13185.62352048999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>283</v>
-      </c>
-      <c r="J41" t="n">
-        <v>281</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2073,19 +1771,11 @@
         <v>13185.62352048999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>281</v>
-      </c>
-      <c r="J42" t="n">
-        <v>281</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2114,19 +1804,11 @@
         <v>13744.62352048999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>281</v>
-      </c>
-      <c r="J43" t="n">
-        <v>281</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2155,19 +1837,11 @@
         <v>13744.62352048999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>282</v>
-      </c>
-      <c r="J44" t="n">
-        <v>281</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2196,19 +1870,11 @@
         <v>11216.87992048999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>282</v>
-      </c>
-      <c r="J45" t="n">
-        <v>281</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2240,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>281</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2276,19 +1936,11 @@
         <v>11216.87992048999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>281</v>
-      </c>
-      <c r="J47" t="n">
-        <v>281</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2317,19 +1969,11 @@
         <v>11243.20182048999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>281</v>
-      </c>
-      <c r="J48" t="n">
-        <v>281</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2358,19 +2002,11 @@
         <v>11243.20182048999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>282</v>
-      </c>
-      <c r="J49" t="n">
-        <v>281</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2399,19 +2035,11 @@
         <v>11262.97052048999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>282</v>
-      </c>
-      <c r="J50" t="n">
-        <v>281</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2440,19 +2068,11 @@
         <v>11253.14162048999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>283</v>
-      </c>
-      <c r="J51" t="n">
-        <v>281</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2481,19 +2101,11 @@
         <v>11253.14162048999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>282</v>
-      </c>
-      <c r="J52" t="n">
-        <v>281</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2522,19 +2134,11 @@
         <v>11253.14162048999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>282</v>
-      </c>
-      <c r="J53" t="n">
-        <v>281</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2563,19 +2167,11 @@
         <v>11253.14162048999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>282</v>
-      </c>
-      <c r="J54" t="n">
-        <v>281</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2604,19 +2200,11 @@
         <v>12082.37292048999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>282</v>
-      </c>
-      <c r="J55" t="n">
-        <v>281</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2645,19 +2233,11 @@
         <v>55595.53152049</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>283</v>
-      </c>
-      <c r="J56" t="n">
-        <v>281</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2689,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>281</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2728,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>281</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2767,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>281</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2806,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>281</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2845,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>281</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2884,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>281</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2923,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>281</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2962,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>281</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -3001,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>281</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3040,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>281</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3079,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>281</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3115,17 +2629,11 @@
         <v>191729.92172049</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>281</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3154,17 +2662,11 @@
         <v>191729.92172049</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>281</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3196,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>281</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3232,17 +2728,11 @@
         <v>156379.81442049</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>281</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3274,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>281</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3313,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>281</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3352,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>281</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3391,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>281</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3430,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>281</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3469,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>281</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3508,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>281</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3547,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>281</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3586,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>281</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3625,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>281</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3664,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>281</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3703,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>281</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3742,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>281</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3778,23 +3190,15 @@
         <v>107018.18466806</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>281</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>1.083967971530249</v>
-      </c>
-      <c r="M85" t="n">
-        <v>1.021739130434783</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3819,7 +3223,7 @@
         <v>85428.74636806003</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3852,7 +3256,7 @@
         <v>85428.74636806003</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3885,7 +3289,7 @@
         <v>102642.23186806</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3918,7 +3322,7 @@
         <v>98947.37926806003</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -4314,7 +3718,7 @@
         <v>73509.10606806002</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4347,7 +3751,7 @@
         <v>71812.19086806002</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4380,7 +3784,7 @@
         <v>71812.19086806002</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4413,7 +3817,7 @@
         <v>73496.19086806002</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4446,7 +3850,7 @@
         <v>73349.19086806002</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4479,7 +3883,7 @@
         <v>73600.19086806002</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4512,7 +3916,7 @@
         <v>73601.19086806002</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4545,7 +3949,7 @@
         <v>65596.12776806002</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4578,7 +3982,7 @@
         <v>65598.58746806002</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4611,7 +4015,7 @@
         <v>61080.82416806003</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4644,7 +4048,7 @@
         <v>56983.35266806003</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4677,7 +4081,7 @@
         <v>58684.14976806003</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4710,7 +4114,7 @@
         <v>57814.75306806003</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4842,7 +4246,7 @@
         <v>44459.09021600003</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -11178,7 +10582,7 @@
         <v>-61075.31506252997</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12498,11 +11902,17 @@
         <v>-70472.70592485997</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>286</v>
+      </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12531,11 +11941,17 @@
         <v>-68662.70592485997</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>286</v>
+      </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12564,11 +11980,17 @@
         <v>-68837.98502485997</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>287</v>
+      </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12597,17 +12019,23 @@
         <v>-68837.98502485997</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>283</v>
+      </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
       <c r="M352" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-29 BackTest PIVX.xlsx
@@ -880,10 +880,14 @@
         <v>-19503.89467951001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>276</v>
+      </c>
+      <c r="J15" t="n">
+        <v>276</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -913,11 +917,19 @@
         <v>-18282.22117951</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>276</v>
+      </c>
+      <c r="J16" t="n">
+        <v>276</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +958,19 @@
         <v>-18282.22117951</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>277</v>
+      </c>
+      <c r="J17" t="n">
+        <v>276</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,10 +999,14 @@
         <v>-18282.22117951</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>277</v>
+      </c>
+      <c r="J18" t="n">
+        <v>277</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1012,11 +1036,19 @@
         <v>-4985.113979510004</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>277</v>
+      </c>
+      <c r="J19" t="n">
+        <v>277</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1077,19 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>280</v>
+      </c>
+      <c r="J20" t="n">
+        <v>277</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1118,19 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>282</v>
+      </c>
+      <c r="J21" t="n">
+        <v>277</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1159,19 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>282</v>
+      </c>
+      <c r="J22" t="n">
+        <v>277</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1200,19 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>282</v>
+      </c>
+      <c r="J23" t="n">
+        <v>277</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1241,19 @@
         <v>-2570.113979510004</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>282</v>
+      </c>
+      <c r="J24" t="n">
+        <v>277</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1282,19 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>282</v>
+      </c>
+      <c r="J25" t="n">
+        <v>277</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1323,19 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>281</v>
+      </c>
+      <c r="J26" t="n">
+        <v>277</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1364,19 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>281</v>
+      </c>
+      <c r="J27" t="n">
+        <v>277</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1405,19 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>281</v>
+      </c>
+      <c r="J28" t="n">
+        <v>277</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1446,19 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>281</v>
+      </c>
+      <c r="J29" t="n">
+        <v>277</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1487,19 @@
         <v>-5725.113979510004</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>281</v>
+      </c>
+      <c r="J30" t="n">
+        <v>277</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1528,19 @@
         <v>-10072.79257951001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>281</v>
+      </c>
+      <c r="J31" t="n">
+        <v>277</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1569,19 @@
         <v>7953.810120489994</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>276</v>
+      </c>
+      <c r="J32" t="n">
+        <v>277</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1610,19 @@
         <v>13751.81012048999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>282</v>
+      </c>
+      <c r="J33" t="n">
+        <v>277</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1654,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>277</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1693,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>277</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1732,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>277</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1771,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>277</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1810,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>277</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1849,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>277</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1888,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>277</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1927,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>277</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +1966,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>277</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2002,19 @@
         <v>13744.62352048999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>281</v>
+      </c>
+      <c r="J43" t="n">
+        <v>277</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2046,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>277</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2085,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>277</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2124,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>277</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2160,19 @@
         <v>11216.87992048999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>281</v>
+      </c>
+      <c r="J47" t="n">
+        <v>277</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2204,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>277</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2243,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>277</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2279,19 @@
         <v>11262.97052048999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>282</v>
+      </c>
+      <c r="J50" t="n">
+        <v>277</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2320,19 @@
         <v>11253.14162048999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>283</v>
+      </c>
+      <c r="J51" t="n">
+        <v>277</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2361,19 @@
         <v>11253.14162048999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>282</v>
+      </c>
+      <c r="J52" t="n">
+        <v>277</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2402,19 @@
         <v>11253.14162048999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>282</v>
+      </c>
+      <c r="J53" t="n">
+        <v>277</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2443,19 @@
         <v>11253.14162048999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>282</v>
+      </c>
+      <c r="J54" t="n">
+        <v>277</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2487,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>277</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2526,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>277</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2565,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>277</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2604,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>277</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2643,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>277</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2682,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>277</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2721,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>277</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2760,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>277</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2799,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>277</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2838,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>277</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2877,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>277</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2916,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>277</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2955,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>277</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2991,17 @@
         <v>191729.92172049</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>277</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +3030,17 @@
         <v>191729.92172049</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>277</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3072,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>277</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +3108,17 @@
         <v>156379.81442049</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>277</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3150,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>277</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3189,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>277</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3228,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>277</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3267,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>277</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3306,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>277</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3345,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>277</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3384,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>277</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,15 +3420,23 @@
         <v>155753.67692049</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>277</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>1.106913357400722</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1.025454545454545</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3025,7 +3461,7 @@
         <v>118803.00052049</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3494,7 @@
         <v>183452.37252049</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3527,7 @@
         <v>186412.62252049</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3560,7 @@
         <v>142580.76771742</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3593,7 @@
         <v>107018.18466806</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3626,7 @@
         <v>107018.18466806</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3659,7 @@
         <v>85428.74636806003</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3692,7 @@
         <v>85428.74636806003</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3322,7 +3758,7 @@
         <v>98947.37926806003</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3791,7 @@
         <v>98947.37926806003</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3824,7 @@
         <v>98997.37926806003</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3857,7 @@
         <v>98997.37926806003</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3890,7 @@
         <v>98997.37926806003</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3923,7 @@
         <v>98997.37926806003</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3956,7 @@
         <v>98997.37926806003</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3989,7 @@
         <v>98997.37926806003</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3619,7 +4055,7 @@
         <v>72061.65296806002</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +4088,7 @@
         <v>72061.65296806002</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +4121,7 @@
         <v>78542.70276806001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -10582,7 +11018,7 @@
         <v>-61075.31506252997</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11902,17 +12338,11 @@
         <v>-70472.70592485997</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11941,17 +12371,11 @@
         <v>-68662.70592485997</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11980,17 +12404,11 @@
         <v>-68837.98502485997</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12019,17 +12437,11 @@
         <v>-68837.98502485997</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-29 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-29 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M352"/>
+  <dimension ref="A1:L352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>50.6702</v>
       </c>
       <c r="G2" t="n">
-        <v>-10018.69017951001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>6026.1703</v>
       </c>
       <c r="G3" t="n">
-        <v>-16044.86047951001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>644.5111000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>-16044.86047951001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>154.6282</v>
       </c>
       <c r="G5" t="n">
-        <v>-16044.86047951001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>116</v>
       </c>
       <c r="G6" t="n">
-        <v>-16160.86047951001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>9.5092</v>
       </c>
       <c r="G7" t="n">
-        <v>-16151.35127951001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1867.2259</v>
       </c>
       <c r="G8" t="n">
-        <v>-14284.12537951001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>3926.0212</v>
       </c>
       <c r="G9" t="n">
-        <v>-14284.12537951001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2537.4525</v>
       </c>
       <c r="G10" t="n">
-        <v>-14284.12537951001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1035</v>
       </c>
       <c r="G11" t="n">
-        <v>-15319.12537951001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>2534</v>
       </c>
       <c r="G12" t="n">
-        <v>-17853.12537951001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>175.8694</v>
       </c>
       <c r="G13" t="n">
-        <v>-18028.99477951001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1474.8999</v>
       </c>
       <c r="G14" t="n">
-        <v>-19503.89467951001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,22 +833,15 @@
         <v>1806.0413</v>
       </c>
       <c r="G15" t="n">
-        <v>-19503.89467951001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>276</v>
-      </c>
-      <c r="J15" t="n">
-        <v>276</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -914,104 +863,87 @@
         <v>1221.6735</v>
       </c>
       <c r="G16" t="n">
-        <v>-18282.22117951</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>276</v>
-      </c>
-      <c r="J16" t="n">
-        <v>276</v>
-      </c>
-      <c r="K16" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>277</v>
+      </c>
+      <c r="C17" t="n">
+        <v>277</v>
+      </c>
+      <c r="D17" t="n">
+        <v>277</v>
+      </c>
+      <c r="E17" t="n">
+        <v>277</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1015</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>277</v>
+      </c>
+      <c r="I17" t="n">
+        <v>277</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>277</v>
+      </c>
+      <c r="C18" t="n">
+        <v>277</v>
+      </c>
+      <c r="D18" t="n">
+        <v>277</v>
+      </c>
+      <c r="E18" t="n">
+        <v>277</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3118.9999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>277</v>
+      </c>
+      <c r="I18" t="n">
+        <v>277</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>277</v>
-      </c>
-      <c r="C17" t="n">
-        <v>277</v>
-      </c>
-      <c r="D17" t="n">
-        <v>277</v>
-      </c>
-      <c r="E17" t="n">
-        <v>277</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1015</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-18282.22117951</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>277</v>
-      </c>
-      <c r="J17" t="n">
-        <v>276</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>277</v>
-      </c>
-      <c r="C18" t="n">
-        <v>277</v>
-      </c>
-      <c r="D18" t="n">
-        <v>277</v>
-      </c>
-      <c r="E18" t="n">
-        <v>277</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3118.9999</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-18282.22117951</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>277</v>
-      </c>
-      <c r="J18" t="n">
-        <v>277</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1033,26 +965,23 @@
         <v>13297.1072</v>
       </c>
       <c r="G19" t="n">
-        <v>-4985.113979510004</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>277</v>
       </c>
       <c r="I19" t="n">
         <v>277</v>
       </c>
-      <c r="J19" t="n">
-        <v>277</v>
-      </c>
-      <c r="K19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1074,26 +1003,21 @@
         <v>2415</v>
       </c>
       <c r="G20" t="n">
-        <v>-2570.113979510004</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>280</v>
-      </c>
-      <c r="J20" t="n">
         <v>277</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1115,26 +1039,21 @@
         <v>244.4929</v>
       </c>
       <c r="G21" t="n">
-        <v>-2570.113979510004</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>282</v>
-      </c>
-      <c r="J21" t="n">
         <v>277</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1156,26 +1075,21 @@
         <v>163.6312</v>
       </c>
       <c r="G22" t="n">
-        <v>-2570.113979510004</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>282</v>
-      </c>
-      <c r="J22" t="n">
         <v>277</v>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,26 +1111,23 @@
         <v>1462.1072</v>
       </c>
       <c r="G23" t="n">
-        <v>-2570.113979510004</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>282</v>
       </c>
       <c r="I23" t="n">
-        <v>282</v>
-      </c>
-      <c r="J23" t="n">
         <v>277</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1238,26 +1149,23 @@
         <v>100</v>
       </c>
       <c r="G24" t="n">
-        <v>-2570.113979510004</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>282</v>
       </c>
       <c r="I24" t="n">
-        <v>282</v>
-      </c>
-      <c r="J24" t="n">
         <v>277</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1279,26 +1187,23 @@
         <v>3155</v>
       </c>
       <c r="G25" t="n">
-        <v>-5725.113979510004</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>282</v>
       </c>
       <c r="I25" t="n">
-        <v>282</v>
-      </c>
-      <c r="J25" t="n">
         <v>277</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,26 +1225,21 @@
         <v>42</v>
       </c>
       <c r="G26" t="n">
-        <v>-5725.113979510004</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>281</v>
-      </c>
-      <c r="J26" t="n">
         <v>277</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1361,26 +1261,21 @@
         <v>483</v>
       </c>
       <c r="G27" t="n">
-        <v>-5725.113979510004</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>281</v>
-      </c>
-      <c r="J27" t="n">
         <v>277</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1402,26 +1297,21 @@
         <v>1468</v>
       </c>
       <c r="G28" t="n">
-        <v>-5725.113979510004</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>281</v>
-      </c>
-      <c r="J28" t="n">
         <v>277</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1443,26 +1333,21 @@
         <v>4800</v>
       </c>
       <c r="G29" t="n">
-        <v>-5725.113979510004</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>281</v>
-      </c>
-      <c r="J29" t="n">
         <v>277</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1484,26 +1369,21 @@
         <v>2400</v>
       </c>
       <c r="G30" t="n">
-        <v>-5725.113979510004</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>281</v>
-      </c>
-      <c r="J30" t="n">
         <v>277</v>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1525,26 +1405,21 @@
         <v>4347.6786</v>
       </c>
       <c r="G31" t="n">
-        <v>-10072.79257951001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>281</v>
-      </c>
-      <c r="J31" t="n">
         <v>277</v>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1566,26 +1441,21 @@
         <v>18026.6027</v>
       </c>
       <c r="G32" t="n">
-        <v>7953.810120489994</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>276</v>
-      </c>
-      <c r="J32" t="n">
         <v>277</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1607,26 +1477,21 @@
         <v>5798</v>
       </c>
       <c r="G33" t="n">
-        <v>13751.81012048999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>282</v>
-      </c>
-      <c r="J33" t="n">
         <v>277</v>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1648,24 +1513,21 @@
         <v>194</v>
       </c>
       <c r="G34" t="n">
-        <v>13751.81012048999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
         <v>277</v>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1687,24 +1549,21 @@
         <v>157</v>
       </c>
       <c r="G35" t="n">
-        <v>13751.81012048999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
         <v>277</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1726,24 +1585,21 @@
         <v>798.9999</v>
       </c>
       <c r="G36" t="n">
-        <v>13751.81012048999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
         <v>277</v>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1765,24 +1621,21 @@
         <v>5179.3086</v>
       </c>
       <c r="G37" t="n">
-        <v>13751.81012048999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
         <v>277</v>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1804,24 +1657,21 @@
         <v>1612</v>
       </c>
       <c r="G38" t="n">
-        <v>13751.81012048999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
         <v>277</v>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1843,24 +1693,21 @@
         <v>4000.5351</v>
       </c>
       <c r="G39" t="n">
-        <v>13751.81012048999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
         <v>277</v>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1882,24 +1729,21 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>13751.81012048999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
         <v>277</v>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1921,24 +1765,21 @@
         <v>566.1866</v>
       </c>
       <c r="G41" t="n">
-        <v>13185.62352048999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
         <v>277</v>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1960,24 +1801,21 @@
         <v>295.8776</v>
       </c>
       <c r="G42" t="n">
-        <v>13185.62352048999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
         <v>277</v>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1999,26 +1837,21 @@
         <v>559</v>
       </c>
       <c r="G43" t="n">
-        <v>13744.62352048999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>281</v>
-      </c>
-      <c r="J43" t="n">
         <v>277</v>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2040,24 +1873,21 @@
         <v>309</v>
       </c>
       <c r="G44" t="n">
-        <v>13744.62352048999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
         <v>277</v>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2079,24 +1909,21 @@
         <v>2527.7436</v>
       </c>
       <c r="G45" t="n">
-        <v>11216.87992048999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
         <v>277</v>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2118,24 +1945,21 @@
         <v>100</v>
       </c>
       <c r="G46" t="n">
-        <v>11216.87992048999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
         <v>277</v>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2157,26 +1981,21 @@
         <v>6646.8108</v>
       </c>
       <c r="G47" t="n">
-        <v>11216.87992048999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>281</v>
-      </c>
-      <c r="J47" t="n">
         <v>277</v>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2198,24 +2017,21 @@
         <v>26.3219</v>
       </c>
       <c r="G48" t="n">
-        <v>11243.20182048999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
         <v>277</v>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2237,24 +2053,21 @@
         <v>131.487</v>
       </c>
       <c r="G49" t="n">
-        <v>11243.20182048999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
         <v>277</v>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2276,26 +2089,21 @@
         <v>19.7687</v>
       </c>
       <c r="G50" t="n">
-        <v>11262.97052048999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>282</v>
-      </c>
-      <c r="J50" t="n">
         <v>277</v>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2317,26 +2125,21 @@
         <v>9.828900000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>11253.14162048999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>283</v>
-      </c>
-      <c r="J51" t="n">
         <v>277</v>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2358,26 +2161,21 @@
         <v>226.9452</v>
       </c>
       <c r="G52" t="n">
-        <v>11253.14162048999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>282</v>
-      </c>
-      <c r="J52" t="n">
         <v>277</v>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2399,26 +2197,21 @@
         <v>782.7746</v>
       </c>
       <c r="G53" t="n">
-        <v>11253.14162048999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>282</v>
-      </c>
-      <c r="J53" t="n">
         <v>277</v>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2440,26 +2233,21 @@
         <v>371.6964</v>
       </c>
       <c r="G54" t="n">
-        <v>11253.14162048999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>282</v>
-      </c>
-      <c r="J54" t="n">
         <v>277</v>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2481,24 +2269,21 @@
         <v>829.2313</v>
       </c>
       <c r="G55" t="n">
-        <v>12082.37292048999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
         <v>277</v>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2520,24 +2305,21 @@
         <v>43513.1586</v>
       </c>
       <c r="G56" t="n">
-        <v>55595.53152049</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
         <v>277</v>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2559,24 +2341,21 @@
         <v>16605.8611</v>
       </c>
       <c r="G57" t="n">
-        <v>55595.53152049</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
         <v>277</v>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2598,24 +2377,21 @@
         <v>900</v>
       </c>
       <c r="G58" t="n">
-        <v>55595.53152049</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
         <v>277</v>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2637,24 +2413,21 @@
         <v>514.4212</v>
       </c>
       <c r="G59" t="n">
-        <v>55595.53152049</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
         <v>277</v>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2676,24 +2449,21 @@
         <v>19996.5703</v>
       </c>
       <c r="G60" t="n">
-        <v>75592.10182049</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
         <v>277</v>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2715,24 +2485,21 @@
         <v>5701.6109</v>
       </c>
       <c r="G61" t="n">
-        <v>75592.10182049</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
         <v>277</v>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2754,24 +2521,21 @@
         <v>38.4051</v>
       </c>
       <c r="G62" t="n">
-        <v>75553.69672049</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
         <v>277</v>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2793,24 +2557,21 @@
         <v>4475.2798</v>
       </c>
       <c r="G63" t="n">
-        <v>80028.97652049</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
         <v>277</v>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2832,24 +2593,21 @@
         <v>36655.8593</v>
       </c>
       <c r="G64" t="n">
-        <v>116684.83582049</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
         <v>277</v>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2871,24 +2629,21 @@
         <v>48859.8899</v>
       </c>
       <c r="G65" t="n">
-        <v>165544.72572049</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
         <v>277</v>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2910,24 +2665,21 @@
         <v>2459.8233</v>
       </c>
       <c r="G66" t="n">
-        <v>168004.54902049</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
         <v>277</v>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2949,24 +2701,21 @@
         <v>23725.3727</v>
       </c>
       <c r="G67" t="n">
-        <v>191729.92172049</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
         <v>277</v>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2988,24 +2737,21 @@
         <v>18210.1843</v>
       </c>
       <c r="G68" t="n">
-        <v>191729.92172049</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
         <v>277</v>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3027,24 +2773,21 @@
         <v>10484.3808</v>
       </c>
       <c r="G69" t="n">
-        <v>191729.92172049</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
         <v>277</v>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3066,24 +2809,21 @@
         <v>6186.1128</v>
       </c>
       <c r="G70" t="n">
-        <v>197916.03452049</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
         <v>277</v>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3105,24 +2845,21 @@
         <v>41536.2201</v>
       </c>
       <c r="G71" t="n">
-        <v>156379.81442049</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
         <v>277</v>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3144,24 +2881,21 @@
         <v>41</v>
       </c>
       <c r="G72" t="n">
-        <v>156379.81442049</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
         <v>277</v>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3183,24 +2917,21 @@
         <v>4.67</v>
       </c>
       <c r="G73" t="n">
-        <v>156375.14442049</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
         <v>277</v>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3222,24 +2953,21 @@
         <v>11511.0108</v>
       </c>
       <c r="G74" t="n">
-        <v>156375.14442049</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
         <v>277</v>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3261,24 +2989,21 @@
         <v>9052.901900000001</v>
       </c>
       <c r="G75" t="n">
-        <v>147322.24252049</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
         <v>277</v>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3300,24 +3025,21 @@
         <v>5881.2403</v>
       </c>
       <c r="G76" t="n">
-        <v>153203.48282049</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
         <v>277</v>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3339,24 +3061,23 @@
         <v>1.667</v>
       </c>
       <c r="G77" t="n">
-        <v>153201.81582049</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
         <v>277</v>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
+      <c r="K77" t="n">
+        <v>1.099693140794224</v>
+      </c>
       <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>1.025454545454545</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3378,24 +3099,15 @@
         <v>2551.8611</v>
       </c>
       <c r="G78" t="n">
-        <v>155753.67692049</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>277</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3417,26 +3129,15 @@
         <v>14208.4511</v>
       </c>
       <c r="G79" t="n">
-        <v>155753.67692049</v>
-      </c>
-      <c r="H79" t="n">
         <v>2</v>
       </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>277</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1.106913357400722</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1.025454545454545</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3458,18 +3159,15 @@
         <v>36950.6764</v>
       </c>
       <c r="G80" t="n">
-        <v>118803.00052049</v>
-      </c>
-      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3491,18 +3189,15 @@
         <v>64649.372</v>
       </c>
       <c r="G81" t="n">
-        <v>183452.37252049</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3524,18 +3219,15 @@
         <v>2960.25</v>
       </c>
       <c r="G82" t="n">
-        <v>186412.62252049</v>
-      </c>
-      <c r="H82" t="n">
         <v>2</v>
       </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3557,18 +3249,15 @@
         <v>43831.85480307</v>
       </c>
       <c r="G83" t="n">
-        <v>142580.76771742</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3590,18 +3279,15 @@
         <v>35562.58304936</v>
       </c>
       <c r="G84" t="n">
-        <v>107018.18466806</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3623,18 +3309,15 @@
         <v>9855.2572</v>
       </c>
       <c r="G85" t="n">
-        <v>107018.18466806</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3656,18 +3339,15 @@
         <v>21589.4383</v>
       </c>
       <c r="G86" t="n">
-        <v>85428.74636806003</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3689,18 +3369,15 @@
         <v>7726.0079</v>
       </c>
       <c r="G87" t="n">
-        <v>85428.74636806003</v>
-      </c>
-      <c r="H87" t="n">
         <v>2</v>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3722,18 +3399,15 @@
         <v>17213.4855</v>
       </c>
       <c r="G88" t="n">
-        <v>102642.23186806</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3755,18 +3429,15 @@
         <v>3694.8526</v>
       </c>
       <c r="G89" t="n">
-        <v>98947.37926806003</v>
-      </c>
-      <c r="H89" t="n">
         <v>2</v>
       </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3788,18 +3459,15 @@
         <v>1639.8899</v>
       </c>
       <c r="G90" t="n">
-        <v>98947.37926806003</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3821,18 +3489,15 @@
         <v>50</v>
       </c>
       <c r="G91" t="n">
-        <v>98997.37926806003</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3854,18 +3519,15 @@
         <v>246</v>
       </c>
       <c r="G92" t="n">
-        <v>98997.37926806003</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3887,18 +3549,15 @@
         <v>58</v>
       </c>
       <c r="G93" t="n">
-        <v>98997.37926806003</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3920,18 +3579,15 @@
         <v>4</v>
       </c>
       <c r="G94" t="n">
-        <v>98997.37926806003</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3953,18 +3609,15 @@
         <v>4</v>
       </c>
       <c r="G95" t="n">
-        <v>98997.37926806003</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3986,18 +3639,15 @@
         <v>2</v>
       </c>
       <c r="G96" t="n">
-        <v>98997.37926806003</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4019,18 +3669,15 @@
         <v>22674.005</v>
       </c>
       <c r="G97" t="n">
-        <v>76323.37426806003</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4052,18 +3699,15 @@
         <v>4261.7213</v>
       </c>
       <c r="G98" t="n">
-        <v>72061.65296806002</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4085,18 +3729,15 @@
         <v>3160.9374</v>
       </c>
       <c r="G99" t="n">
-        <v>72061.65296806002</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4118,18 +3759,15 @@
         <v>6481.0498</v>
       </c>
       <c r="G100" t="n">
-        <v>78542.70276806001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4151,18 +3789,15 @@
         <v>5033.5967</v>
       </c>
       <c r="G101" t="n">
-        <v>73509.10606806002</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4184,18 +3819,15 @@
         <v>1696.9152</v>
       </c>
       <c r="G102" t="n">
-        <v>71812.19086806002</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4217,18 +3849,15 @@
         <v>4</v>
       </c>
       <c r="G103" t="n">
-        <v>71812.19086806002</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4250,18 +3879,15 @@
         <v>1684</v>
       </c>
       <c r="G104" t="n">
-        <v>73496.19086806002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4283,18 +3909,15 @@
         <v>147</v>
       </c>
       <c r="G105" t="n">
-        <v>73349.19086806002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4316,18 +3939,15 @@
         <v>251</v>
       </c>
       <c r="G106" t="n">
-        <v>73600.19086806002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4349,18 +3969,15 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>73601.19086806002</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4382,18 +3999,15 @@
         <v>8005.0631</v>
       </c>
       <c r="G108" t="n">
-        <v>65596.12776806002</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4415,18 +4029,15 @@
         <v>2.4597</v>
       </c>
       <c r="G109" t="n">
-        <v>65598.58746806002</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4448,18 +4059,15 @@
         <v>4517.7633</v>
       </c>
       <c r="G110" t="n">
-        <v>61080.82416806003</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4481,18 +4089,15 @@
         <v>4097.4715</v>
       </c>
       <c r="G111" t="n">
-        <v>56983.35266806003</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4514,18 +4119,15 @@
         <v>1700.7971</v>
       </c>
       <c r="G112" t="n">
-        <v>58684.14976806003</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4547,18 +4149,15 @@
         <v>869.3967</v>
       </c>
       <c r="G113" t="n">
-        <v>57814.75306806003</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4580,18 +4179,15 @@
         <v>10885.2188</v>
       </c>
       <c r="G114" t="n">
-        <v>46929.53426806003</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4613,18 +4209,15 @@
         <v>5596.018</v>
       </c>
       <c r="G115" t="n">
-        <v>52525.55226806003</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4646,18 +4239,15 @@
         <v>19496.631</v>
       </c>
       <c r="G116" t="n">
-        <v>72022.18326806003</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4679,18 +4269,15 @@
         <v>27563.09305206</v>
       </c>
       <c r="G117" t="n">
-        <v>44459.09021600003</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4712,18 +4299,15 @@
         <v>3702.0341</v>
       </c>
       <c r="G118" t="n">
-        <v>48161.12431600003</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4745,18 +4329,15 @@
         <v>32148.104</v>
       </c>
       <c r="G119" t="n">
-        <v>16013.02031600003</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4778,18 +4359,15 @@
         <v>1161.3206</v>
       </c>
       <c r="G120" t="n">
-        <v>17174.34091600003</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4811,18 +4389,15 @@
         <v>4149.4526</v>
       </c>
       <c r="G121" t="n">
-        <v>13024.88831600003</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4844,18 +4419,15 @@
         <v>281.3</v>
       </c>
       <c r="G122" t="n">
-        <v>13306.18831600003</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4877,18 +4449,15 @@
         <v>8458.298000000001</v>
       </c>
       <c r="G123" t="n">
-        <v>21764.48631600003</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4910,18 +4479,15 @@
         <v>3969.8528</v>
       </c>
       <c r="G124" t="n">
-        <v>25734.33911600003</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4943,18 +4509,15 @@
         <v>14207.9531</v>
       </c>
       <c r="G125" t="n">
-        <v>39942.29221600003</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4976,18 +4539,15 @@
         <v>15125.3499</v>
       </c>
       <c r="G126" t="n">
-        <v>39942.29221600003</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5009,18 +4569,15 @@
         <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>39943.29221600003</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5042,18 +4599,15 @@
         <v>10771.3966</v>
       </c>
       <c r="G128" t="n">
-        <v>29171.89561600003</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5075,18 +4629,15 @@
         <v>44.7973</v>
       </c>
       <c r="G129" t="n">
-        <v>29216.69291600003</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5108,18 +4659,15 @@
         <v>372.0813</v>
       </c>
       <c r="G130" t="n">
-        <v>28844.61161600003</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5141,18 +4689,15 @@
         <v>2904.653</v>
       </c>
       <c r="G131" t="n">
-        <v>25939.95861600003</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5174,18 +4719,15 @@
         <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>25940.95861600003</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5207,18 +4749,15 @@
         <v>7186.3094</v>
       </c>
       <c r="G133" t="n">
-        <v>25940.95861600003</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5240,18 +4779,15 @@
         <v>19084.99523974</v>
       </c>
       <c r="G134" t="n">
-        <v>45025.95385574003</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5273,18 +4809,15 @@
         <v>2174.217</v>
       </c>
       <c r="G135" t="n">
-        <v>42851.73685574003</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5306,18 +4839,15 @@
         <v>103</v>
       </c>
       <c r="G136" t="n">
-        <v>42954.73685574003</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5339,18 +4869,15 @@
         <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>42953.73685574003</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5372,18 +4899,15 @@
         <v>1000</v>
       </c>
       <c r="G138" t="n">
-        <v>41953.73685574003</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5405,18 +4929,15 @@
         <v>100</v>
       </c>
       <c r="G139" t="n">
-        <v>42053.73685574003</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5438,18 +4959,15 @@
         <v>2157.3653</v>
       </c>
       <c r="G140" t="n">
-        <v>44211.10215574003</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5471,18 +4989,15 @@
         <v>6427.3559</v>
       </c>
       <c r="G141" t="n">
-        <v>44211.10215574003</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5504,18 +5019,15 @@
         <v>226</v>
       </c>
       <c r="G142" t="n">
-        <v>44437.10215574003</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5537,18 +5049,15 @@
         <v>6211.5435</v>
       </c>
       <c r="G143" t="n">
-        <v>38225.55865574003</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,18 +5079,15 @@
         <v>100</v>
       </c>
       <c r="G144" t="n">
-        <v>38325.55865574003</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5603,18 +5109,15 @@
         <v>17387.0085</v>
       </c>
       <c r="G145" t="n">
-        <v>55712.56715574003</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5636,18 +5139,15 @@
         <v>23972.1591</v>
       </c>
       <c r="G146" t="n">
-        <v>79684.72625574004</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5669,18 +5169,15 @@
         <v>100</v>
       </c>
       <c r="G147" t="n">
-        <v>79584.72625574004</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5702,18 +5199,15 @@
         <v>100</v>
       </c>
       <c r="G148" t="n">
-        <v>79684.72625574004</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5735,18 +5229,15 @@
         <v>7286.4709</v>
       </c>
       <c r="G149" t="n">
-        <v>72398.25535574004</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5768,18 +5259,15 @@
         <v>78.20050000000001</v>
       </c>
       <c r="G150" t="n">
-        <v>72476.45585574005</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5801,18 +5289,15 @@
         <v>544.9347</v>
       </c>
       <c r="G151" t="n">
-        <v>71931.52115574005</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5834,18 +5319,15 @@
         <v>1063.0535</v>
       </c>
       <c r="G152" t="n">
-        <v>72994.57465574004</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5867,18 +5349,15 @@
         <v>939.22</v>
       </c>
       <c r="G153" t="n">
-        <v>72055.35465574004</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5900,18 +5379,15 @@
         <v>29.7889</v>
       </c>
       <c r="G154" t="n">
-        <v>72055.35465574004</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5933,18 +5409,15 @@
         <v>96.92659999999999</v>
       </c>
       <c r="G155" t="n">
-        <v>72152.28125574005</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5966,18 +5439,15 @@
         <v>710.8904</v>
       </c>
       <c r="G156" t="n">
-        <v>71441.39085574004</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5999,18 +5469,15 @@
         <v>20826.09878173</v>
       </c>
       <c r="G157" t="n">
-        <v>92267.48963747005</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6032,18 +5499,15 @@
         <v>878.1</v>
       </c>
       <c r="G158" t="n">
-        <v>91389.38963747004</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6065,18 +5529,15 @@
         <v>428</v>
       </c>
       <c r="G159" t="n">
-        <v>90961.38963747004</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6098,18 +5559,15 @@
         <v>769.5172</v>
       </c>
       <c r="G160" t="n">
-        <v>90961.38963747004</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6131,18 +5589,15 @@
         <v>1543.5</v>
       </c>
       <c r="G161" t="n">
-        <v>92504.88963747004</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6164,18 +5619,15 @@
         <v>4367.7253</v>
       </c>
       <c r="G162" t="n">
-        <v>88137.16433747004</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6197,18 +5649,15 @@
         <v>1874.799</v>
       </c>
       <c r="G163" t="n">
-        <v>90011.96333747004</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6230,18 +5679,15 @@
         <v>2385.0163</v>
       </c>
       <c r="G164" t="n">
-        <v>92396.97963747004</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6263,18 +5709,15 @@
         <v>47084.1657</v>
       </c>
       <c r="G165" t="n">
-        <v>45312.81393747004</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6296,18 +5739,15 @@
         <v>40.5585</v>
       </c>
       <c r="G166" t="n">
-        <v>45272.25543747004</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6329,18 +5769,15 @@
         <v>7510.1647</v>
       </c>
       <c r="G167" t="n">
-        <v>45272.25543747004</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6362,18 +5799,15 @@
         <v>7965</v>
       </c>
       <c r="G168" t="n">
-        <v>45272.25543747004</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6395,18 +5829,15 @@
         <v>934.7227</v>
       </c>
       <c r="G169" t="n">
-        <v>44337.53273747004</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6428,18 +5859,15 @@
         <v>37</v>
       </c>
       <c r="G170" t="n">
-        <v>44374.53273747004</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6461,18 +5889,15 @@
         <v>2759.0519</v>
       </c>
       <c r="G171" t="n">
-        <v>41615.48083747004</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6494,18 +5919,15 @@
         <v>1529.3712</v>
       </c>
       <c r="G172" t="n">
-        <v>40086.10963747004</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6527,18 +5949,15 @@
         <v>242.0999</v>
       </c>
       <c r="G173" t="n">
-        <v>40328.20953747004</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6560,18 +5979,15 @@
         <v>22</v>
       </c>
       <c r="G174" t="n">
-        <v>40306.20953747004</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6593,18 +6009,15 @@
         <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>40307.20953747004</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6626,18 +6039,15 @@
         <v>24068.0135</v>
       </c>
       <c r="G176" t="n">
-        <v>16239.19603747004</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6659,18 +6069,15 @@
         <v>53.9527</v>
       </c>
       <c r="G177" t="n">
-        <v>16239.19603747004</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6692,18 +6099,15 @@
         <v>293</v>
       </c>
       <c r="G178" t="n">
-        <v>16239.19603747004</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6725,18 +6129,15 @@
         <v>21650.9413</v>
       </c>
       <c r="G179" t="n">
-        <v>-5411.745262529956</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6758,18 +6159,15 @@
         <v>34.995</v>
       </c>
       <c r="G180" t="n">
-        <v>-5411.745262529956</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6791,18 +6189,15 @@
         <v>212.3167</v>
       </c>
       <c r="G181" t="n">
-        <v>-5199.428562529955</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6824,18 +6219,15 @@
         <v>7971.7773</v>
       </c>
       <c r="G182" t="n">
-        <v>-13171.20586252995</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6857,18 +6249,15 @@
         <v>274</v>
       </c>
       <c r="G183" t="n">
-        <v>-13171.20586252995</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6890,18 +6279,15 @@
         <v>1220</v>
       </c>
       <c r="G184" t="n">
-        <v>-14391.20586252995</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6923,18 +6309,15 @@
         <v>614.1399</v>
       </c>
       <c r="G185" t="n">
-        <v>-14391.20586252995</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6956,18 +6339,15 @@
         <v>643.2212</v>
       </c>
       <c r="G186" t="n">
-        <v>-15034.42706252995</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6989,18 +6369,15 @@
         <v>1778.2583</v>
       </c>
       <c r="G187" t="n">
-        <v>-16812.68536252996</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7022,18 +6399,15 @@
         <v>2598.3413</v>
       </c>
       <c r="G188" t="n">
-        <v>-16812.68536252996</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7055,18 +6429,15 @@
         <v>317.8693</v>
       </c>
       <c r="G189" t="n">
-        <v>-16494.81606252996</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7088,18 +6459,15 @@
         <v>695</v>
       </c>
       <c r="G190" t="n">
-        <v>-17189.81606252996</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7121,18 +6489,15 @@
         <v>149.6512</v>
       </c>
       <c r="G191" t="n">
-        <v>-17040.16486252996</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7154,18 +6519,15 @@
         <v>1804.9458</v>
       </c>
       <c r="G192" t="n">
-        <v>-17040.16486252996</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7187,18 +6549,15 @@
         <v>3395.9965</v>
       </c>
       <c r="G193" t="n">
-        <v>-17040.16486252996</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7220,18 +6579,15 @@
         <v>1446.7027</v>
       </c>
       <c r="G194" t="n">
-        <v>-17040.16486252996</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7253,18 +6609,15 @@
         <v>6302.8831</v>
       </c>
       <c r="G195" t="n">
-        <v>-17040.16486252996</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7286,18 +6639,15 @@
         <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>-17039.16486252996</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7319,18 +6669,15 @@
         <v>100</v>
       </c>
       <c r="G197" t="n">
-        <v>-17139.16486252996</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7352,18 +6699,15 @@
         <v>8320.611800000001</v>
       </c>
       <c r="G198" t="n">
-        <v>-25459.77666252996</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7385,18 +6729,15 @@
         <v>10039.3501</v>
       </c>
       <c r="G199" t="n">
-        <v>-15420.42656252996</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7418,18 +6759,15 @@
         <v>101</v>
       </c>
       <c r="G200" t="n">
-        <v>-15319.42656252996</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7451,18 +6789,15 @@
         <v>12809.9116</v>
       </c>
       <c r="G201" t="n">
-        <v>-28129.33816252996</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7484,18 +6819,15 @@
         <v>1</v>
       </c>
       <c r="G202" t="n">
-        <v>-28128.33816252996</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7517,18 +6849,15 @@
         <v>12188.7094</v>
       </c>
       <c r="G203" t="n">
-        <v>-40317.04756252996</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7550,18 +6879,15 @@
         <v>1</v>
       </c>
       <c r="G204" t="n">
-        <v>-40316.04756252996</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7583,18 +6909,15 @@
         <v>126.6287</v>
       </c>
       <c r="G205" t="n">
-        <v>-40442.67626252996</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7616,18 +6939,15 @@
         <v>48.1904</v>
       </c>
       <c r="G206" t="n">
-        <v>-40490.86666252996</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7649,18 +6969,15 @@
         <v>1</v>
       </c>
       <c r="G207" t="n">
-        <v>-40489.86666252996</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7682,18 +6999,15 @@
         <v>3885.3747</v>
       </c>
       <c r="G208" t="n">
-        <v>-44375.24136252996</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7715,18 +7029,15 @@
         <v>1847.775</v>
       </c>
       <c r="G209" t="n">
-        <v>-42527.46636252996</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7748,18 +7059,15 @@
         <v>3790.7966</v>
       </c>
       <c r="G210" t="n">
-        <v>-42527.46636252996</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7781,18 +7089,15 @@
         <v>44</v>
       </c>
       <c r="G211" t="n">
-        <v>-42571.46636252996</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7814,18 +7119,15 @@
         <v>960.8686</v>
       </c>
       <c r="G212" t="n">
-        <v>-41610.59776252996</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7847,18 +7149,15 @@
         <v>19977.6562</v>
       </c>
       <c r="G213" t="n">
-        <v>-21632.94156252996</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7880,18 +7179,15 @@
         <v>455.7312</v>
       </c>
       <c r="G214" t="n">
-        <v>-22088.67276252995</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7913,18 +7209,15 @@
         <v>3000</v>
       </c>
       <c r="G215" t="n">
-        <v>-25088.67276252995</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7946,18 +7239,15 @@
         <v>618.5827</v>
       </c>
       <c r="G216" t="n">
-        <v>-25088.67276252995</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7979,18 +7269,15 @@
         <v>1</v>
       </c>
       <c r="G217" t="n">
-        <v>-25087.67276252995</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8012,18 +7299,15 @@
         <v>4</v>
       </c>
       <c r="G218" t="n">
-        <v>-25087.67276252995</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8045,18 +7329,15 @@
         <v>612.6045</v>
       </c>
       <c r="G219" t="n">
-        <v>-25700.27726252995</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8078,18 +7359,15 @@
         <v>1</v>
       </c>
       <c r="G220" t="n">
-        <v>-25699.27726252995</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8111,18 +7389,15 @@
         <v>2964.9428</v>
       </c>
       <c r="G221" t="n">
-        <v>-28664.22006252996</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8144,18 +7419,15 @@
         <v>1405.2269</v>
       </c>
       <c r="G222" t="n">
-        <v>-30069.44696252996</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8177,18 +7449,15 @@
         <v>10</v>
       </c>
       <c r="G223" t="n">
-        <v>-30059.44696252996</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8210,18 +7479,15 @@
         <v>2711.7027</v>
       </c>
       <c r="G224" t="n">
-        <v>-32771.14966252996</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8243,18 +7509,15 @@
         <v>10</v>
       </c>
       <c r="G225" t="n">
-        <v>-32761.14966252996</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8276,18 +7539,15 @@
         <v>2229.8847</v>
       </c>
       <c r="G226" t="n">
-        <v>-34991.03436252996</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8309,18 +7569,15 @@
         <v>2009.0267</v>
       </c>
       <c r="G227" t="n">
-        <v>-32982.00766252996</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8342,18 +7599,15 @@
         <v>14421.5802</v>
       </c>
       <c r="G228" t="n">
-        <v>-47403.58786252995</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8375,18 +7629,15 @@
         <v>2300.2549</v>
       </c>
       <c r="G229" t="n">
-        <v>-45103.33296252995</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8408,18 +7659,15 @@
         <v>3962.7923</v>
       </c>
       <c r="G230" t="n">
-        <v>-45103.33296252995</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8441,18 +7689,15 @@
         <v>388.4732</v>
       </c>
       <c r="G231" t="n">
-        <v>-44714.85976252995</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8474,18 +7719,15 @@
         <v>138.0232</v>
       </c>
       <c r="G232" t="n">
-        <v>-44852.88296252995</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8507,18 +7749,15 @@
         <v>330.7993</v>
       </c>
       <c r="G233" t="n">
-        <v>-44852.88296252995</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8540,18 +7779,15 @@
         <v>1026.2575</v>
       </c>
       <c r="G234" t="n">
-        <v>-44852.88296252995</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8573,18 +7809,15 @@
         <v>1176</v>
       </c>
       <c r="G235" t="n">
-        <v>-46028.88296252995</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8606,18 +7839,15 @@
         <v>1009.5952</v>
       </c>
       <c r="G236" t="n">
-        <v>-45019.28776252995</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8639,18 +7869,15 @@
         <v>633.5993</v>
       </c>
       <c r="G237" t="n">
-        <v>-45652.88706252995</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8672,18 +7899,15 @@
         <v>12562.2436</v>
       </c>
       <c r="G238" t="n">
-        <v>-58215.13066252995</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8705,18 +7929,15 @@
         <v>5963.1487</v>
       </c>
       <c r="G239" t="n">
-        <v>-64178.27936252995</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8738,18 +7959,15 @@
         <v>2148.1176</v>
       </c>
       <c r="G240" t="n">
-        <v>-66326.39696252995</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8771,18 +7989,15 @@
         <v>14432.08</v>
       </c>
       <c r="G241" t="n">
-        <v>-51894.31696252995</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8804,18 +8019,15 @@
         <v>21531.5198</v>
       </c>
       <c r="G242" t="n">
-        <v>-73425.83676252994</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8837,18 +8049,15 @@
         <v>6806.9345</v>
       </c>
       <c r="G243" t="n">
-        <v>-73425.83676252994</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8870,18 +8079,15 @@
         <v>267.1298</v>
       </c>
       <c r="G244" t="n">
-        <v>-73692.96656252994</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8903,18 +8109,15 @@
         <v>632.0153</v>
       </c>
       <c r="G245" t="n">
-        <v>-73692.96656252994</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8936,18 +8139,15 @@
         <v>131.4695</v>
       </c>
       <c r="G246" t="n">
-        <v>-73561.49706252993</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8969,18 +8169,15 @@
         <v>7212.7291</v>
       </c>
       <c r="G247" t="n">
-        <v>-73561.49706252993</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9002,18 +8199,15 @@
         <v>1299.9999</v>
       </c>
       <c r="G248" t="n">
-        <v>-72261.49716252994</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9035,18 +8229,15 @@
         <v>156.8</v>
       </c>
       <c r="G249" t="n">
-        <v>-72261.49716252994</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9068,18 +8259,15 @@
         <v>115.1367</v>
       </c>
       <c r="G250" t="n">
-        <v>-72261.49716252994</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9101,18 +8289,15 @@
         <v>3.136</v>
       </c>
       <c r="G251" t="n">
-        <v>-72264.63316252994</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9134,18 +8319,15 @@
         <v>10022</v>
       </c>
       <c r="G252" t="n">
-        <v>-62242.63316252994</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9167,18 +8349,15 @@
         <v>117.7</v>
       </c>
       <c r="G253" t="n">
-        <v>-62360.33316252993</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9200,18 +8379,15 @@
         <v>87</v>
       </c>
       <c r="G254" t="n">
-        <v>-62447.33316252993</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9233,18 +8409,15 @@
         <v>3281.8435</v>
       </c>
       <c r="G255" t="n">
-        <v>-62447.33316252993</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9266,18 +8439,15 @@
         <v>129.1648</v>
       </c>
       <c r="G256" t="n">
-        <v>-62318.16836252993</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9299,18 +8469,15 @@
         <v>130.3713</v>
       </c>
       <c r="G257" t="n">
-        <v>-62318.16836252993</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9332,18 +8499,15 @@
         <v>5</v>
       </c>
       <c r="G258" t="n">
-        <v>-62313.16836252993</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9365,18 +8529,15 @@
         <v>2</v>
       </c>
       <c r="G259" t="n">
-        <v>-62313.16836252993</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9398,18 +8559,15 @@
         <v>3402</v>
       </c>
       <c r="G260" t="n">
-        <v>-65715.16836252993</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9431,18 +8589,15 @@
         <v>160.9999</v>
       </c>
       <c r="G261" t="n">
-        <v>-65715.16836252993</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9464,18 +8619,15 @@
         <v>5501.5945</v>
       </c>
       <c r="G262" t="n">
-        <v>-60213.57386252993</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9497,18 +8649,15 @@
         <v>4.5637</v>
       </c>
       <c r="G263" t="n">
-        <v>-60209.01016252994</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9530,18 +8679,15 @@
         <v>2459.3657</v>
       </c>
       <c r="G264" t="n">
-        <v>-60209.01016252994</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9563,18 +8709,15 @@
         <v>66.889</v>
       </c>
       <c r="G265" t="n">
-        <v>-60142.12116252993</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9596,18 +8739,15 @@
         <v>807.2127</v>
       </c>
       <c r="G266" t="n">
-        <v>-60949.33386252994</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9629,18 +8769,15 @@
         <v>19.7759</v>
       </c>
       <c r="G267" t="n">
-        <v>-60929.55796252994</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9662,18 +8799,15 @@
         <v>3453.1082</v>
       </c>
       <c r="G268" t="n">
-        <v>-64382.66616252994</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9695,18 +8829,15 @@
         <v>100</v>
       </c>
       <c r="G269" t="n">
-        <v>-64482.66616252994</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9728,18 +8859,15 @@
         <v>525.2171</v>
       </c>
       <c r="G270" t="n">
-        <v>-64482.66616252994</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9761,18 +8889,15 @@
         <v>2995.4863</v>
       </c>
       <c r="G271" t="n">
-        <v>-61487.17986252994</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9794,18 +8919,15 @@
         <v>8647.5733</v>
       </c>
       <c r="G272" t="n">
-        <v>-70134.75316252995</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9827,18 +8949,15 @@
         <v>1.8807</v>
       </c>
       <c r="G273" t="n">
-        <v>-70132.87246252995</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9860,18 +8979,15 @@
         <v>30.4233</v>
       </c>
       <c r="G274" t="n">
-        <v>-70163.29576252995</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9893,18 +9009,15 @@
         <v>3463.0613</v>
       </c>
       <c r="G275" t="n">
-        <v>-73626.35706252995</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9926,18 +9039,15 @@
         <v>2137.3766</v>
       </c>
       <c r="G276" t="n">
-        <v>-75763.73366252995</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9959,18 +9069,15 @@
         <v>8098.3121</v>
       </c>
       <c r="G277" t="n">
-        <v>-83862.04576252995</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9992,18 +9099,15 @@
         <v>230</v>
       </c>
       <c r="G278" t="n">
-        <v>-83862.04576252995</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10025,18 +9129,15 @@
         <v>3652.8767</v>
       </c>
       <c r="G279" t="n">
-        <v>-80209.16906252995</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10058,18 +9159,15 @@
         <v>258.6918</v>
       </c>
       <c r="G280" t="n">
-        <v>-79950.47726252995</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10091,18 +9189,15 @@
         <v>1192.4821</v>
       </c>
       <c r="G281" t="n">
-        <v>-78757.99516252996</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10124,18 +9219,15 @@
         <v>1224.1866</v>
       </c>
       <c r="G282" t="n">
-        <v>-78757.99516252996</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10157,18 +9249,15 @@
         <v>1492.1261</v>
       </c>
       <c r="G283" t="n">
-        <v>-80250.12126252995</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10190,18 +9279,15 @@
         <v>125.7425</v>
       </c>
       <c r="G284" t="n">
-        <v>-80124.37876252996</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10223,18 +9309,15 @@
         <v>12</v>
       </c>
       <c r="G285" t="n">
-        <v>-80112.37876252996</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10256,18 +9339,15 @@
         <v>390.4881</v>
       </c>
       <c r="G286" t="n">
-        <v>-80502.86686252996</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10289,18 +9369,15 @@
         <v>818.2613</v>
       </c>
       <c r="G287" t="n">
-        <v>-81321.12816252996</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10322,18 +9399,15 @@
         <v>124.8582</v>
       </c>
       <c r="G288" t="n">
-        <v>-81321.12816252996</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10355,18 +9429,15 @@
         <v>2628.32</v>
       </c>
       <c r="G289" t="n">
-        <v>-81321.12816252996</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10388,18 +9459,15 @@
         <v>2756.4089</v>
       </c>
       <c r="G290" t="n">
-        <v>-81321.12816252996</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10421,18 +9489,15 @@
         <v>455.4609</v>
       </c>
       <c r="G291" t="n">
-        <v>-81321.12816252996</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10454,18 +9519,15 @@
         <v>3000</v>
       </c>
       <c r="G292" t="n">
-        <v>-78321.12816252996</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10487,18 +9549,15 @@
         <v>143.3601</v>
       </c>
       <c r="G293" t="n">
-        <v>-78321.12816252996</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10520,18 +9579,15 @@
         <v>3128.5534</v>
       </c>
       <c r="G294" t="n">
-        <v>-75192.57476252996</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10553,18 +9609,15 @@
         <v>13650.8588</v>
       </c>
       <c r="G295" t="n">
-        <v>-61541.71596252995</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10586,18 +9639,15 @@
         <v>9503.3573</v>
       </c>
       <c r="G296" t="n">
-        <v>-71045.07326252996</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10619,18 +9669,15 @@
         <v>768.0406</v>
       </c>
       <c r="G297" t="n">
-        <v>-70277.03266252996</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10652,18 +9699,15 @@
         <v>300</v>
       </c>
       <c r="G298" t="n">
-        <v>-70577.03266252996</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10685,18 +9729,15 @@
         <v>10</v>
       </c>
       <c r="G299" t="n">
-        <v>-70567.03266252996</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10718,18 +9759,15 @@
         <v>1</v>
       </c>
       <c r="G300" t="n">
-        <v>-70566.03266252996</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10751,18 +9789,15 @@
         <v>6931.0556</v>
       </c>
       <c r="G301" t="n">
-        <v>-70566.03266252996</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10784,18 +9819,15 @@
         <v>414</v>
       </c>
       <c r="G302" t="n">
-        <v>-70980.03266252996</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10817,18 +9849,15 @@
         <v>834.5891</v>
       </c>
       <c r="G303" t="n">
-        <v>-70145.44356252997</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10850,18 +9879,15 @@
         <v>8092.2113</v>
       </c>
       <c r="G304" t="n">
-        <v>-70145.44356252997</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10883,18 +9909,15 @@
         <v>10091.0413</v>
       </c>
       <c r="G305" t="n">
-        <v>-60054.40226252997</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10916,18 +9939,15 @@
         <v>602.81006885</v>
       </c>
       <c r="G306" t="n">
-        <v>-60054.40226252997</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10949,18 +9969,15 @@
         <v>106</v>
       </c>
       <c r="G307" t="n">
-        <v>-60054.40226252997</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10982,18 +9999,15 @@
         <v>466.213</v>
       </c>
       <c r="G308" t="n">
-        <v>-60054.40226252997</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11015,18 +10029,15 @@
         <v>1020.9128</v>
       </c>
       <c r="G309" t="n">
-        <v>-61075.31506252997</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11048,18 +10059,15 @@
         <v>12</v>
       </c>
       <c r="G310" t="n">
-        <v>-61063.31506252997</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11081,18 +10089,15 @@
         <v>143.7117</v>
       </c>
       <c r="G311" t="n">
-        <v>-61207.02676252997</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11114,18 +10119,15 @@
         <v>7200.3408</v>
       </c>
       <c r="G312" t="n">
-        <v>-68407.36756252997</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11147,18 +10149,15 @@
         <v>33</v>
       </c>
       <c r="G313" t="n">
-        <v>-68374.36756252997</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11180,18 +10179,15 @@
         <v>502.6245</v>
       </c>
       <c r="G314" t="n">
-        <v>-68876.99206252997</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11213,18 +10209,15 @@
         <v>361.3441</v>
       </c>
       <c r="G315" t="n">
-        <v>-69238.33616252997</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11246,18 +10239,15 @@
         <v>2649.9838</v>
       </c>
       <c r="G316" t="n">
-        <v>-71888.31996252997</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11279,18 +10269,15 @@
         <v>5624.3973</v>
       </c>
       <c r="G317" t="n">
-        <v>-77512.71726252997</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11312,18 +10299,15 @@
         <v>28721.1681</v>
       </c>
       <c r="G318" t="n">
-        <v>-77512.71726252997</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11345,18 +10329,15 @@
         <v>51.9398</v>
       </c>
       <c r="G319" t="n">
-        <v>-77512.71726252997</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11378,18 +10359,15 @@
         <v>2281</v>
       </c>
       <c r="G320" t="n">
-        <v>-79793.71726252997</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11411,18 +10389,15 @@
         <v>1374.6015</v>
       </c>
       <c r="G321" t="n">
-        <v>-81168.31876252998</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11444,18 +10419,15 @@
         <v>627.4888</v>
       </c>
       <c r="G322" t="n">
-        <v>-80540.82996252997</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11477,18 +10449,15 @@
         <v>10</v>
       </c>
       <c r="G323" t="n">
-        <v>-80530.82996252997</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11510,18 +10479,15 @@
         <v>630.7777</v>
       </c>
       <c r="G324" t="n">
-        <v>-81161.60766252998</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11543,18 +10509,15 @@
         <v>410.9565</v>
       </c>
       <c r="G325" t="n">
-        <v>-80750.65116252998</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11576,18 +10539,15 @@
         <v>8610.203799999999</v>
       </c>
       <c r="G326" t="n">
-        <v>-89360.85496252998</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11609,18 +10569,15 @@
         <v>14259.0958</v>
       </c>
       <c r="G327" t="n">
-        <v>-103619.95076253</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11642,18 +10599,15 @@
         <v>943.8150000000001</v>
       </c>
       <c r="G328" t="n">
-        <v>-103619.95076253</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11675,18 +10629,15 @@
         <v>7400.9256</v>
       </c>
       <c r="G329" t="n">
-        <v>-111020.87636253</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11708,18 +10659,15 @@
         <v>6808.2464</v>
       </c>
       <c r="G330" t="n">
-        <v>-104212.62996253</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11741,18 +10689,15 @@
         <v>7459.5036</v>
       </c>
       <c r="G331" t="n">
-        <v>-111672.13356253</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11774,18 +10719,15 @@
         <v>503</v>
       </c>
       <c r="G332" t="n">
-        <v>-111169.13356253</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11807,18 +10749,15 @@
         <v>30001</v>
       </c>
       <c r="G333" t="n">
-        <v>-81168.13356252997</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -11840,18 +10779,15 @@
         <v>305.1865</v>
       </c>
       <c r="G334" t="n">
-        <v>-81473.32006252997</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -11873,18 +10809,15 @@
         <v>1.677</v>
       </c>
       <c r="G335" t="n">
-        <v>-81471.64306252997</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -11906,18 +10839,15 @@
         <v>9.616400000000001</v>
       </c>
       <c r="G336" t="n">
-        <v>-81481.25946252997</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -11939,18 +10869,15 @@
         <v>10403.30716723</v>
       </c>
       <c r="G337" t="n">
-        <v>-71077.95229529997</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -11972,18 +10899,15 @@
         <v>1683.8531</v>
       </c>
       <c r="G338" t="n">
-        <v>-72761.80539529996</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>1</v>
+      </c>
+      <c r="L338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12005,18 +10929,15 @@
         <v>4586.4383</v>
       </c>
       <c r="G339" t="n">
-        <v>-77348.24369529996</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>1</v>
+      </c>
+      <c r="L339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12038,18 +10959,15 @@
         <v>1192.04332935</v>
       </c>
       <c r="G340" t="n">
-        <v>-76156.20036594996</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>1</v>
+      </c>
+      <c r="L340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -12071,18 +10989,15 @@
         <v>3980.2566</v>
       </c>
       <c r="G341" t="n">
-        <v>-76156.20036594996</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -12104,18 +11019,15 @@
         <v>20808</v>
       </c>
       <c r="G342" t="n">
-        <v>-55348.20036594996</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -12137,18 +11049,15 @@
         <v>2301.3377</v>
       </c>
       <c r="G343" t="n">
-        <v>-57649.53806594996</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -12170,18 +11079,15 @@
         <v>5169.86404109</v>
       </c>
       <c r="G344" t="n">
-        <v>-52479.67402485997</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -12203,18 +11109,15 @@
         <v>8100</v>
       </c>
       <c r="G345" t="n">
-        <v>-60579.67402485997</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -12236,18 +11139,15 @@
         <v>10630.923</v>
       </c>
       <c r="G346" t="n">
-        <v>-71210.59702485996</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>1</v>
+      </c>
+      <c r="L346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -12269,18 +11169,15 @@
         <v>13696.5612</v>
       </c>
       <c r="G347" t="n">
-        <v>-57514.03582485997</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>1</v>
+      </c>
+      <c r="L347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -12302,18 +11199,15 @@
         <v>12958.6701</v>
       </c>
       <c r="G348" t="n">
-        <v>-70472.70592485997</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>1</v>
+      </c>
+      <c r="L348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -12335,18 +11229,15 @@
         <v>3773.9003</v>
       </c>
       <c r="G349" t="n">
-        <v>-70472.70592485997</v>
-      </c>
-      <c r="H349" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>1</v>
+      </c>
+      <c r="L349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -12368,18 +11259,15 @@
         <v>1810</v>
       </c>
       <c r="G350" t="n">
-        <v>-68662.70592485997</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>1</v>
+      </c>
+      <c r="L350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -12401,18 +11289,15 @@
         <v>175.2791</v>
       </c>
       <c r="G351" t="n">
-        <v>-68837.98502485997</v>
-      </c>
-      <c r="H351" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>1</v>
+      </c>
+      <c r="L351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -12434,18 +11319,15 @@
         <v>6150</v>
       </c>
       <c r="G352" t="n">
-        <v>-68837.98502485997</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>1</v>
+      </c>
+      <c r="L352" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
